--- a/arquivos/Curso COMPLETO de Excel do Básico ao Avançado + Dashboards/Módulo Essentials/Excel_Essentials.xlsx
+++ b/arquivos/Curso COMPLETO de Excel do Básico ao Avançado + Dashboards/Módulo Essentials/Excel_Essentials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr updateLinks="never" codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrocha\Documents\Analise de dados\arquivos\Curso COMPLETO de Excel do Básico ao Avançado + Dashboards\Módulo Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340D7A78-74AE-4246-82A7-16910FD30DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4751519-8233-4849-B6D7-2DF4103BCDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24105" windowHeight="15390" tabRatio="838" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPÍTULO 1" sheetId="2" r:id="rId1"/>
@@ -32951,7 +32951,7 @@
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
@@ -35171,7 +35171,7 @@
       </c>
       <c r="B3" s="14">
         <f ca="1">TODAY()</f>
-        <v>45225</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35195,7 +35195,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <f t="shared" ref="A6" ca="1" si="0">$B$3</f>
-        <v>45225</v>
+        <v>45321</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -35216,7 +35216,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <f ca="1">A6+1</f>
-        <v>45226</v>
+        <v>45322</v>
       </c>
       <c r="B7">
         <f>E6</f>
@@ -35238,7 +35238,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <f t="shared" ref="A8:A10" ca="1" si="1">A7+1</f>
-        <v>45227</v>
+        <v>45323</v>
       </c>
       <c r="B8">
         <f>E7</f>
@@ -35260,7 +35260,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45228</v>
+        <v>45324</v>
       </c>
       <c r="B9">
         <f>E8</f>
@@ -35282,7 +35282,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45229</v>
+        <v>45325</v>
       </c>
       <c r="B10">
         <f>E9</f>
@@ -35661,8 +35661,8 @@
   </sheetPr>
   <dimension ref="B1:XFC20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35760,13 +35760,16 @@
       <c r="C7" s="74">
         <v>25</v>
       </c>
-      <c r="D7" s="74"/>
+      <c r="D7" s="74">
+        <f>C7+C7*$C$4</f>
+        <v>25.5</v>
+      </c>
       <c r="E7" s="75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="277">
         <f>D7*E7</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H7" s="54"/>
     </row>
@@ -35777,13 +35780,16 @@
       <c r="C8" s="74">
         <v>10.9</v>
       </c>
-      <c r="D8" s="74"/>
+      <c r="D8" s="74">
+        <f t="shared" ref="D8:D19" si="0">C8+C8*$C$4</f>
+        <v>11.118</v>
+      </c>
       <c r="E8" s="75">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F8" s="277">
-        <f t="shared" ref="F8:F19" si="0">D8*E8</f>
-        <v>0</v>
+        <f t="shared" ref="F8:F19" si="1">D8*E8</f>
+        <v>111.18</v>
       </c>
       <c r="H8" s="54"/>
     </row>
@@ -35794,13 +35800,16 @@
       <c r="C9" s="74">
         <v>17</v>
       </c>
-      <c r="D9" s="74"/>
+      <c r="D9" s="74">
+        <f t="shared" si="0"/>
+        <v>17.34</v>
+      </c>
       <c r="E9" s="75">
         <v>1</v>
       </c>
       <c r="F9" s="277">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>17.34</v>
       </c>
     </row>
     <row r="10" spans="2:8 16382:16383" x14ac:dyDescent="0.25">
@@ -35810,13 +35819,16 @@
       <c r="C10" s="74">
         <v>15.9</v>
       </c>
-      <c r="D10" s="74"/>
+      <c r="D10" s="74">
+        <f t="shared" si="0"/>
+        <v>16.218</v>
+      </c>
       <c r="E10" s="75">
         <v>1</v>
       </c>
       <c r="F10" s="277">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>16.218</v>
       </c>
     </row>
     <row r="11" spans="2:8 16382:16383" x14ac:dyDescent="0.25">
@@ -35826,13 +35838,16 @@
       <c r="C11" s="74">
         <v>25</v>
       </c>
-      <c r="D11" s="74"/>
+      <c r="D11" s="74">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
       <c r="E11" s="75">
         <v>1</v>
       </c>
       <c r="F11" s="277">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>25.5</v>
       </c>
     </row>
     <row r="12" spans="2:8 16382:16383" x14ac:dyDescent="0.25">
@@ -35842,13 +35857,16 @@
       <c r="C12" s="74">
         <v>12.9</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="74">
+        <f t="shared" si="0"/>
+        <v>13.158000000000001</v>
+      </c>
       <c r="E12" s="75">
         <v>1</v>
       </c>
       <c r="F12" s="277">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>13.158000000000001</v>
       </c>
     </row>
     <row r="13" spans="2:8 16382:16383" x14ac:dyDescent="0.25">
@@ -35858,13 +35876,16 @@
       <c r="C13" s="74">
         <v>89.9</v>
       </c>
-      <c r="D13" s="74"/>
+      <c r="D13" s="74">
+        <f t="shared" si="0"/>
+        <v>91.698000000000008</v>
+      </c>
       <c r="E13" s="75">
         <v>1</v>
       </c>
       <c r="F13" s="277">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>91.698000000000008</v>
       </c>
     </row>
     <row r="14" spans="2:8 16382:16383" x14ac:dyDescent="0.25">
@@ -35874,13 +35895,16 @@
       <c r="C14" s="74">
         <v>17.989999999999998</v>
       </c>
-      <c r="D14" s="74"/>
+      <c r="D14" s="74">
+        <f t="shared" si="0"/>
+        <v>18.349799999999998</v>
+      </c>
       <c r="E14" s="75">
         <v>1</v>
       </c>
       <c r="F14" s="277">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>18.349799999999998</v>
       </c>
     </row>
     <row r="15" spans="2:8 16382:16383" x14ac:dyDescent="0.25">
@@ -35890,13 +35914,16 @@
       <c r="C15" s="74">
         <v>42.5</v>
       </c>
-      <c r="D15" s="74"/>
+      <c r="D15" s="74">
+        <f t="shared" si="0"/>
+        <v>43.35</v>
+      </c>
       <c r="E15" s="75">
         <v>1</v>
       </c>
       <c r="F15" s="277">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>43.35</v>
       </c>
     </row>
     <row r="16" spans="2:8 16382:16383" x14ac:dyDescent="0.25">
@@ -35906,13 +35933,16 @@
       <c r="C16" s="74">
         <v>5.99</v>
       </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="74">
+        <f t="shared" si="0"/>
+        <v>6.1097999999999999</v>
+      </c>
       <c r="E16" s="75">
         <v>1</v>
       </c>
       <c r="F16" s="277">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6.1097999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -35922,13 +35952,16 @@
       <c r="C17" s="74">
         <v>0.8</v>
       </c>
-      <c r="D17" s="74"/>
+      <c r="D17" s="74">
+        <f t="shared" si="0"/>
+        <v>0.81600000000000006</v>
+      </c>
       <c r="E17" s="75">
         <v>1</v>
       </c>
       <c r="F17" s="277">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.81600000000000006</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -35938,13 +35971,16 @@
       <c r="C18" s="74">
         <v>2.75</v>
       </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="74">
+        <f t="shared" si="0"/>
+        <v>2.8050000000000002</v>
+      </c>
       <c r="E18" s="75">
         <v>1</v>
       </c>
       <c r="F18" s="277">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.8050000000000002</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -35954,17 +35990,23 @@
       <c r="C19" s="74">
         <v>2.5</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="74">
+        <f t="shared" si="0"/>
+        <v>2.5499999999999998</v>
+      </c>
       <c r="E19" s="75">
         <v>1</v>
       </c>
       <c r="F19" s="277">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="51"/>
+      <c r="F20" s="51">
+        <f>SUM(F7:F19)</f>
+        <v>400.07460000000009</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -49893,7 +49935,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="235">
         <f ca="1">TODAY()</f>
-        <v>45225</v>
+        <v>45321</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>88</v>
@@ -49903,7 +49945,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="235">
         <f t="shared" ref="A3:A11" ca="1" si="0">TODAY()</f>
-        <v>45225</v>
+        <v>45321</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>89</v>
@@ -49913,7 +49955,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45321</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>90</v>
@@ -49923,7 +49965,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45321</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>91</v>
@@ -49933,7 +49975,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45321</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>92</v>
@@ -49943,7 +49985,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45321</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>93</v>
@@ -49953,7 +49995,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45321</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>94</v>
@@ -49972,7 +50014,7 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45321</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>97</v>
@@ -49982,7 +50024,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="235">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45321</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>98</v>

--- a/arquivos/Curso COMPLETO de Excel do Básico ao Avançado + Dashboards/Módulo Essentials/Excel_Essentials.xlsx
+++ b/arquivos/Curso COMPLETO de Excel do Básico ao Avançado + Dashboards/Módulo Essentials/Excel_Essentials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrocha\Documents\Analise de dados\arquivos\Curso COMPLETO de Excel do Básico ao Avançado + Dashboards\Módulo Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3991A936-2549-469B-857C-98E74894DB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A62075-73AA-4E12-A158-7CA9EFD6C2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24105" windowHeight="15390" tabRatio="838" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24105" windowHeight="15390" tabRatio="838" firstSheet="12" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPÍTULO 1" sheetId="2" r:id="rId1"/>
@@ -2848,31 +2848,31 @@
     <numFmt numFmtId="173" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="174" formatCode="dddd\ dd/mm/yyyy"/>
     <numFmt numFmtId="175" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="yyyy"/>
-    <numFmt numFmtId="178" formatCode="yy"/>
-    <numFmt numFmtId="180" formatCode="dddd"/>
-    <numFmt numFmtId="181" formatCode="mmmm"/>
-    <numFmt numFmtId="182" formatCode="d"/>
-    <numFmt numFmtId="183" formatCode="dd"/>
-    <numFmt numFmtId="184" formatCode="ddd"/>
-    <numFmt numFmtId="185" formatCode="m"/>
-    <numFmt numFmtId="186" formatCode="mm"/>
-    <numFmt numFmtId="187" formatCode="mmm"/>
-    <numFmt numFmtId="188" formatCode="mmmmm"/>
-    <numFmt numFmtId="189" formatCode="h"/>
-    <numFmt numFmtId="190" formatCode="hh"/>
-    <numFmt numFmtId="191" formatCode="h:m"/>
-    <numFmt numFmtId="192" formatCode="s"/>
-    <numFmt numFmtId="193" formatCode="ss"/>
-    <numFmt numFmtId="195" formatCode="[h]"/>
-    <numFmt numFmtId="196" formatCode="[s]"/>
-    <numFmt numFmtId="197" formatCode="00000\-000"/>
-    <numFmt numFmtId="198" formatCode="000&quot;.&quot;000&quot;.&quot;000\-00"/>
-    <numFmt numFmtId="199" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;000\-00"/>
-    <numFmt numFmtId="200" formatCode="#,##0\ &quot;Kg&quot;"/>
-    <numFmt numFmtId="201" formatCode="&quot;CCS&quot;\ 00000"/>
-    <numFmt numFmtId="202" formatCode="ddd\ dd/mm/yyyy\,\ hh:mm"/>
-    <numFmt numFmtId="203" formatCode="&quot;Data de envio 5 dias após vendas&quot;\ dd/mm/yyyy"/>
+    <numFmt numFmtId="176" formatCode="yyyy"/>
+    <numFmt numFmtId="177" formatCode="yy"/>
+    <numFmt numFmtId="178" formatCode="dddd"/>
+    <numFmt numFmtId="179" formatCode="mmmm"/>
+    <numFmt numFmtId="180" formatCode="d"/>
+    <numFmt numFmtId="181" formatCode="dd"/>
+    <numFmt numFmtId="182" formatCode="ddd"/>
+    <numFmt numFmtId="183" formatCode="m"/>
+    <numFmt numFmtId="184" formatCode="mm"/>
+    <numFmt numFmtId="185" formatCode="mmm"/>
+    <numFmt numFmtId="186" formatCode="mmmmm"/>
+    <numFmt numFmtId="187" formatCode="h"/>
+    <numFmt numFmtId="188" formatCode="hh"/>
+    <numFmt numFmtId="189" formatCode="h:m"/>
+    <numFmt numFmtId="190" formatCode="s"/>
+    <numFmt numFmtId="191" formatCode="ss"/>
+    <numFmt numFmtId="192" formatCode="[h]"/>
+    <numFmt numFmtId="193" formatCode="[s]"/>
+    <numFmt numFmtId="194" formatCode="00000\-000"/>
+    <numFmt numFmtId="195" formatCode="000&quot;.&quot;000&quot;.&quot;000\-00"/>
+    <numFmt numFmtId="196" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;000\-00"/>
+    <numFmt numFmtId="197" formatCode="#,##0\ &quot;Kg&quot;"/>
+    <numFmt numFmtId="198" formatCode="&quot;CCS&quot;\ 00000"/>
+    <numFmt numFmtId="199" formatCode="ddd\ dd/mm/yyyy\,\ hh:mm"/>
+    <numFmt numFmtId="200" formatCode="&quot;Data de envio 5 dias após vendas&quot;\ dd/mm/yyyy"/>
   </numFmts>
   <fonts count="44" x14ac:knownFonts="1">
     <font>
@@ -4439,7 +4439,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="447">
+  <cellXfs count="446">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -5145,6 +5145,56 @@
     <xf numFmtId="44" fontId="0" fillId="23" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="43" fillId="24" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="43" fillId="23" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="191" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="195" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="195" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="197" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="197" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5190,57 +5240,6 @@
     <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="45" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="192" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="193" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="198" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="198" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="199" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="200" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="200" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="201" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="202" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="203" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Detalhes da tabela" xfId="11" xr:uid="{7C8B6D5D-E9B9-4954-908D-A71D3046725E}"/>
@@ -5263,210 +5262,6 @@
   <dxfs count="512">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[hh]:mm"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="197" formatCode="00000\-000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="199" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;000\-00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="203" formatCode="&quot;Data de envio 5 dias após vendas&quot;\ dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="202" formatCode="ddd\ dd/mm/yyyy\,\ hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="201" formatCode="&quot;CCS&quot;\ 00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="200" formatCode="#,##0\ &quot;Kg&quot;"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.14999847407452621"/>
@@ -5487,511 +5282,17 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="199" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;000\-00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="198" formatCode="000&quot;.&quot;000&quot;.&quot;000\-00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="197" formatCode="00000\-000"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="196" formatCode="[s]"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="195" formatCode="[h]"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="195" formatCode="[h]"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="193" formatCode="ss"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="192" formatCode="s"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="28" formatCode="mm:ss"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="191" formatCode="h:m"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="190" formatCode="hh"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="189" formatCode="h"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="ddd\ dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="188" formatCode="mmmmm"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="181" formatCode="mmmm"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="187" formatCode="mmm"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="186" formatCode="mm"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="185" formatCode="m"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="180" formatCode="dddd"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="184" formatCode="ddd"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="183" formatCode="dd"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="182" formatCode="d"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="yy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -8492,7 +7793,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="176" formatCode="ddd\ dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="201" formatCode="ddd\ dd/mm/yyyy\ hh:mm"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="6" tint="0.59999389629810485"/>
@@ -13351,27 +12652,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.14999847407452621"/>
@@ -13494,9 +12774,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -13515,6 +12792,68 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="25" formatCode="hh:mm"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -13529,12 +12868,52 @@
         <bottom style="thin">
           <color theme="0" tint="-0.14999847407452621"/>
         </bottom>
-        <vertical style="thin">
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[hh]:mm"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color theme="0" tint="-0.14999847407452621"/>
-        </vertical>
-        <horizontal style="thin">
+        </left>
+        <right style="thin">
           <color theme="0" tint="-0.14999847407452621"/>
-        </horizontal>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -13561,6 +12940,20 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="25" formatCode="hh:mm"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -13584,6 +12977,20 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="25" formatCode="hh:mm"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -13604,6 +13011,55 @@
         <horizontal style="thin">
           <color theme="0" tint="-0.14999847407452621"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -13694,10 +13150,113 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="194" formatCode="00000\-000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="196" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;000\-00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="200" formatCode="&quot;Data de envio 5 dias após vendas&quot;\ dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="199" formatCode="ddd\ dd/mm/yyyy\,\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="198" formatCode="&quot;CCS&quot;\ 00000"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="197" formatCode="#,##0\ &quot;Kg&quot;"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="196" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;000\-00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="195" formatCode="000&quot;.&quot;000&quot;.&quot;000\-00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="194" formatCode="00000\-000"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -13765,6 +13324,9 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="193" formatCode="[s]"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -13784,6 +13346,9 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="192" formatCode="[h]"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -13799,6 +13364,9 @@
           <color theme="0" tint="-0.14999847407452621"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="192" formatCode="[h]"/>
     </dxf>
     <dxf>
       <border>
@@ -13868,6 +13436,165 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="191" formatCode="ss"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="190" formatCode="s"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="28" formatCode="mm:ss"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="189" formatCode="h:m"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="188" formatCode="hh"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="187" formatCode="h"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color theme="0" tint="-0.14999847407452621"/>
@@ -13910,6 +13637,278 @@
         </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="ddd\ dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="yy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="186" formatCode="mmmmm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="179" formatCode="mmmm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="185" formatCode="mmm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode="mm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="183" formatCode="m"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="dddd"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="182" formatCode="ddd"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="181" formatCode="dd"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="d"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
         <vertical style="thin">
           <color theme="0" tint="-0.14999847407452621"/>
         </vertical>
@@ -30815,7 +30814,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$1:$E$4" spid="_x0000_s6177"/>
+                  <a14:cameraTool cellRange="$A$1:$E$4" spid="_x0000_s6184"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -31875,14 +31874,14 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E4F7E730-3865-4B22-B010-3FC9FD08F717}" name="Tabela7" displayName="Tabela7" ref="A5:E10" totalsRowShown="0" headerRowDxfId="416">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E4F7E730-3865-4B22-B010-3FC9FD08F717}" name="Tabela7" displayName="Tabela7" ref="A5:E10" totalsRowShown="0" headerRowDxfId="372">
   <autoFilter ref="A5:E10" xr:uid="{90A07863-F9CF-45E1-AB94-B5F371AE082F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{87E6D8C7-0F0A-4D2C-B69F-03D010E2E040}" name="Data" dataDxfId="415" totalsRowDxfId="414"/>
+    <tableColumn id="1" xr3:uid="{87E6D8C7-0F0A-4D2C-B69F-03D010E2E040}" name="Data" dataDxfId="371" totalsRowDxfId="370"/>
     <tableColumn id="2" xr3:uid="{3B89DDD5-D5B6-47CA-A1C9-A095240F462A}" name="Estoque Anterior"/>
     <tableColumn id="3" xr3:uid="{5279E0C2-5872-408B-A3EF-97F13744DFD6}" name="Qtde. Entrada"/>
     <tableColumn id="4" xr3:uid="{B91BFF17-7706-4FC2-8F08-7984D39F657A}" name="Qtde.  Saída"/>
-    <tableColumn id="5" xr3:uid="{BC8870C3-C5F2-4C8B-8D03-5DEF08C82D07}" name="Estoque dia" dataDxfId="413" totalsRowDxfId="412">
+    <tableColumn id="5" xr3:uid="{BC8870C3-C5F2-4C8B-8D03-5DEF08C82D07}" name="Estoque dia" dataDxfId="369" totalsRowDxfId="368">
       <calculatedColumnFormula>Tabela7[[#This Row],[Estoque Anterior]]+Tabela7[[#This Row],[Qtde. Entrada]]-Tabela7[[#This Row],[Qtde.  Saída]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31897,7 +31896,7 @@
     <tableColumn id="1" xr3:uid="{5538D7D8-D521-415D-BFEF-6A9224B9D53B}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{78268341-2724-4EF3-B932-EEF5658EB124}" name="Peso"/>
     <tableColumn id="3" xr3:uid="{21B9EB42-5E2B-44C8-A8DE-FAD277F11866}" name="Altura "/>
-    <tableColumn id="4" xr3:uid="{F3DEABA3-96A7-4EFC-A3A5-7F15595448C9}" name="IMC" dataDxfId="411">
+    <tableColumn id="4" xr3:uid="{F3DEABA3-96A7-4EFC-A3A5-7F15595448C9}" name="IMC" dataDxfId="367">
       <calculatedColumnFormula>Tabela15[[#This Row],[Peso]]/Tabela15[[#This Row],[Altura ]]^2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31939,11 +31938,13 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4ED5A69A-44E1-433E-91A1-E63354363671}" name="Tabela11131415" displayName="Tabela11131415" ref="A3:B8" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{4ED5A69A-44E1-433E-91A1-E63354363671}" name="Tb_Total" displayName="Tb_Total" ref="A3:B8" totalsRowShown="0">
   <autoFilter ref="A3:B8" xr:uid="{488F90E4-FBFE-44DA-AF43-A825FAB29C11}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{06A8783B-E316-4E83-809A-C96231DA9B33}" name="Veículos"/>
-    <tableColumn id="2" xr3:uid="{96D7789C-0B1B-4869-8333-08C4B593DE72}" name="Vendas" dataDxfId="410"/>
+    <tableColumn id="2" xr3:uid="{96D7789C-0B1B-4869-8333-08C4B593DE72}" name="Vendas" dataDxfId="366">
+      <calculatedColumnFormula>Tb_janeiro[[#This Row],[Vendas]]+Tb_Fevereiro[[#This Row],[Vendas]]+Tb_Março[[#This Row],[Vendas]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -31954,10 +31955,12 @@
   <autoFilter ref="A1:E5" xr:uid="{1ACD5214-7CD9-40C7-A029-46B6765E4BF9}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{18954068-ED5E-4388-BF8E-DDD18F617A46}" name="Produtos"/>
-    <tableColumn id="2" xr3:uid="{F6426FB2-C69C-405D-85CD-C436EF45662D}" name="Jan" dataDxfId="409"/>
-    <tableColumn id="3" xr3:uid="{8220FA6B-9290-4A7A-BEAA-6283AB23BE19}" name="Fev" dataDxfId="408"/>
+    <tableColumn id="2" xr3:uid="{F6426FB2-C69C-405D-85CD-C436EF45662D}" name="Jan" dataDxfId="1">
+      <calculatedColumnFormula>RANDBETWEEN(1,500)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{8220FA6B-9290-4A7A-BEAA-6283AB23BE19}" name="Fev" dataDxfId="365"/>
     <tableColumn id="4" xr3:uid="{44D76BE5-6DAD-4DCF-97DE-33DE458A3037}" name="Mar"/>
-    <tableColumn id="5" xr3:uid="{BB0D3269-7104-45AB-A970-775F530B7E71}" name="Total" dataDxfId="407">
+    <tableColumn id="5" xr3:uid="{BB0D3269-7104-45AB-A970-775F530B7E71}" name="Total" dataDxfId="364">
       <calculatedColumnFormula>SUM(Tabela16[[#This Row],[Jan]:[Mar]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31966,7 +31969,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{689515D0-5B10-4236-BD49-E3354B21E157}" name="Tabela17" displayName="Tabela17" ref="B7:E29" totalsRowShown="0" headerRowDxfId="406" headerRowBorderDxfId="405" tableBorderDxfId="404" totalsRowBorderDxfId="403">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{689515D0-5B10-4236-BD49-E3354B21E157}" name="Tabela17" displayName="Tabela17" ref="B7:E29" totalsRowShown="0" headerRowDxfId="363" headerRowBorderDxfId="362" tableBorderDxfId="361" totalsRowBorderDxfId="360">
   <autoFilter ref="B7:E29" xr:uid="{C43CD264-CCA4-41CF-AD50-336CB487B6E8}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -31974,26 +31977,28 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B3E89F67-9EA9-4580-A8E3-9D1F323976CF}" name="CÓDIGO" dataDxfId="402"/>
-    <tableColumn id="2" xr3:uid="{DE99A825-E9C6-498A-B01C-92D530C4C8BB}" name="TIPO" dataDxfId="401"/>
-    <tableColumn id="3" xr3:uid="{FB9D54D7-7EC2-4407-8489-F32BCAAE8825}" name="MODELO" dataDxfId="400"/>
-    <tableColumn id="4" xr3:uid="{7D5B1ECC-3D53-439A-B52F-0DED1C5B2169}" name="TAMANHO" dataDxfId="399"/>
+    <tableColumn id="1" xr3:uid="{B3E89F67-9EA9-4580-A8E3-9D1F323976CF}" name="CÓDIGO" dataDxfId="359"/>
+    <tableColumn id="2" xr3:uid="{DE99A825-E9C6-498A-B01C-92D530C4C8BB}" name="TIPO" dataDxfId="358"/>
+    <tableColumn id="3" xr3:uid="{FB9D54D7-7EC2-4407-8489-F32BCAAE8825}" name="MODELO" dataDxfId="357"/>
+    <tableColumn id="4" xr3:uid="{7D5B1ECC-3D53-439A-B52F-0DED1C5B2169}" name="TAMANHO" dataDxfId="0">
+      <calculatedColumnFormula>IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{0E9F9722-0359-4747-8357-70B41205037B}" name="Tab_arredb" displayName="Tab_arredb" ref="B2:D105" totalsRowShown="0" headerRowDxfId="398" headerRowBorderDxfId="397" tableBorderDxfId="396" totalsRowBorderDxfId="395">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{0E9F9722-0359-4747-8357-70B41205037B}" name="Tab_arredb" displayName="Tab_arredb" ref="B2:D105" totalsRowShown="0" headerRowDxfId="356" headerRowBorderDxfId="355" tableBorderDxfId="354" totalsRowBorderDxfId="353">
   <autoFilter ref="B2:D105" xr:uid="{B8B94B61-4B60-4BF2-B288-C506550F6210}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DCA1AAF4-C2B2-4BFD-8200-C0AEEE15446B}" name="Valor" dataDxfId="394"/>
-    <tableColumn id="2" xr3:uid="{085E3765-F603-4EE5-8890-3B756EE898FA}" name="Significância" dataDxfId="393"/>
-    <tableColumn id="3" xr3:uid="{3A711B55-EDD4-422A-9F0C-EFA1231D3C85}" name="ARREDMULTB.MAT" dataDxfId="392"/>
+    <tableColumn id="1" xr3:uid="{DCA1AAF4-C2B2-4BFD-8200-C0AEEE15446B}" name="Valor" dataDxfId="352"/>
+    <tableColumn id="2" xr3:uid="{085E3765-F603-4EE5-8890-3B756EE898FA}" name="Significância" dataDxfId="351"/>
+    <tableColumn id="3" xr3:uid="{3A711B55-EDD4-422A-9F0C-EFA1231D3C85}" name="ARREDMULTB.MAT" dataDxfId="350"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16 2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -32009,7 +32014,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FFEC4E8D-13BF-4C8E-82D6-878BCCD2C1A8}" name="Valor"/>
     <tableColumn id="2" xr3:uid="{0C17B178-777B-4E5C-93DB-2A2A232CD5F4}" name="Significância"/>
-    <tableColumn id="4" xr3:uid="{C17B91F0-B2F8-47A0-900E-34F026D65616}" name="TETO.MAT" dataDxfId="391"/>
+    <tableColumn id="4" xr3:uid="{C17B91F0-B2F8-47A0-900E-34F026D65616}" name="TETO.MAT" dataDxfId="349"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -32036,14 +32041,14 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{480F5603-BE47-4532-81B7-DCDDCB514A1E}" name="Valor"/>
     <tableColumn id="2" xr3:uid="{3AFEF5E9-99B9-4EC3-96F6-EFFA85B0EB25}" name="Significância"/>
-    <tableColumn id="5" xr3:uid="{163D4D7E-99E5-4635-BB08-7186D60E3DC7}" name="MARRED" dataDxfId="390"/>
+    <tableColumn id="5" xr3:uid="{163D4D7E-99E5-4635-BB08-7186D60E3DC7}" name="MARRED" dataDxfId="348"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{AEA4808F-84E7-4578-8614-5E384A3267DD}" name="TblCubagem" displayName="TblCubagem" ref="B5:L10" totalsRowShown="0" headerRowDxfId="389" dataDxfId="387" headerRowBorderDxfId="388" tableBorderDxfId="386" totalsRowBorderDxfId="385" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{AEA4808F-84E7-4578-8614-5E384A3267DD}" name="TblCubagem" displayName="TblCubagem" ref="B5:L10" totalsRowShown="0" headerRowDxfId="347" dataDxfId="345" headerRowBorderDxfId="346" tableBorderDxfId="344" totalsRowBorderDxfId="343" headerRowCellStyle="Normal 2">
   <autoFilter ref="B5:L10" xr:uid="{A36B13AC-1378-42A0-96CF-5E9665AB4CDC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -32058,25 +32063,25 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2FD6800E-820F-4C1A-82A6-EE7E0E069D5B}" name="Altura" dataDxfId="384" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{3928BC6F-E12A-45CB-B2D5-800F24734225}" name="Largura" dataDxfId="383" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{DD6B5999-4732-47D1-9C88-F12678565C39}" name="Comprimento" dataDxfId="382" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{A3E71015-876A-4450-9B84-EB9AC4560918}" name="Volume da mercadoria" dataDxfId="381">
+    <tableColumn id="1" xr3:uid="{2FD6800E-820F-4C1A-82A6-EE7E0E069D5B}" name="Altura" dataDxfId="342" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{3928BC6F-E12A-45CB-B2D5-800F24734225}" name="Largura" dataDxfId="341" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{DD6B5999-4732-47D1-9C88-F12678565C39}" name="Comprimento" dataDxfId="340" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{A3E71015-876A-4450-9B84-EB9AC4560918}" name="Volume da mercadoria" dataDxfId="339">
       <calculatedColumnFormula>B6*C6*D6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A3D4C2E1-3890-45A9-9F8D-00B240F9A65E}" name="Densidade ideal do veículo" dataDxfId="380" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{D5662579-7CC8-47F6-B4A4-0F43E2B40215}" name="Peso original da mercadoria" dataDxfId="379" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{EABB4478-298D-4E18-8675-E5BCAA760697}" name="Peso cubado da mercadoria" dataDxfId="378" dataCellStyle="Normal 2">
+    <tableColumn id="5" xr3:uid="{A3D4C2E1-3890-45A9-9F8D-00B240F9A65E}" name="Densidade ideal do veículo" dataDxfId="338" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{D5662579-7CC8-47F6-B4A4-0F43E2B40215}" name="Peso original da mercadoria" dataDxfId="337" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{EABB4478-298D-4E18-8675-E5BCAA760697}" name="Peso cubado da mercadoria" dataDxfId="336" dataCellStyle="Normal 2">
       <calculatedColumnFormula>F6*E6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BE3B8EB1-806A-4D65-AC90-71AA24DF608F}" name="Arredondamento da Cubagem" dataDxfId="377" dataCellStyle="Normal 2">
+    <tableColumn id="8" xr3:uid="{BE3B8EB1-806A-4D65-AC90-71AA24DF608F}" name="Arredondamento da Cubagem" dataDxfId="335" dataCellStyle="Normal 2">
       <calculatedColumnFormula array="1">_xlfn.CEILING.MATH(TblCubagem[[#This Row],[Peso cubado da mercadoria]],TblFaixaCubagem[Faixa])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E12E5B75-51A4-49DF-90A1-92BEDE15EDA1}" name="Acréscimo Frete" dataDxfId="376">
+    <tableColumn id="9" xr3:uid="{E12E5B75-51A4-49DF-90A1-92BEDE15EDA1}" name="Acréscimo Frete" dataDxfId="334">
       <calculatedColumnFormula>H6/G6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D8C4F9FC-04B6-4978-86CA-CA250B477004}" name="Frete antes da Cubagem" dataDxfId="375"/>
-    <tableColumn id="11" xr3:uid="{FCA53A3E-AFFA-43E7-A8F5-57BE0D183B31}" name="Frete Depois da Cubagem" dataDxfId="374">
+    <tableColumn id="10" xr3:uid="{D8C4F9FC-04B6-4978-86CA-CA250B477004}" name="Frete antes da Cubagem" dataDxfId="333"/>
+    <tableColumn id="11" xr3:uid="{FCA53A3E-AFFA-43E7-A8F5-57BE0D183B31}" name="Frete Depois da Cubagem" dataDxfId="332">
       <calculatedColumnFormula>K6*J6</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -32085,17 +32090,17 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{07996632-5C5C-460D-8E94-C5B3E4C97C54}" name="TblFaixaCubagem" displayName="TblFaixaCubagem" ref="K2:K3" totalsRowShown="0" headerRowDxfId="373" dataDxfId="372" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{07996632-5C5C-460D-8E94-C5B3E4C97C54}" name="TblFaixaCubagem" displayName="TblFaixaCubagem" ref="K2:K3" totalsRowShown="0" headerRowDxfId="331" dataDxfId="330" dataCellStyle="Normal 2">
   <autoFilter ref="K2:K3" xr:uid="{EB459883-6C90-4D4F-9394-0C8391767448}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0E5AD2BD-D39B-491D-92E4-E07AED8F43AF}" name="Faixa" dataDxfId="371" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{0E5AD2BD-D39B-491D-92E4-E07AED8F43AF}" name="Faixa" dataDxfId="329" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="57" xr:uid="{0DCEA1FD-E9A4-4578-82D3-8B9E3B2DFB25}" name="Tbl_Ranking" displayName="Tbl_Ranking" ref="B2:D34" totalsRowShown="0" headerRowDxfId="370" dataDxfId="368" headerRowBorderDxfId="369" tableBorderDxfId="367" totalsRowBorderDxfId="366">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="57" xr:uid="{0DCEA1FD-E9A4-4578-82D3-8B9E3B2DFB25}" name="Tbl_Ranking" displayName="Tbl_Ranking" ref="B2:D34" totalsRowShown="0" headerRowDxfId="328" dataDxfId="326" headerRowBorderDxfId="327" tableBorderDxfId="325" totalsRowBorderDxfId="324">
   <autoFilter ref="B2:D34" xr:uid="{4E25AF30-3195-4BB0-BFF1-7C082CB89735}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -32105,9 +32110,9 @@
     <sortCondition ref="C2:C33"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{8F23DCBF-53FD-4F1B-8588-5EE137F9EBCC}" name="ID" dataDxfId="365"/>
-    <tableColumn id="1" xr3:uid="{F5F591BE-2AFA-499F-A80D-C1E5D1DE082E}" name="Vendedores" dataDxfId="364"/>
-    <tableColumn id="2" xr3:uid="{B1C60F10-7A1E-4A29-B57A-8C813B60F31A}" name="Vendas" dataDxfId="363" dataCellStyle="Vírgula"/>
+    <tableColumn id="3" xr3:uid="{8F23DCBF-53FD-4F1B-8588-5EE137F9EBCC}" name="ID" dataDxfId="323"/>
+    <tableColumn id="1" xr3:uid="{F5F591BE-2AFA-499F-A80D-C1E5D1DE082E}" name="Vendedores" dataDxfId="322"/>
+    <tableColumn id="2" xr3:uid="{B1C60F10-7A1E-4A29-B57A-8C813B60F31A}" name="Vendas" dataDxfId="321" dataCellStyle="Vírgula"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16 2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -32120,8 +32125,8 @@
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{71025A53-F8A6-444C-AD47-AF959F1316FB}" name="Posição" dataDxfId="362"/>
-    <tableColumn id="2" xr3:uid="{EEE24443-A3FD-4745-A808-714CC2208656}" name="Resultado" dataDxfId="361" dataCellStyle="Vírgula"/>
+    <tableColumn id="1" xr3:uid="{71025A53-F8A6-444C-AD47-AF959F1316FB}" name="Posição" dataDxfId="320"/>
+    <tableColumn id="2" xr3:uid="{EEE24443-A3FD-4745-A808-714CC2208656}" name="Resultado" dataDxfId="319" dataCellStyle="Vírgula"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -32134,8 +32139,8 @@
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D4CEF46C-7CB0-43F2-B867-FFD7CE91CC1F}" name="Posição" dataDxfId="360"/>
-    <tableColumn id="2" xr3:uid="{50A187EA-F077-4FC4-945B-8921A356C8C5}" name="Resultado" dataDxfId="359" dataCellStyle="Vírgula"/>
+    <tableColumn id="1" xr3:uid="{D4CEF46C-7CB0-43F2-B867-FFD7CE91CC1F}" name="Posição" dataDxfId="318"/>
+    <tableColumn id="2" xr3:uid="{50A187EA-F077-4FC4-945B-8921A356C8C5}" name="Resultado" dataDxfId="317" dataCellStyle="Vírgula"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -32148,15 +32153,15 @@
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{68F7A5E1-6918-4370-8093-561BD6C0D4AC}" name="Vendas" dataDxfId="358" dataCellStyle="Vírgula"/>
-    <tableColumn id="2" xr3:uid="{A8CCF14D-4E4E-4437-8312-0D183EE2933D}" name="Posição" dataDxfId="357"/>
+    <tableColumn id="1" xr3:uid="{68F7A5E1-6918-4370-8093-561BD6C0D4AC}" name="Vendas" dataDxfId="316" dataCellStyle="Vírgula"/>
+    <tableColumn id="2" xr3:uid="{A8CCF14D-4E4E-4437-8312-0D183EE2933D}" name="Posição" dataDxfId="315"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{EADBCAF2-1AD4-49D5-AD98-334C02A07AC2}" name="TblRank" displayName="TblRank" ref="B8:E16" totalsRowShown="0" headerRowDxfId="356" dataDxfId="354" headerRowBorderDxfId="355" tableBorderDxfId="353" totalsRowBorderDxfId="352">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{EADBCAF2-1AD4-49D5-AD98-334C02A07AC2}" name="TblRank" displayName="TblRank" ref="B8:E16" totalsRowShown="0" headerRowDxfId="314" dataDxfId="312" headerRowBorderDxfId="313" tableBorderDxfId="311" totalsRowBorderDxfId="310">
   <autoFilter ref="B8:E16" xr:uid="{2F9DD5CB-FCC0-4EB6-8E85-7417BAE07618}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -32164,10 +32169,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{89F32594-8E7A-4A8D-A70E-97F4D6311D6B}" name="Vendedores" dataDxfId="351"/>
-    <tableColumn id="2" xr3:uid="{81F71F82-1298-4CA3-81BD-392D7D020987}" name="Vendas" dataDxfId="350" dataCellStyle="Vírgula"/>
-    <tableColumn id="3" xr3:uid="{BA06E950-91FD-4D1E-8D0C-517E06AB7442}" name="Ranking" dataDxfId="349"/>
-    <tableColumn id="4" xr3:uid="{18CB4848-7A9C-4E77-A0EC-A63728D66FBB}" name="Prêmio" dataDxfId="348" dataCellStyle="Vírgula"/>
+    <tableColumn id="1" xr3:uid="{89F32594-8E7A-4A8D-A70E-97F4D6311D6B}" name="Vendedores" dataDxfId="309"/>
+    <tableColumn id="2" xr3:uid="{81F71F82-1298-4CA3-81BD-392D7D020987}" name="Vendas" dataDxfId="308" dataCellStyle="Vírgula"/>
+    <tableColumn id="3" xr3:uid="{BA06E950-91FD-4D1E-8D0C-517E06AB7442}" name="Ranking" dataDxfId="307"/>
+    <tableColumn id="4" xr3:uid="{18CB4848-7A9C-4E77-A0EC-A63728D66FBB}" name="Prêmio" dataDxfId="306" dataCellStyle="Vírgula"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -32177,20 +32182,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{56F2FA26-A1FB-49B3-9FC5-35EA51F6CB7B}" name="TblprêmioRank" displayName="TblprêmioRank" ref="B19:B20" totalsRowShown="0">
   <autoFilter ref="B19:B20" xr:uid="{EA305DA9-5901-44E6-89EB-EF4036DDEFAC}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{78285533-37A7-4E72-9EC2-1FD16235F548}" name="Valor do Prêmio" dataDxfId="347"/>
+    <tableColumn id="1" xr3:uid="{78285533-37A7-4E72-9EC2-1FD16235F548}" name="Valor do Prêmio" dataDxfId="305"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{21B1451F-B744-4220-8C40-98F3FE070A8A}" name="Tabela29" displayName="Tabela29" ref="A1:D18" totalsRowShown="0" headerRowDxfId="346">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{21B1451F-B744-4220-8C40-98F3FE070A8A}" name="Tabela29" displayName="Tabela29" ref="A1:D18" totalsRowShown="0" headerRowDxfId="304">
   <autoFilter ref="A1:D18" xr:uid="{1C0E97B6-7F33-4F4B-8612-33723028EFA6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A3DD8E32-1E50-4C86-B227-470EF7F771D0}" name="Data" dataDxfId="345"/>
-    <tableColumn id="2" xr3:uid="{DD0ECDA1-DF41-4692-B27B-52035C5764A8}" name="1" dataDxfId="344"/>
-    <tableColumn id="3" xr3:uid="{103927BB-669D-4560-9145-8D3036FADA80}" name="2" dataDxfId="343"/>
-    <tableColumn id="4" xr3:uid="{F7138DA4-F4A7-465D-8CD7-E164F1B688C4}" name="3" dataDxfId="342"/>
+    <tableColumn id="1" xr3:uid="{A3DD8E32-1E50-4C86-B227-470EF7F771D0}" name="Data" dataDxfId="303"/>
+    <tableColumn id="2" xr3:uid="{DD0ECDA1-DF41-4692-B27B-52035C5764A8}" name="1" dataDxfId="302"/>
+    <tableColumn id="3" xr3:uid="{103927BB-669D-4560-9145-8D3036FADA80}" name="2" dataDxfId="301"/>
+    <tableColumn id="4" xr3:uid="{F7138DA4-F4A7-465D-8CD7-E164F1B688C4}" name="3" dataDxfId="300"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -32231,12 +32236,12 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{23C8FF06-06BD-4D24-908A-C766F5F3507D}" name="Tabela2932" displayName="Tabela2932" ref="A1:C16" totalsRowShown="0" headerRowDxfId="341">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{23C8FF06-06BD-4D24-908A-C766F5F3507D}" name="Tabela2932" displayName="Tabela2932" ref="A1:C16" totalsRowShown="0" headerRowDxfId="299">
   <autoFilter ref="A1:C16" xr:uid="{1FF9C3B7-0C23-4B35-A3DF-BFAF460D6E08}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BF2E3FF5-8181-4751-A803-87F38EDCFFA6}" name="Data" dataDxfId="340"/>
-    <tableColumn id="2" xr3:uid="{8FD82ECD-187B-4526-B824-F05D38A7BB99}" name="1" dataDxfId="339"/>
-    <tableColumn id="3" xr3:uid="{9583DA3E-A231-4956-A2C3-156B9738D8D9}" name="2" dataDxfId="338"/>
+    <tableColumn id="1" xr3:uid="{BF2E3FF5-8181-4751-A803-87F38EDCFFA6}" name="Data" dataDxfId="298"/>
+    <tableColumn id="2" xr3:uid="{8FD82ECD-187B-4526-B824-F05D38A7BB99}" name="1" dataDxfId="297"/>
+    <tableColumn id="3" xr3:uid="{9583DA3E-A231-4956-A2C3-156B9738D8D9}" name="2" dataDxfId="296"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -32258,20 +32263,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="55" xr:uid="{10E4A6B0-5BD2-4CCE-B17D-09725D45A89F}" name="Tabela55" displayName="Tabela55" ref="A2:G10" totalsRowShown="0">
   <autoFilter ref="A2:G10" xr:uid="{DA844C9B-E34D-47A4-A1B9-A043D911C5D5}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D52CAFC2-0475-4561-A9D3-A268609911A8}" name="Matricula" dataDxfId="337"/>
-    <tableColumn id="2" xr3:uid="{4ED62101-99E3-4B55-9CCA-43E44004A525}" name="Nome" dataDxfId="336"/>
-    <tableColumn id="3" xr3:uid="{585E27EC-2414-4465-9E37-B26CE8EC0A4C}" name="Data de Admissão" dataDxfId="335"/>
-    <tableColumn id="4" xr3:uid="{4206371A-2F28-4B0B-A32A-424C113F8501}" name="Salário" dataDxfId="334" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{B2064E43-1C72-4DE0-A455-9FE038332770}" name="Dia" dataDxfId="333"/>
-    <tableColumn id="6" xr3:uid="{80818C04-0FDA-4C98-AF76-315720BD36F2}" name="Mês" dataDxfId="332"/>
-    <tableColumn id="7" xr3:uid="{429B68BC-99E0-4DF5-9B23-60876761D9E1}" name="Ano" dataDxfId="331"/>
+    <tableColumn id="1" xr3:uid="{D52CAFC2-0475-4561-A9D3-A268609911A8}" name="Matricula" dataDxfId="295"/>
+    <tableColumn id="2" xr3:uid="{4ED62101-99E3-4B55-9CCA-43E44004A525}" name="Nome" dataDxfId="294"/>
+    <tableColumn id="3" xr3:uid="{585E27EC-2414-4465-9E37-B26CE8EC0A4C}" name="Data de Admissão" dataDxfId="293"/>
+    <tableColumn id="4" xr3:uid="{4206371A-2F28-4B0B-A32A-424C113F8501}" name="Salário" dataDxfId="292" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{B2064E43-1C72-4DE0-A455-9FE038332770}" name="Dia" dataDxfId="291"/>
+    <tableColumn id="6" xr3:uid="{80818C04-0FDA-4C98-AF76-315720BD36F2}" name="Mês" dataDxfId="290"/>
+    <tableColumn id="7" xr3:uid="{429B68BC-99E0-4DF5-9B23-60876761D9E1}" name="Ano" dataDxfId="289"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{30BC8139-39DB-4628-8E27-C9597F824E11}" name="Tabela34" displayName="Tabela34" ref="B5:H13" totalsRowShown="0" headerRowDxfId="330" dataDxfId="328" headerRowBorderDxfId="329" tableBorderDxfId="327" totalsRowBorderDxfId="326">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{30BC8139-39DB-4628-8E27-C9597F824E11}" name="Tabela34" displayName="Tabela34" ref="B5:H13" totalsRowShown="0" headerRowDxfId="288" dataDxfId="286" headerRowBorderDxfId="287" tableBorderDxfId="285" totalsRowBorderDxfId="284">
   <autoFilter ref="B5:H13" xr:uid="{595DCA37-B125-447A-848C-99BCD8E06882}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -32282,53 +32287,53 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E10A55B0-9467-46E3-8F26-993C55EBCCF1}" name="Cliente" dataDxfId="325"/>
-    <tableColumn id="2" xr3:uid="{06E4891B-65C9-4FCA-A66A-5468A90F3D4C}" name="Data Inicial da Locação" dataDxfId="324"/>
-    <tableColumn id="3" xr3:uid="{F2CF29A3-564F-43AA-9C4D-88D8EEF6AE03}" name="Data Final da Locação" dataDxfId="323"/>
-    <tableColumn id="4" xr3:uid="{A63E89A7-AAA6-4F8A-99C6-C5F8FC4AE572}" name="Data da Devolução" dataDxfId="322"/>
-    <tableColumn id="5" xr3:uid="{BC75DEDC-48B1-474B-9BBB-74D4708C312C}" name="Atraso" dataDxfId="321"/>
-    <tableColumn id="7" xr3:uid="{BE3818A4-31D7-4FA4-A028-5E7D4E73AD4B}" name="Valor" dataDxfId="320" dataCellStyle="Moeda"/>
-    <tableColumn id="6" xr3:uid="{352F9934-DDA6-4EFC-9091-471996D9D599}" name="Pagamento" dataDxfId="319" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{E10A55B0-9467-46E3-8F26-993C55EBCCF1}" name="Cliente" dataDxfId="283"/>
+    <tableColumn id="2" xr3:uid="{06E4891B-65C9-4FCA-A66A-5468A90F3D4C}" name="Data Inicial da Locação" dataDxfId="282"/>
+    <tableColumn id="3" xr3:uid="{F2CF29A3-564F-43AA-9C4D-88D8EEF6AE03}" name="Data Final da Locação" dataDxfId="281"/>
+    <tableColumn id="4" xr3:uid="{A63E89A7-AAA6-4F8A-99C6-C5F8FC4AE572}" name="Data da Devolução" dataDxfId="280"/>
+    <tableColumn id="5" xr3:uid="{BC75DEDC-48B1-474B-9BBB-74D4708C312C}" name="Atraso" dataDxfId="279"/>
+    <tableColumn id="7" xr3:uid="{BE3818A4-31D7-4FA4-A028-5E7D4E73AD4B}" name="Valor" dataDxfId="278" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{352F9934-DDA6-4EFC-9091-471996D9D599}" name="Pagamento" dataDxfId="277" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{B717643B-3DE6-4F95-9BCB-ED11FCFA508C}" name="Tabela28" displayName="Tabela28" ref="B6:C37" totalsRowShown="0" headerRowDxfId="318" headerRowBorderDxfId="317" tableBorderDxfId="316" totalsRowBorderDxfId="315">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{B717643B-3DE6-4F95-9BCB-ED11FCFA508C}" name="Tabela28" displayName="Tabela28" ref="B6:C37" totalsRowShown="0" headerRowDxfId="276" headerRowBorderDxfId="275" tableBorderDxfId="274" totalsRowBorderDxfId="273">
   <autoFilter ref="B6:C37" xr:uid="{B67D012B-74C1-42E5-932B-23963E33E251}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B60FB181-4893-4604-8D1C-61905FF715A5}" name="Data da Entrega" dataDxfId="314"/>
-    <tableColumn id="3" xr3:uid="{0C44316B-9D1F-492C-A825-6F93880B8804}" name="Status" dataDxfId="313"/>
+    <tableColumn id="1" xr3:uid="{B60FB181-4893-4604-8D1C-61905FF715A5}" name="Data da Entrega" dataDxfId="272"/>
+    <tableColumn id="3" xr3:uid="{0C44316B-9D1F-492C-A825-6F93880B8804}" name="Status" dataDxfId="271"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{25886ADE-4278-4964-960C-53A8D24B303E}" name="TblVendasBimestre" displayName="TblVendasBimestre" ref="A1:H9" totalsRowShown="0" headerRowDxfId="312" dataDxfId="310" headerRowBorderDxfId="311" tableBorderDxfId="309" totalsRowBorderDxfId="308" dataCellStyle="Vírgula">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{25886ADE-4278-4964-960C-53A8D24B303E}" name="TblVendasBimestre" displayName="TblVendasBimestre" ref="A1:H9" totalsRowShown="0" headerRowDxfId="270" dataDxfId="268" headerRowBorderDxfId="269" tableBorderDxfId="267" totalsRowBorderDxfId="266" dataCellStyle="Vírgula">
   <autoFilter ref="A1:H9" xr:uid="{1DDE125F-6DE1-414D-BBE2-8A65ED3A3FBA}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C2DDBA9C-357C-454B-A1F7-5E1EBAC7D81B}" name="Vendedores" dataDxfId="307"/>
-    <tableColumn id="2" xr3:uid="{A97B5A1D-7510-426F-854B-3C1FF118FDE5}" name="1º Bim" dataDxfId="306" dataCellStyle="Vírgula"/>
-    <tableColumn id="3" xr3:uid="{BCCBC4B3-40EF-433D-B714-55F1F904E362}" name="2º Bim" dataDxfId="305" dataCellStyle="Vírgula"/>
-    <tableColumn id="4" xr3:uid="{C9DB66B0-BA08-43A4-98CC-946019F507A1}" name="3º Bim" dataDxfId="304" dataCellStyle="Vírgula"/>
-    <tableColumn id="5" xr3:uid="{EA099A77-C795-46C3-B3C4-D6A3770615F1}" name="4º Bim" dataDxfId="303" dataCellStyle="Vírgula"/>
-    <tableColumn id="6" xr3:uid="{F3068DD1-8D36-4A56-85C7-EBA2B5E09DB1}" name="Média" dataDxfId="302" dataCellStyle="Vírgula">
+    <tableColumn id="1" xr3:uid="{C2DDBA9C-357C-454B-A1F7-5E1EBAC7D81B}" name="Vendedores" dataDxfId="265"/>
+    <tableColumn id="2" xr3:uid="{A97B5A1D-7510-426F-854B-3C1FF118FDE5}" name="1º Bim" dataDxfId="264" dataCellStyle="Vírgula"/>
+    <tableColumn id="3" xr3:uid="{BCCBC4B3-40EF-433D-B714-55F1F904E362}" name="2º Bim" dataDxfId="263" dataCellStyle="Vírgula"/>
+    <tableColumn id="4" xr3:uid="{C9DB66B0-BA08-43A4-98CC-946019F507A1}" name="3º Bim" dataDxfId="262" dataCellStyle="Vírgula"/>
+    <tableColumn id="5" xr3:uid="{EA099A77-C795-46C3-B3C4-D6A3770615F1}" name="4º Bim" dataDxfId="261" dataCellStyle="Vírgula"/>
+    <tableColumn id="6" xr3:uid="{F3068DD1-8D36-4A56-85C7-EBA2B5E09DB1}" name="Média" dataDxfId="260" dataCellStyle="Vírgula">
       <calculatedColumnFormula>AVERAGE(TblVendasBimestre[[#This Row],[1º Bim]:[4º Bim]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6B696D7D-7859-4907-98D1-41AC84B3B3DA}" name="Bônus" dataDxfId="301" dataCellStyle="Vírgula"/>
-    <tableColumn id="8" xr3:uid="{E64220FD-A216-4BA1-BD64-47680FC7D2D3}" name="%" dataDxfId="300" dataCellStyle="Porcentagem"/>
+    <tableColumn id="7" xr3:uid="{6B696D7D-7859-4907-98D1-41AC84B3B3DA}" name="Bônus" dataDxfId="259" dataCellStyle="Vírgula"/>
+    <tableColumn id="8" xr3:uid="{E64220FD-A216-4BA1-BD64-47680FC7D2D3}" name="%" dataDxfId="258" dataCellStyle="Porcentagem"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{56A25813-D350-42D9-937F-3F8B9F230DA4}" name="Tblporcentagem" displayName="Tblporcentagem" ref="A12:B15" totalsRowShown="0" headerRowDxfId="299" headerRowBorderDxfId="298" tableBorderDxfId="297" totalsRowBorderDxfId="296">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{56A25813-D350-42D9-937F-3F8B9F230DA4}" name="Tblporcentagem" displayName="Tblporcentagem" ref="A12:B15" totalsRowShown="0" headerRowDxfId="257" headerRowBorderDxfId="256" tableBorderDxfId="255" totalsRowBorderDxfId="254">
   <autoFilter ref="A12:B15" xr:uid="{79C9664F-5AD7-4BFF-9E5B-D6F938344DF7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{5316BFCE-377B-4D18-B1F8-84023474FC59}" name="Critérios"/>
@@ -32339,7 +32344,7 @@
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D1594776-A4F8-4823-A34B-B67B71E2DB2D}" name="TblRank19" displayName="TblRank19" ref="B8:E16" totalsRowShown="0" headerRowDxfId="295" dataDxfId="293" headerRowBorderDxfId="294" tableBorderDxfId="292" totalsRowBorderDxfId="291">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D1594776-A4F8-4823-A34B-B67B71E2DB2D}" name="TblRank19" displayName="TblRank19" ref="B8:E16" totalsRowShown="0" headerRowDxfId="253" dataDxfId="251" headerRowBorderDxfId="252" tableBorderDxfId="250" totalsRowBorderDxfId="249">
   <autoFilter ref="B8:E16" xr:uid="{2F9DD5CB-FCC0-4EB6-8E85-7417BAE07618}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -32350,28 +32355,28 @@
     <sortCondition ref="B9:B16"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{593495D7-D353-43BE-B1D1-226431C38AF5}" name="Vendedores" dataDxfId="290"/>
-    <tableColumn id="2" xr3:uid="{B158870B-1739-40B4-AF54-A1D39D14949D}" name="Vendas" dataDxfId="289" dataCellStyle="Vírgula"/>
-    <tableColumn id="3" xr3:uid="{BA18716A-7942-4524-8D67-BF15E84FDAFB}" name="Ranking" dataDxfId="288">
+    <tableColumn id="1" xr3:uid="{593495D7-D353-43BE-B1D1-226431C38AF5}" name="Vendedores" dataDxfId="248"/>
+    <tableColumn id="2" xr3:uid="{B158870B-1739-40B4-AF54-A1D39D14949D}" name="Vendas" dataDxfId="247" dataCellStyle="Vírgula"/>
+    <tableColumn id="3" xr3:uid="{BA18716A-7942-4524-8D67-BF15E84FDAFB}" name="Ranking" dataDxfId="246">
       <calculatedColumnFormula>_xlfn.RANK.EQ(TblRank19[[#This Row],[Vendas]],TblRank19[Vendas])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1550A284-6C20-47CA-B37C-51B3D060BA4B}" name="Prêmio" dataDxfId="287" dataCellStyle="Vírgula"/>
+    <tableColumn id="4" xr3:uid="{1550A284-6C20-47CA-B37C-51B3D060BA4B}" name="Prêmio" dataDxfId="245" dataCellStyle="Vírgula"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50AA4E7C-53A9-4E7B-8000-80B5DA66138E}" name="TB_TOP3" displayName="TB_TOP3" ref="B5:D6" totalsRowShown="0" headerRowDxfId="286" dataDxfId="284" headerRowBorderDxfId="285" tableBorderDxfId="283" totalsRowBorderDxfId="282">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{50AA4E7C-53A9-4E7B-8000-80B5DA66138E}" name="TB_TOP3" displayName="TB_TOP3" ref="B5:D6" totalsRowShown="0" headerRowDxfId="244" dataDxfId="242" headerRowBorderDxfId="243" tableBorderDxfId="241" totalsRowBorderDxfId="240">
   <autoFilter ref="B5:D6" xr:uid="{50AA4E7C-53A9-4E7B-8000-80B5DA66138E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E8EDEA0F-A512-4422-BCB6-5054E8CAD66B}" name="1º Lugar" dataDxfId="281"/>
-    <tableColumn id="2" xr3:uid="{CFEB778E-72B5-4808-AB15-F3175C64F233}" name="2º lugar" dataDxfId="280"/>
-    <tableColumn id="3" xr3:uid="{70615E46-4C34-4E0E-9C26-B84E3441BB1E}" name="3º lugar" dataDxfId="279"/>
+    <tableColumn id="1" xr3:uid="{E8EDEA0F-A512-4422-BCB6-5054E8CAD66B}" name="1º Lugar" dataDxfId="239"/>
+    <tableColumn id="2" xr3:uid="{CFEB778E-72B5-4808-AB15-F3175C64F233}" name="2º lugar" dataDxfId="238"/>
+    <tableColumn id="3" xr3:uid="{70615E46-4C34-4E0E-9C26-B84E3441BB1E}" name="3º lugar" dataDxfId="237"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16 2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -32394,25 +32399,25 @@
     <filterColumn colId="11" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{E3A40F38-5840-47E7-8D4C-7E7E4E24E481}" name="d" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{137978CF-FF85-4656-9A62-4755DAA0E18A}" name="dd" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{75205B8F-D5FC-447D-8283-35A83BB16449}" name="ddd" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{878AE829-E526-43B5-AE77-F83B4528D0A8}" name="dddd" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{90351AA0-05A8-44EE-9FCC-24AAB22C12B0}" name="m" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{5FAACFF4-01F1-447C-869D-9176A5E342E4}" name="mm" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{5B3304FC-9D58-41A9-A9C8-8BED6FC81355}" name="mmm" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{ECB1120C-C426-46EB-96F5-89149D1F8423}" name="mmmm" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{EC007A1C-389D-44E9-8D81-5DBFC25D16BF}" name="mmmmm" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{FED036FD-1158-4860-A6D6-68DD8B7F03AA}" name="aa" dataDxfId="44"/>
-    <tableColumn id="11" xr3:uid="{6A2597F9-A2AD-4CD7-AF36-6617771E70D1}" name="aaaa" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{C79B81E3-4B5A-4C3F-B808-FFB8F20189DD}" name="ddd dd/mm/aaaa" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{E3A40F38-5840-47E7-8D4C-7E7E4E24E481}" name="d" dataDxfId="445"/>
+    <tableColumn id="2" xr3:uid="{137978CF-FF85-4656-9A62-4755DAA0E18A}" name="dd" dataDxfId="444"/>
+    <tableColumn id="3" xr3:uid="{75205B8F-D5FC-447D-8283-35A83BB16449}" name="ddd" dataDxfId="443"/>
+    <tableColumn id="4" xr3:uid="{878AE829-E526-43B5-AE77-F83B4528D0A8}" name="dddd" dataDxfId="442"/>
+    <tableColumn id="5" xr3:uid="{90351AA0-05A8-44EE-9FCC-24AAB22C12B0}" name="m" dataDxfId="441"/>
+    <tableColumn id="6" xr3:uid="{5FAACFF4-01F1-447C-869D-9176A5E342E4}" name="mm" dataDxfId="440"/>
+    <tableColumn id="7" xr3:uid="{5B3304FC-9D58-41A9-A9C8-8BED6FC81355}" name="mmm" dataDxfId="439"/>
+    <tableColumn id="8" xr3:uid="{ECB1120C-C426-46EB-96F5-89149D1F8423}" name="mmmm" dataDxfId="438"/>
+    <tableColumn id="9" xr3:uid="{EC007A1C-389D-44E9-8D81-5DBFC25D16BF}" name="mmmmm" dataDxfId="437"/>
+    <tableColumn id="10" xr3:uid="{FED036FD-1158-4860-A6D6-68DD8B7F03AA}" name="aa" dataDxfId="436"/>
+    <tableColumn id="11" xr3:uid="{6A2597F9-A2AD-4CD7-AF36-6617771E70D1}" name="aaaa" dataDxfId="435"/>
+    <tableColumn id="12" xr3:uid="{C79B81E3-4B5A-4C3F-B808-FFB8F20189DD}" name="ddd dd/mm/aaaa" dataDxfId="434"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{7870738C-8BDC-46F8-A1BE-0D88C37F12B9}" name="TblPromoção" displayName="TblPromoção" ref="B4:F19" totalsRowShown="0" headerRowDxfId="278" headerRowBorderDxfId="277" tableBorderDxfId="276" totalsRowBorderDxfId="275">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{7870738C-8BDC-46F8-A1BE-0D88C37F12B9}" name="TblPromoção" displayName="TblPromoção" ref="B4:F19" totalsRowShown="0" headerRowDxfId="236" headerRowBorderDxfId="235" tableBorderDxfId="234" totalsRowBorderDxfId="233">
   <autoFilter ref="B4:F19" xr:uid="{0A209F2A-21A7-43FA-9B23-7C1A2D58568E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -32421,18 +32426,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{A6997035-23D9-4444-B963-85E1E678C6DF}" name="Curso" dataDxfId="274"/>
-    <tableColumn id="3" xr3:uid="{C5965B9D-B5E8-48EA-89C5-11250306B9AB}" name="Valor" dataDxfId="273" dataCellStyle="Vírgula"/>
-    <tableColumn id="4" xr3:uid="{24B71970-FEFA-49BE-B6B2-63C897660D56}" name="Promoção" dataDxfId="272"/>
-    <tableColumn id="5" xr3:uid="{AA2BA429-001B-4771-AF2C-BA26D07CA3A2}" name="Valor Final" dataDxfId="271" dataCellStyle="Vírgula"/>
-    <tableColumn id="1" xr3:uid="{C890FCBA-6027-4768-9BFA-6D31C85873A8}" name="% desconto" dataDxfId="270" dataCellStyle="Porcentagem"/>
+    <tableColumn id="2" xr3:uid="{A6997035-23D9-4444-B963-85E1E678C6DF}" name="Curso" dataDxfId="232"/>
+    <tableColumn id="3" xr3:uid="{C5965B9D-B5E8-48EA-89C5-11250306B9AB}" name="Valor" dataDxfId="231" dataCellStyle="Vírgula"/>
+    <tableColumn id="4" xr3:uid="{24B71970-FEFA-49BE-B6B2-63C897660D56}" name="Promoção" dataDxfId="230"/>
+    <tableColumn id="5" xr3:uid="{AA2BA429-001B-4771-AF2C-BA26D07CA3A2}" name="Valor Final" dataDxfId="229" dataCellStyle="Vírgula"/>
+    <tableColumn id="1" xr3:uid="{C890FCBA-6027-4768-9BFA-6D31C85873A8}" name="% desconto" dataDxfId="228" dataCellStyle="Porcentagem"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16 2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{C6134716-D693-4582-9A99-040F69100A1B}" name="Tabela436" displayName="Tabela436" ref="B3:G13" totalsRowShown="0" headerRowDxfId="269" dataDxfId="267" headerRowBorderDxfId="268" tableBorderDxfId="266" totalsRowBorderDxfId="265">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{C6134716-D693-4582-9A99-040F69100A1B}" name="Tabela436" displayName="Tabela436" ref="B3:G13" totalsRowShown="0" headerRowDxfId="227" dataDxfId="225" headerRowBorderDxfId="226" tableBorderDxfId="224" totalsRowBorderDxfId="223">
   <autoFilter ref="B3:G13" xr:uid="{80A0122B-3AB8-41B9-898F-5FF36C526E49}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -32442,21 +32447,21 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B2DABA50-60E4-4B25-A517-F04E6C27D559}" name="ID" dataDxfId="264"/>
-    <tableColumn id="2" xr3:uid="{8500F9FB-03CB-4B9B-97F0-31BD17E390A2}" name="Item" dataDxfId="263"/>
-    <tableColumn id="10" xr3:uid="{801CA8C7-B2A2-4386-9E78-3AB4D5F4C93D}" name="Entrada" dataDxfId="262"/>
-    <tableColumn id="9" xr3:uid="{06F15F99-81B5-4FA0-BB48-B68B32E7B4AD}" name="Saída" dataDxfId="261"/>
-    <tableColumn id="4" xr3:uid="{879620B0-64B4-471E-A316-413A9FD026CE}" name="Saldo" dataDxfId="260">
+    <tableColumn id="1" xr3:uid="{B2DABA50-60E4-4B25-A517-F04E6C27D559}" name="ID" dataDxfId="222"/>
+    <tableColumn id="2" xr3:uid="{8500F9FB-03CB-4B9B-97F0-31BD17E390A2}" name="Item" dataDxfId="221"/>
+    <tableColumn id="10" xr3:uid="{801CA8C7-B2A2-4386-9E78-3AB4D5F4C93D}" name="Entrada" dataDxfId="220"/>
+    <tableColumn id="9" xr3:uid="{06F15F99-81B5-4FA0-BB48-B68B32E7B4AD}" name="Saída" dataDxfId="219"/>
+    <tableColumn id="4" xr3:uid="{879620B0-64B4-471E-A316-413A9FD026CE}" name="Saldo" dataDxfId="218">
       <calculatedColumnFormula>Tabela436[[#This Row],[Entrada]]-Tabela436[[#This Row],[Saída]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4F0A5FEE-47B2-4CC5-8387-DA8FCF6FB360}" name="Status" dataDxfId="259"/>
+    <tableColumn id="5" xr3:uid="{4F0A5FEE-47B2-4CC5-8387-DA8FCF6FB360}" name="Status" dataDxfId="217"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{9F1E8F0F-873A-4199-92BA-C3D7D0DEE1CF}" name="Tabela32" displayName="Tabela32" ref="B3:G11" totalsRowShown="0" headerRowDxfId="258" headerRowBorderDxfId="257" tableBorderDxfId="256" totalsRowBorderDxfId="255">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{9F1E8F0F-873A-4199-92BA-C3D7D0DEE1CF}" name="Tabela32" displayName="Tabela32" ref="B3:G11" totalsRowShown="0" headerRowDxfId="216" headerRowBorderDxfId="215" tableBorderDxfId="214" totalsRowBorderDxfId="213">
   <autoFilter ref="B3:G11" xr:uid="{362EDA8E-0E93-4DB6-A8C8-30BF10928B0C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -32469,88 +32474,88 @@
     <sortCondition ref="F3:F11"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10CD38BF-9872-4E45-BB9A-BE87DC8DDE69}" name="Logradouro" dataDxfId="254"/>
-    <tableColumn id="2" xr3:uid="{08567BBC-30E4-49A3-B8B0-55A8FF30C1C9}" name="Número" dataDxfId="253"/>
-    <tableColumn id="3" xr3:uid="{93F50D4A-9B92-4389-9EC5-8ABA4937E530}" name="Municípo" dataDxfId="252"/>
-    <tableColumn id="4" xr3:uid="{827E9BDB-2E79-4E83-804C-D3D7164F2C46}" name="UF" dataDxfId="251"/>
-    <tableColumn id="6" xr3:uid="{C5EBB313-CAB2-4300-BCB3-FCEB6DF7D137}" name="Data  Prevista " dataDxfId="250"/>
-    <tableColumn id="7" xr3:uid="{99F5A81D-EF79-4AB0-B74F-BCAEC7E6FA00}" name="Data da Entrega" dataDxfId="249"/>
+    <tableColumn id="1" xr3:uid="{10CD38BF-9872-4E45-BB9A-BE87DC8DDE69}" name="Logradouro" dataDxfId="212"/>
+    <tableColumn id="2" xr3:uid="{08567BBC-30E4-49A3-B8B0-55A8FF30C1C9}" name="Número" dataDxfId="211"/>
+    <tableColumn id="3" xr3:uid="{93F50D4A-9B92-4389-9EC5-8ABA4937E530}" name="Municípo" dataDxfId="210"/>
+    <tableColumn id="4" xr3:uid="{827E9BDB-2E79-4E83-804C-D3D7164F2C46}" name="UF" dataDxfId="209"/>
+    <tableColumn id="6" xr3:uid="{C5EBB313-CAB2-4300-BCB3-FCEB6DF7D137}" name="Data  Prevista " dataDxfId="208"/>
+    <tableColumn id="7" xr3:uid="{99F5A81D-EF79-4AB0-B74F-BCAEC7E6FA00}" name="Data da Entrega" dataDxfId="207"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{9B14496A-5778-4C49-AE19-00B7E72CBDCE}" name="Tb_veículos" displayName="Tb_veículos" ref="B2:C15" totalsRowShown="0" headerRowDxfId="248" headerRowBorderDxfId="247" tableBorderDxfId="246" totalsRowBorderDxfId="245">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{9B14496A-5778-4C49-AE19-00B7E72CBDCE}" name="Tb_veículos" displayName="Tb_veículos" ref="B2:C15" totalsRowShown="0" headerRowDxfId="206" headerRowBorderDxfId="205" tableBorderDxfId="204" totalsRowBorderDxfId="203">
   <autoFilter ref="B2:C15" xr:uid="{00F58402-AD08-4A89-9920-6B6969B12C32}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1EFDC0DE-36C6-4ADF-9AA3-70C6AE49BDD5}" name="Veículos" dataDxfId="244"/>
-    <tableColumn id="2" xr3:uid="{B9BF18B7-E193-458A-AC34-4A336E7A2D66}" name="Vendas" dataDxfId="243"/>
+    <tableColumn id="1" xr3:uid="{1EFDC0DE-36C6-4ADF-9AA3-70C6AE49BDD5}" name="Veículos" dataDxfId="202"/>
+    <tableColumn id="2" xr3:uid="{B9BF18B7-E193-458A-AC34-4A336E7A2D66}" name="Vendas" dataDxfId="201"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{5CB8B6BA-92B8-41FB-8BD3-0BC099EE5D38}" name="Tb_somase" displayName="Tb_somase" ref="F3:G8" totalsRowShown="0" headerRowDxfId="242" headerRowBorderDxfId="241" tableBorderDxfId="240" totalsRowBorderDxfId="239">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{5CB8B6BA-92B8-41FB-8BD3-0BC099EE5D38}" name="Tb_somase" displayName="Tb_somase" ref="F3:G8" totalsRowShown="0" headerRowDxfId="200" headerRowBorderDxfId="199" tableBorderDxfId="198" totalsRowBorderDxfId="197">
   <autoFilter ref="F3:G8" xr:uid="{6CF569E4-E937-4F65-8591-AAF5ED43FDAF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C2727297-B8C3-4F88-9FF3-82BEEF535B8F}" name="Veículos" dataDxfId="238"/>
-    <tableColumn id="2" xr3:uid="{5549CECB-FEBF-4F40-8046-FD327025E979}" name="Total Geral" dataDxfId="237" dataCellStyle="Vírgula"/>
+    <tableColumn id="1" xr3:uid="{C2727297-B8C3-4F88-9FF3-82BEEF535B8F}" name="Veículos" dataDxfId="196"/>
+    <tableColumn id="2" xr3:uid="{5549CECB-FEBF-4F40-8046-FD327025E979}" name="Total Geral" dataDxfId="195" dataCellStyle="Vírgula"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{6CAEA87F-E434-48F4-A77E-F93235BD0E98}" name="Tb_médiase" displayName="Tb_médiase" ref="I3:J8" totalsRowShown="0" headerRowDxfId="236" headerRowBorderDxfId="235">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{6CAEA87F-E434-48F4-A77E-F93235BD0E98}" name="Tb_médiase" displayName="Tb_médiase" ref="I3:J8" totalsRowShown="0" headerRowDxfId="194" headerRowBorderDxfId="193">
   <autoFilter ref="I3:J8" xr:uid="{7531964C-F1C6-4431-918A-770867419A20}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{47D7F8E6-84AD-4A05-8132-7B1035CD5231}" name="Veículos" dataDxfId="234"/>
-    <tableColumn id="2" xr3:uid="{C7C676A1-7350-4FAA-A272-B6A3B86CEF44}" name="Total Geral" dataDxfId="233" dataCellStyle="Vírgula"/>
+    <tableColumn id="1" xr3:uid="{47D7F8E6-84AD-4A05-8132-7B1035CD5231}" name="Veículos" dataDxfId="192"/>
+    <tableColumn id="2" xr3:uid="{C7C676A1-7350-4FAA-A272-B6A3B86CEF44}" name="Total Geral" dataDxfId="191" dataCellStyle="Vírgula"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{3A330755-85A0-4708-8ACB-705D3F998704}" name="Tb_cont.se" displayName="Tb_cont.se" ref="L3:M8" totalsRowShown="0" headerRowDxfId="232" headerRowBorderDxfId="231">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{3A330755-85A0-4708-8ACB-705D3F998704}" name="Tb_cont.se" displayName="Tb_cont.se" ref="L3:M8" totalsRowShown="0" headerRowDxfId="190" headerRowBorderDxfId="189">
   <autoFilter ref="L3:M8" xr:uid="{CF49F783-B944-4824-A45D-B42D3B55D99C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{27E398E3-83E4-40C0-9171-F0ABB0DDF642}" name="Veículos" dataDxfId="230"/>
-    <tableColumn id="2" xr3:uid="{444DF0E2-4975-4274-BE63-077684053EB7}" name="Total Geral" dataDxfId="229" dataCellStyle="Vírgula"/>
+    <tableColumn id="1" xr3:uid="{27E398E3-83E4-40C0-9171-F0ABB0DDF642}" name="Veículos" dataDxfId="188"/>
+    <tableColumn id="2" xr3:uid="{444DF0E2-4975-4274-BE63-077684053EB7}" name="Total Geral" dataDxfId="187" dataCellStyle="Vírgula"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{4B615185-6572-4B1C-8E59-D48FD5DC72C7}" name="TbVendas" displayName="TbVendas" ref="B3:D31" totalsRowShown="0" headerRowDxfId="228" headerRowBorderDxfId="227" tableBorderDxfId="226" totalsRowBorderDxfId="225">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{4B615185-6572-4B1C-8E59-D48FD5DC72C7}" name="TbVendas" displayName="TbVendas" ref="B3:D31" totalsRowShown="0" headerRowDxfId="186" headerRowBorderDxfId="185" tableBorderDxfId="184" totalsRowBorderDxfId="183">
   <autoFilter ref="B3:D31" xr:uid="{68ABF30E-E4B6-4E52-8B46-0C210952ABFF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9E78E410-38AE-4801-8332-F10A74D8A350}" name="Vendedores" dataDxfId="224"/>
-    <tableColumn id="2" xr3:uid="{6547FE9E-E362-46C9-926A-711021426C5B}" name="Data da Venda" dataDxfId="223" dataCellStyle="Vírgula"/>
-    <tableColumn id="3" xr3:uid="{AF878019-56DA-4079-B864-68F223CAFF45}" name="Valor" dataDxfId="222"/>
+    <tableColumn id="1" xr3:uid="{9E78E410-38AE-4801-8332-F10A74D8A350}" name="Vendedores" dataDxfId="182"/>
+    <tableColumn id="2" xr3:uid="{6547FE9E-E362-46C9-926A-711021426C5B}" name="Data da Venda" dataDxfId="181" dataCellStyle="Vírgula"/>
+    <tableColumn id="3" xr3:uid="{AF878019-56DA-4079-B864-68F223CAFF45}" name="Valor" dataDxfId="180"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{F7F13967-4643-4287-8C76-1CE4A731DE54}" name="Tabela22" displayName="Tabela22" ref="F3:I8" totalsRowCount="1" headerRowDxfId="221" dataDxfId="219" headerRowBorderDxfId="220" tableBorderDxfId="218" totalsRowBorderDxfId="217" headerRowCellStyle="Vírgula" totalsRowCellStyle="Moeda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{F7F13967-4643-4287-8C76-1CE4A731DE54}" name="Tabela22" displayName="Tabela22" ref="F3:I8" totalsRowCount="1" headerRowDxfId="179" dataDxfId="177" headerRowBorderDxfId="178" tableBorderDxfId="176" totalsRowBorderDxfId="175" headerRowCellStyle="Vírgula" totalsRowCellStyle="Moeda">
   <autoFilter ref="F3:I7" xr:uid="{F7F13967-4643-4287-8C76-1CE4A731DE54}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -32558,10 +32563,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5557D8F3-02EB-4601-8C52-F50AE5F9B8FE}" name="Vendedor" totalsRowLabel="Total" totalsRowDxfId="216"/>
-    <tableColumn id="2" xr3:uid="{072CBC32-67D0-4FF3-836F-1299D64A36CD}" name="Qtd. Vendas" totalsRowFunction="sum" dataDxfId="215" totalsRowDxfId="214" dataCellStyle="Vírgula"/>
-    <tableColumn id="3" xr3:uid="{1A6116EE-FC07-456C-87D0-2F8F7EBB5327}" name="Média de Vendas" totalsRowFunction="sum" dataDxfId="213" totalsRowDxfId="212" dataCellStyle="Vírgula" totalsRowCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{09C40B01-484F-4A42-8476-7E567589AD40}" name="Soma das Vendas" totalsRowFunction="sum" dataDxfId="211" totalsRowDxfId="210" dataCellStyle="Vírgula" totalsRowCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{5557D8F3-02EB-4601-8C52-F50AE5F9B8FE}" name="Vendedor" totalsRowLabel="Total" totalsRowDxfId="174"/>
+    <tableColumn id="2" xr3:uid="{072CBC32-67D0-4FF3-836F-1299D64A36CD}" name="Qtd. Vendas" totalsRowFunction="sum" dataDxfId="173" totalsRowDxfId="172" dataCellStyle="Vírgula"/>
+    <tableColumn id="3" xr3:uid="{1A6116EE-FC07-456C-87D0-2F8F7EBB5327}" name="Média de Vendas" totalsRowFunction="sum" dataDxfId="171" totalsRowDxfId="170" dataCellStyle="Vírgula" totalsRowCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{09C40B01-484F-4A42-8476-7E567589AD40}" name="Soma das Vendas" totalsRowFunction="sum" dataDxfId="169" totalsRowDxfId="168" dataCellStyle="Vírgula" totalsRowCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -32575,16 +32580,16 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A582162E-2116-4595-9E1A-597DC12CF466}" name="Dividendo" dataDxfId="209"/>
-    <tableColumn id="2" xr3:uid="{B23B5EB6-E4D3-4DA9-8115-7A803D907034}" name="Divisor" dataDxfId="208"/>
-    <tableColumn id="3" xr3:uid="{A11856E0-3357-4685-813D-A7BB8AE414A9}" name="Total" dataDxfId="207"/>
+    <tableColumn id="1" xr3:uid="{A582162E-2116-4595-9E1A-597DC12CF466}" name="Dividendo" dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{B23B5EB6-E4D3-4DA9-8115-7A803D907034}" name="Divisor" dataDxfId="166"/>
+    <tableColumn id="3" xr3:uid="{A11856E0-3357-4685-813D-A7BB8AE414A9}" name="Total" dataDxfId="165"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16 2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E0C19F42-BEB1-461C-8945-BE23F244C714}" name="Tabela4" displayName="Tabela4" ref="A13:G18" totalsRowShown="0" headerRowDxfId="445" dataDxfId="443" headerRowBorderDxfId="444" tableBorderDxfId="442" totalsRowBorderDxfId="441">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E0C19F42-BEB1-461C-8945-BE23F244C714}" name="Tabela4" displayName="Tabela4" ref="A13:G18" totalsRowShown="0" headerRowDxfId="433" dataDxfId="431" headerRowBorderDxfId="432" tableBorderDxfId="430" totalsRowBorderDxfId="429">
   <autoFilter ref="A13:G18" xr:uid="{4C642A98-8A73-4C6E-9E9E-83826D0CEEB5}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -32595,20 +32600,20 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6EEC5B1A-E5E0-4DA2-976D-B42EBA58DDC5}" name="h" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{1124367C-81CC-43F0-A103-63F9A697612F}" name="hh" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{CA81EDB7-A1DA-4644-8FBD-D3DCD61BEB0F}" name="h:m" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{3E8ECA38-9756-42E8-87AB-59D20B128507}" name="mm:ss" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{8F5AE4F5-E3FD-4540-8DE5-7690ED272BBF}" name="s" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{2FF14410-F055-4B62-9676-B0F19D49BF02}" name="ss" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{57B42B99-AEC7-42A7-B73B-708C5485893A}" name="hh:mm:ss" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{6EEC5B1A-E5E0-4DA2-976D-B42EBA58DDC5}" name="h" dataDxfId="428"/>
+    <tableColumn id="2" xr3:uid="{1124367C-81CC-43F0-A103-63F9A697612F}" name="hh" dataDxfId="427"/>
+    <tableColumn id="3" xr3:uid="{CA81EDB7-A1DA-4644-8FBD-D3DCD61BEB0F}" name="h:m" dataDxfId="426"/>
+    <tableColumn id="4" xr3:uid="{3E8ECA38-9756-42E8-87AB-59D20B128507}" name="mm:ss" dataDxfId="425"/>
+    <tableColumn id="5" xr3:uid="{8F5AE4F5-E3FD-4540-8DE5-7690ED272BBF}" name="s" dataDxfId="424"/>
+    <tableColumn id="6" xr3:uid="{2FF14410-F055-4B62-9676-B0F19D49BF02}" name="ss" dataDxfId="423"/>
+    <tableColumn id="7" xr3:uid="{57B42B99-AEC7-42A7-B73B-708C5485893A}" name="hh:mm:ss" dataDxfId="422"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table50.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="53" xr:uid="{2F0EE832-C0C9-4D0F-A34A-16DEF087B649}" name="Tb_IMC" displayName="Tb_IMC" ref="B2:G12" totalsRowShown="0" headerRowDxfId="206" headerRowBorderDxfId="205" tableBorderDxfId="204" totalsRowBorderDxfId="203">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="53" xr:uid="{2F0EE832-C0C9-4D0F-A34A-16DEF087B649}" name="Tb_IMC" displayName="Tb_IMC" ref="B2:G12" totalsRowShown="0" headerRowDxfId="164" headerRowBorderDxfId="163" tableBorderDxfId="162" totalsRowBorderDxfId="161">
   <autoFilter ref="B2:G12" xr:uid="{60EB5C17-B82D-4DB7-998F-EB3A644478A5}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -32618,12 +32623,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{24C8F9B0-F1E8-4273-AAD3-76CBF123680A}" name="Nome" dataDxfId="202"/>
-    <tableColumn id="2" xr3:uid="{512D37F4-97C9-4E1D-8C20-E8620BCDC897}" name="Idade" dataDxfId="201"/>
-    <tableColumn id="3" xr3:uid="{766E5646-DC2C-4AAB-BBAA-430393F08B6D}" name="Sexo " dataDxfId="200"/>
-    <tableColumn id="4" xr3:uid="{26ECA002-78BB-4E69-93C3-1E2A1FD343FA}" name="Peso" dataDxfId="199"/>
-    <tableColumn id="5" xr3:uid="{149296EC-D4ED-448B-B004-714BD8A45D84}" name="Altura" dataDxfId="198"/>
-    <tableColumn id="6" xr3:uid="{673C4AB2-C6AB-4746-8DCB-B60DDBEE4703}" name="IMC" dataDxfId="197"/>
+    <tableColumn id="1" xr3:uid="{24C8F9B0-F1E8-4273-AAD3-76CBF123680A}" name="Nome" dataDxfId="160"/>
+    <tableColumn id="2" xr3:uid="{512D37F4-97C9-4E1D-8C20-E8620BCDC897}" name="Idade" dataDxfId="159"/>
+    <tableColumn id="3" xr3:uid="{766E5646-DC2C-4AAB-BBAA-430393F08B6D}" name="Sexo " dataDxfId="158"/>
+    <tableColumn id="4" xr3:uid="{26ECA002-78BB-4E69-93C3-1E2A1FD343FA}" name="Peso" dataDxfId="157"/>
+    <tableColumn id="5" xr3:uid="{149296EC-D4ED-448B-B004-714BD8A45D84}" name="Altura" dataDxfId="156"/>
+    <tableColumn id="6" xr3:uid="{673C4AB2-C6AB-4746-8DCB-B60DDBEE4703}" name="IMC" dataDxfId="155"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -32633,9 +32638,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{FBD0B2BF-922A-453D-8909-050373880C37}" name="Base_pacientes" displayName="Base_pacientes" ref="B4:D28" totalsRowShown="0">
   <autoFilter ref="B4:D28" xr:uid="{B7D4930A-CFD2-488A-8A19-70E92978116B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8944BC7E-DEDD-4F85-8EFC-BB4EC251F368}" name="ID" dataDxfId="196"/>
-    <tableColumn id="2" xr3:uid="{F59408A7-D1C4-4F85-9031-AE3365457C8A}" name="Nome Completo" dataDxfId="195"/>
-    <tableColumn id="3" xr3:uid="{A01ECFEA-EEB5-44F6-B6BA-C1E1FEE60D3F}" name="Data de Nascimento" dataDxfId="194"/>
+    <tableColumn id="1" xr3:uid="{8944BC7E-DEDD-4F85-8EFC-BB4EC251F368}" name="ID" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{F59408A7-D1C4-4F85-9031-AE3365457C8A}" name="Nome Completo" dataDxfId="153"/>
+    <tableColumn id="3" xr3:uid="{A01ECFEA-EEB5-44F6-B6BA-C1E1FEE60D3F}" name="Data de Nascimento" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -32649,36 +32654,36 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A441DBA8-BD29-4EC2-AEB1-7D7CA5A07E6F}" name="Data de Nascimento" dataDxfId="193"/>
-    <tableColumn id="2" xr3:uid="{D2922446-05AD-4212-BCE0-6398165736DB}" name="Nome Completo" dataDxfId="192"/>
-    <tableColumn id="4" xr3:uid="{DFAACF33-A8A4-462E-8719-2FFF1C521022}" name="ID" dataDxfId="191"/>
+    <tableColumn id="1" xr3:uid="{A441DBA8-BD29-4EC2-AEB1-7D7CA5A07E6F}" name="Data de Nascimento" dataDxfId="151"/>
+    <tableColumn id="2" xr3:uid="{D2922446-05AD-4212-BCE0-6398165736DB}" name="Nome Completo" dataDxfId="150"/>
+    <tableColumn id="4" xr3:uid="{DFAACF33-A8A4-462E-8719-2FFF1C521022}" name="ID" dataDxfId="149"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{6833A62F-2FBD-4DBD-BC7B-5C601E6BD292}" name="Tb_Comissão" displayName="Tb_Comissão" ref="B4:C14" totalsRowShown="0" headerRowDxfId="190" dataDxfId="189">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{6833A62F-2FBD-4DBD-BC7B-5C601E6BD292}" name="Tb_Comissão" displayName="Tb_Comissão" ref="B4:C14" totalsRowShown="0" headerRowDxfId="148" dataDxfId="147">
   <autoFilter ref="B4:C14" xr:uid="{32DD827D-ED50-4E0B-9FF6-EEFCE4130D69}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C5C69EBB-03EC-4124-8640-B405B4CDA5F4}" name="Valor de venda" dataDxfId="188" dataCellStyle="Moeda"/>
-    <tableColumn id="3" xr3:uid="{7E411E9D-7EC4-4AD1-9A1F-A6A536CE6405}" name="Comissão" dataDxfId="187" dataCellStyle="Porcentagem"/>
+    <tableColumn id="1" xr3:uid="{C5C69EBB-03EC-4124-8640-B405B4CDA5F4}" name="Valor de venda" dataDxfId="146" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{7E411E9D-7EC4-4AD1-9A1F-A6A536CE6405}" name="Comissão" dataDxfId="145" dataCellStyle="Porcentagem"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{94C21202-B358-4EA7-B512-943EB20E9246}" name="Tbl_ProcvExatidão1012" displayName="Tbl_ProcvExatidão1012" ref="C6:G13" headerRowDxfId="186" dataDxfId="185">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{94C21202-B358-4EA7-B512-943EB20E9246}" name="Tbl_ProcvExatidão1012" displayName="Tbl_ProcvExatidão1012" ref="C6:G13" headerRowDxfId="144" dataDxfId="143">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EC1B0B7F-5D8C-4805-8418-C63F3FE5D1D8}" name="Código" totalsRowLabel="Total" dataDxfId="184" totalsRowDxfId="183"/>
-    <tableColumn id="2" xr3:uid="{CA8174E7-0341-4274-B777-34E2A3D1B6FE}" name="Descrição" totalsRowFunction="count" dataDxfId="182" totalsRowDxfId="181" dataCellStyle="Ênfase1"/>
-    <tableColumn id="3" xr3:uid="{207FFBB2-C9AC-423C-A4DE-94D3934473A2}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="180" totalsRowDxfId="179" dataCellStyle="Moeda"/>
-    <tableColumn id="4" xr3:uid="{2046C2C9-11AE-4E56-8120-A404EAE98135}" name="Quantidade" totalsRowFunction="sum" dataDxfId="178" totalsRowDxfId="177"/>
-    <tableColumn id="5" xr3:uid="{E5024A5B-BF72-4A86-A6AC-64A5D93CA124}" name="Total" totalsRowFunction="sum" dataDxfId="176" totalsRowDxfId="175" dataCellStyle="Moeda">
+    <tableColumn id="1" xr3:uid="{EC1B0B7F-5D8C-4805-8418-C63F3FE5D1D8}" name="Código" totalsRowLabel="Total" dataDxfId="142" totalsRowDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{CA8174E7-0341-4274-B777-34E2A3D1B6FE}" name="Descrição" totalsRowFunction="count" dataDxfId="140" totalsRowDxfId="139" dataCellStyle="Ênfase1"/>
+    <tableColumn id="3" xr3:uid="{207FFBB2-C9AC-423C-A4DE-94D3934473A2}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="137" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{2046C2C9-11AE-4E56-8120-A404EAE98135}" name="Quantidade" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{E5024A5B-BF72-4A86-A6AC-64A5D93CA124}" name="Total" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="133" dataCellStyle="Moeda">
       <calculatedColumnFormula>Tbl_ProcvExatidão1012[[#This Row],[Preço Unitário]]*Tbl_ProcvExatidão1012[[#This Row],[Quantidade]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -32687,7 +32692,7 @@
 </file>
 
 <file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="70" xr:uid="{7F9F40EA-67F9-4291-8E26-103F7E3D9E0D}" name="Tb_ClassificacaoA" displayName="Tb_ClassificacaoA" ref="B19:C22" totalsRowShown="0" headerRowDxfId="174" tableBorderDxfId="173">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="70" xr:uid="{7F9F40EA-67F9-4291-8E26-103F7E3D9E0D}" name="Tb_ClassificacaoA" displayName="Tb_ClassificacaoA" ref="B19:C22" totalsRowShown="0" headerRowDxfId="132" tableBorderDxfId="131">
   <autoFilter ref="B19:C22" xr:uid="{DF927ADA-1C36-42C6-B2A3-CDEEF8142867}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C0E88E7C-9A06-472F-B32F-410839652557}" name="De" dataCellStyle="Moeda"/>
@@ -32698,7 +32703,7 @@
 </file>
 
 <file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="72" xr:uid="{DBFCABC5-0BFB-4E2B-AC3D-1D111C0E9F3D}" name="Tb_ProcA" displayName="Tb_ProcA" ref="B2:H15" totalsRowShown="0" headerRowDxfId="172" headerRowBorderDxfId="171" tableBorderDxfId="170" totalsRowBorderDxfId="169">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="72" xr:uid="{DBFCABC5-0BFB-4E2B-AC3D-1D111C0E9F3D}" name="Tb_ProcA" displayName="Tb_ProcA" ref="B2:H15" totalsRowShown="0" headerRowDxfId="130" headerRowBorderDxfId="129" tableBorderDxfId="128" totalsRowBorderDxfId="127">
   <autoFilter ref="B2:H15" xr:uid="{4673CABF-4539-4D16-92A5-76B2C572266B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -32709,22 +32714,22 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B527F1B0-C716-4D56-960C-9977D72A25C2}" name="Ordem" dataDxfId="168"/>
-    <tableColumn id="2" xr3:uid="{F8D11728-05BF-4D20-8D0D-E7DA0C4EF34F}" name="Sabor" dataDxfId="167"/>
-    <tableColumn id="3" xr3:uid="{01CE1242-2D3A-47E7-9BF7-B43979AF2837}" name="Jan" dataDxfId="166" dataCellStyle="Vírgula"/>
-    <tableColumn id="4" xr3:uid="{4EBF326F-0E2E-4057-99CF-07475433296D}" name="Fev" dataDxfId="165"/>
-    <tableColumn id="5" xr3:uid="{5932760F-0AAF-45D4-A83E-6E0BEF8092B1}" name="Mar" dataDxfId="164"/>
-    <tableColumn id="6" xr3:uid="{BB7D288D-106C-40F3-B5C4-7E42FFF3536F}" name="Média" dataDxfId="163" dataCellStyle="Vírgula">
+    <tableColumn id="1" xr3:uid="{B527F1B0-C716-4D56-960C-9977D72A25C2}" name="Ordem" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{F8D11728-05BF-4D20-8D0D-E7DA0C4EF34F}" name="Sabor" dataDxfId="125"/>
+    <tableColumn id="3" xr3:uid="{01CE1242-2D3A-47E7-9BF7-B43979AF2837}" name="Jan" dataDxfId="124" dataCellStyle="Vírgula"/>
+    <tableColumn id="4" xr3:uid="{4EBF326F-0E2E-4057-99CF-07475433296D}" name="Fev" dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{5932760F-0AAF-45D4-A83E-6E0BEF8092B1}" name="Mar" dataDxfId="122"/>
+    <tableColumn id="6" xr3:uid="{BB7D288D-106C-40F3-B5C4-7E42FFF3536F}" name="Média" dataDxfId="121" dataCellStyle="Vírgula">
       <calculatedColumnFormula>AVERAGE(Tb_ProcA[[#This Row],[Jan]:[Mar]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B86BFA37-3F03-4A18-8436-DE198502DEB7}" name="Status" dataDxfId="162"/>
+    <tableColumn id="7" xr3:uid="{B86BFA37-3F03-4A18-8436-DE198502DEB7}" name="Status" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="65" xr:uid="{880B701A-9748-4F7E-A09C-690918FA9573}" name="T_Status" displayName="T_Status" ref="F19:F22" totalsRowShown="0" headerRowDxfId="161" headerRowBorderDxfId="160" tableBorderDxfId="159" totalsRowBorderDxfId="158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="65" xr:uid="{880B701A-9748-4F7E-A09C-690918FA9573}" name="T_Status" displayName="T_Status" ref="F19:F22" totalsRowShown="0" headerRowDxfId="119" headerRowBorderDxfId="118" tableBorderDxfId="117" totalsRowBorderDxfId="116">
   <autoFilter ref="F19:F22" xr:uid="{880B701A-9748-4F7E-A09C-690918FA9573}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{025653B1-6805-4816-B8AF-532BBB69302F}" name="Status"/>
@@ -32734,7 +32739,7 @@
 </file>
 
 <file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="73" xr:uid="{C39DA324-6332-4977-9E57-BD0E1014A4FF}" name="Tb_ClassificacaoB" displayName="Tb_ClassificacaoB" ref="B19:D22" totalsRowShown="0" headerRowDxfId="157" tableBorderDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="73" xr:uid="{C39DA324-6332-4977-9E57-BD0E1014A4FF}" name="Tb_ClassificacaoB" displayName="Tb_ClassificacaoB" ref="B19:D22" totalsRowShown="0" headerRowDxfId="115" tableBorderDxfId="114">
   <autoFilter ref="B19:D22" xr:uid="{DF927ADA-1C36-42C6-B2A3-CDEEF8142867}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E3EC1885-A942-4DDD-865E-172763AB9E63}" name="De" dataCellStyle="Moeda"/>
@@ -32750,63 +32755,63 @@
   <autoFilter ref="B2:H15" xr:uid="{4673CABF-4539-4D16-92A5-76B2C572266B}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CD39AF54-66D4-4EA9-8CE1-970BAF7285A7}" name="Ordem"/>
-    <tableColumn id="2" xr3:uid="{49E22824-4D96-4B9A-ACA7-BFFD16F4E0C8}" name="Sabor" dataDxfId="155"/>
-    <tableColumn id="3" xr3:uid="{9F88001A-4FD1-4933-B38A-5A5FED536C16}" name="Jan" dataDxfId="154" dataCellStyle="Vírgula"/>
+    <tableColumn id="2" xr3:uid="{49E22824-4D96-4B9A-ACA7-BFFD16F4E0C8}" name="Sabor" dataDxfId="113"/>
+    <tableColumn id="3" xr3:uid="{9F88001A-4FD1-4933-B38A-5A5FED536C16}" name="Jan" dataDxfId="112" dataCellStyle="Vírgula"/>
     <tableColumn id="4" xr3:uid="{8F200540-6EE0-431D-A10C-B471DC87F920}" name="Fev"/>
     <tableColumn id="5" xr3:uid="{DCD97D2C-F472-4FE6-95BF-6E3184482349}" name="Mar"/>
     <tableColumn id="6" xr3:uid="{F375ADB4-04F2-4EF6-A9EA-F6517B1123C0}" name="Média" dataCellStyle="Vírgula">
       <calculatedColumnFormula>AVERAGE(Tb_ProcB[[#This Row],[Jan]:[Mar]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E37AD25D-33F8-466E-9EBC-2510446BD81B}" name="Status" dataDxfId="153"/>
+    <tableColumn id="7" xr3:uid="{E37AD25D-33F8-466E-9EBC-2510446BD81B}" name="Status" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5E924955-B32D-48EC-A530-EF061600B0B8}" name="Tabela5" displayName="Tabela5" ref="I13:K18" totalsRowCount="1" headerRowDxfId="440" totalsRowDxfId="437" headerRowBorderDxfId="439" tableBorderDxfId="438" totalsRowBorderDxfId="436">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5E924955-B32D-48EC-A530-EF061600B0B8}" name="Tabela5" displayName="Tabela5" ref="I13:K18" totalsRowCount="1" headerRowDxfId="421" totalsRowDxfId="418" headerRowBorderDxfId="420" tableBorderDxfId="419" totalsRowBorderDxfId="417">
   <autoFilter ref="I13:K17" xr:uid="{EA91CF32-0AE1-40D5-BB2D-E2042C7D5B82}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{467968BA-8F34-43E1-BE9B-604969B2193F}" name="[h]" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="435"/>
-    <tableColumn id="2" xr3:uid="{D91383B1-EF82-44A3-8F2F-12A84BABE53E}" name="[m]" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="434"/>
-    <tableColumn id="3" xr3:uid="{2B627FC9-6921-436F-BFE8-029BD9BF6FC0}" name="[s]" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="433"/>
+    <tableColumn id="1" xr3:uid="{467968BA-8F34-43E1-BE9B-604969B2193F}" name="[h]" totalsRowFunction="sum" dataDxfId="416" totalsRowDxfId="415"/>
+    <tableColumn id="2" xr3:uid="{D91383B1-EF82-44A3-8F2F-12A84BABE53E}" name="[m]" totalsRowFunction="sum" dataDxfId="414" totalsRowDxfId="413"/>
+    <tableColumn id="3" xr3:uid="{2B627FC9-6921-436F-BFE8-029BD9BF6FC0}" name="[s]" totalsRowFunction="sum" dataDxfId="412" totalsRowDxfId="411"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="106" xr:uid="{02EBEF76-E02B-47CA-8C94-924A2B66084A}" name="Tabela73" displayName="Tabela73" ref="B3:H28" totalsRowShown="0" headerRowDxfId="152" dataDxfId="150" headerRowBorderDxfId="151" tableBorderDxfId="149" totalsRowBorderDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="106" xr:uid="{02EBEF76-E02B-47CA-8C94-924A2B66084A}" name="Tabela73" displayName="Tabela73" ref="B3:H28" totalsRowShown="0" headerRowDxfId="110" dataDxfId="108" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="106">
   <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{801AD5A9-59AF-4D93-BF91-849256D9DF1F}" name="Agência" dataDxfId="147"/>
-    <tableColumn id="4" xr3:uid="{61BAE7FE-8716-400F-B721-E3AD59BB8FB4}" name="Cliente" dataDxfId="146"/>
-    <tableColumn id="5" xr3:uid="{255763C1-ADF6-4157-B5FE-931E8CA1EEB6}" name="Conta Corrente" dataDxfId="145"/>
-    <tableColumn id="6" xr3:uid="{3494B536-5206-485A-995A-E24A4E072C98}" name="Abertura" dataDxfId="144"/>
-    <tableColumn id="7" xr3:uid="{7DC5804F-959F-4972-8AC7-AE788499C1CE}" name="Saldo Médio" dataDxfId="143" dataCellStyle="Vírgula"/>
-    <tableColumn id="8" xr3:uid="{51024FB4-9123-4CE0-BBAA-9D34E4DF801F}" name="Gerente" dataDxfId="142"/>
-    <tableColumn id="9" xr3:uid="{4582D54A-F228-41D1-A754-D6410FAB14F4}" name="Situação" dataDxfId="141"/>
+    <tableColumn id="3" xr3:uid="{801AD5A9-59AF-4D93-BF91-849256D9DF1F}" name="Agência" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{61BAE7FE-8716-400F-B721-E3AD59BB8FB4}" name="Cliente" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{255763C1-ADF6-4157-B5FE-931E8CA1EEB6}" name="Conta Corrente" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{3494B536-5206-485A-995A-E24A4E072C98}" name="Abertura" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{7DC5804F-959F-4972-8AC7-AE788499C1CE}" name="Saldo Médio" dataDxfId="101" dataCellStyle="Vírgula"/>
+    <tableColumn id="8" xr3:uid="{51024FB4-9123-4CE0-BBAA-9D34E4DF801F}" name="Gerente" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{4582D54A-F228-41D1-A754-D6410FAB14F4}" name="Situação" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table61.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="107" xr:uid="{47241C6F-09F0-41FA-B6F8-B6B2A7F42212}" name="tblsituação" displayName="tblsituação" ref="J3:L7" totalsRowShown="0" headerRowDxfId="140" dataDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="107" xr:uid="{47241C6F-09F0-41FA-B6F8-B6B2A7F42212}" name="tblsituação" displayName="tblsituação" ref="J3:L7" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E0AB7EA9-8216-4D3F-AAFD-AEA0B6C743A3}" name="Mínimo" dataDxfId="138"/>
-    <tableColumn id="2" xr3:uid="{CC558279-D777-4E44-B11F-1DA5640A4DC4}" name="Máximo" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{DF38A508-4412-4D1D-93F6-FAC49CD22DA3}" name="Situação" dataDxfId="136"/>
+    <tableColumn id="1" xr3:uid="{E0AB7EA9-8216-4D3F-AAFD-AEA0B6C743A3}" name="Mínimo" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{CC558279-D777-4E44-B11F-1DA5640A4DC4}" name="Máximo" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{DF38A508-4412-4D1D-93F6-FAC49CD22DA3}" name="Situação" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table62.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="62" xr:uid="{8DA781AE-CD8F-4B52-B50B-0E04340D8ED5}" name="Tbl_CaixaRegistradora" displayName="Tbl_CaixaRegistradora" ref="B4:L9" totalsRowShown="0" headerRowDxfId="135" dataDxfId="133" headerRowBorderDxfId="134" tableBorderDxfId="132" totalsRowBorderDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="62" xr:uid="{8DA781AE-CD8F-4B52-B50B-0E04340D8ED5}" name="Tbl_CaixaRegistradora" displayName="Tbl_CaixaRegistradora" ref="B4:L9" totalsRowShown="0" headerRowDxfId="93" dataDxfId="91" headerRowBorderDxfId="92" tableBorderDxfId="90" totalsRowBorderDxfId="89">
   <autoFilter ref="B4:L9" xr:uid="{905BB7F8-F8EE-45B4-8A8B-0CB6D3AEDBD4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -32821,49 +32826,49 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{81182ED8-6B1E-48E1-A165-50C40FD74008}" name="Data" dataDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{1B26535A-B84D-4A34-8F98-F47850B53A11}" name="Hora" dataDxfId="129"/>
-    <tableColumn id="3" xr3:uid="{B770A52D-D751-4312-A15E-C872461F7B5A}" name="Código" dataDxfId="128"/>
-    <tableColumn id="4" xr3:uid="{199878F8-667C-4653-845A-898936650496}" name="Descrição" dataDxfId="127"/>
-    <tableColumn id="5" xr3:uid="{10079263-EE4A-44A2-9386-E47A8AF52BD0}" name="Quantidade" dataDxfId="126"/>
-    <tableColumn id="6" xr3:uid="{F3795860-AC99-41A6-BDD5-50C38087F4B9}" name="Valor Da Venda" dataDxfId="125"/>
-    <tableColumn id="7" xr3:uid="{6F35930C-B837-44FC-A95A-2BA3771A8B04}" name="Total" dataDxfId="124"/>
-    <tableColumn id="8" xr3:uid="{85E5620D-3660-47DE-BB6C-4B1CBB2EA44A}" name="% de imposto" dataDxfId="123"/>
-    <tableColumn id="9" xr3:uid="{1EE47192-72FC-46BF-860B-5AA1C4D6CCA7}" name="Imposto Sobre Vendas" dataDxfId="122"/>
-    <tableColumn id="12" xr3:uid="{B741AC9A-5AC9-44A4-AD35-302E86139EE2}" name="Total Com Imposto" dataDxfId="121">
+    <tableColumn id="1" xr3:uid="{81182ED8-6B1E-48E1-A165-50C40FD74008}" name="Data" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{1B26535A-B84D-4A34-8F98-F47850B53A11}" name="Hora" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{B770A52D-D751-4312-A15E-C872461F7B5A}" name="Código" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{199878F8-667C-4653-845A-898936650496}" name="Descrição" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{10079263-EE4A-44A2-9386-E47A8AF52BD0}" name="Quantidade" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{F3795860-AC99-41A6-BDD5-50C38087F4B9}" name="Valor Da Venda" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{6F35930C-B837-44FC-A95A-2BA3771A8B04}" name="Total" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{85E5620D-3660-47DE-BB6C-4B1CBB2EA44A}" name="% de imposto" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{1EE47192-72FC-46BF-860B-5AA1C4D6CCA7}" name="Imposto Sobre Vendas" dataDxfId="80"/>
+    <tableColumn id="12" xr3:uid="{B741AC9A-5AC9-44A4-AD35-302E86139EE2}" name="Total Com Imposto" dataDxfId="79">
       <calculatedColumnFormula>Tbl_CaixaRegistradora[[#This Row],[Total]]+Tbl_CaixaRegistradora[[#This Row],[Imposto Sobre Vendas]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4B0A892E-E528-4624-ABDA-C57AC1CD961B}" name="Desconto" dataDxfId="120" dataCellStyle="Porcentagem"/>
+    <tableColumn id="11" xr3:uid="{4B0A892E-E528-4624-ABDA-C57AC1CD961B}" name="Desconto" dataDxfId="78" dataCellStyle="Porcentagem"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="63" xr:uid="{5CFE618A-9D39-4212-BD57-62F01E5964B4}" name="Tbl_Desconto" displayName="Tbl_Desconto" ref="B11:C15" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="63" xr:uid="{5CFE618A-9D39-4212-BD57-62F01E5964B4}" name="Tbl_Desconto" displayName="Tbl_Desconto" ref="B11:C15" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="B11:C15" xr:uid="{C1324EC0-3F15-46B4-B681-C2D4726E8289}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A5829EF8-91A0-4599-901B-E608258FB07D}" name="Quantidade" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{9CBFE649-2AC8-45B9-A88F-161A11B79F11}" name="Desconto" dataDxfId="116" dataCellStyle="Porcentagem"/>
+    <tableColumn id="1" xr3:uid="{A5829EF8-91A0-4599-901B-E608258FB07D}" name="Quantidade" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{9CBFE649-2AC8-45B9-A88F-161A11B79F11}" name="Desconto" dataDxfId="74" dataCellStyle="Porcentagem"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="81" xr:uid="{87781549-7381-4666-8EA0-B36421997268}" name="Tbl_Orçamento" displayName="Tbl_Orçamento" ref="B4:D13" totalsRowShown="0" headerRowDxfId="115" dataDxfId="113" headerRowBorderDxfId="114" tableBorderDxfId="112" totalsRowBorderDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="81" xr:uid="{87781549-7381-4666-8EA0-B36421997268}" name="Tbl_Orçamento" displayName="Tbl_Orçamento" ref="B4:D13" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <autoFilter ref="B4:D13" xr:uid="{E4691E7F-3649-4A4A-A600-EF79D5A22AC7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8240C285-0EC0-41A2-AA00-7FC6FAF86D53}" name="CODIGO" dataDxfId="110"/>
-    <tableColumn id="2" xr3:uid="{7CE50EEB-4B98-4404-9D6A-3A4FF4151C4D}" name="DESCRIÇÃO" dataDxfId="109"/>
-    <tableColumn id="3" xr3:uid="{6AD87803-5C9C-4FE0-8DF4-0556536AFEB5}" name="PREÇO R$" dataDxfId="108" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{8240C285-0EC0-41A2-AA00-7FC6FAF86D53}" name="CODIGO" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{7CE50EEB-4B98-4404-9D6A-3A4FF4151C4D}" name="DESCRIÇÃO" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{6AD87803-5C9C-4FE0-8DF4-0556536AFEB5}" name="PREÇO R$" dataDxfId="66" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -32874,8 +32879,8 @@
   <autoFilter ref="A1:C14" xr:uid="{B6704BE5-D98B-46D6-AE0D-53E7E00B16BE}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{10273EA7-4335-4525-8FA1-634DE54214A5}" name="CODIGO"/>
-    <tableColumn id="2" xr3:uid="{D10CD3AD-2C7A-4410-BDFF-0D3B472E3744}" name="DESCRIÇÃO" dataDxfId="107"/>
-    <tableColumn id="3" xr3:uid="{4060374C-77F9-49E1-95CB-0867B48607E6}" name="PREÇO R$" dataDxfId="106" dataCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{D10CD3AD-2C7A-4410-BDFF-0D3B472E3744}" name="DESCRIÇÃO" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{4060374C-77F9-49E1-95CB-0867B48607E6}" name="PREÇO R$" dataDxfId="64" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -32886,8 +32891,8 @@
   <autoFilter ref="A1:C14" xr:uid="{B6704BE5-D98B-46D6-AE0D-53E7E00B16BE}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7A4994D9-6332-4364-8921-F2D3AE0E4C19}" name="CODIGO"/>
-    <tableColumn id="2" xr3:uid="{F811877E-6FB2-42CF-941C-3DE0E4252AE3}" name="DESCRIÇÃO" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{8C1D3F45-A72D-43EE-8F89-575BE23C76BE}" name="PREÇO R$" dataDxfId="104" dataCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{F811877E-6FB2-42CF-941C-3DE0E4252AE3}" name="DESCRIÇÃO" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{8C1D3F45-A72D-43EE-8F89-575BE23C76BE}" name="PREÇO R$" dataDxfId="62" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -32898,21 +32903,21 @@
   <autoFilter ref="A1:C14" xr:uid="{B6704BE5-D98B-46D6-AE0D-53E7E00B16BE}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D0FDC07E-2BB5-4F05-93AE-F62F61390C0F}" name="CODIGO"/>
-    <tableColumn id="2" xr3:uid="{26C7D7FD-1AD7-4FDB-8E17-1EF586EFB377}" name="DESCRIÇÃO" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{00340DD4-6CAE-4148-B439-DF087106FA8E}" name="PREÇO R$" dataDxfId="102" dataCellStyle="Moeda"/>
+    <tableColumn id="2" xr3:uid="{26C7D7FD-1AD7-4FDB-8E17-1EF586EFB377}" name="DESCRIÇÃO" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{00340DD4-6CAE-4148-B439-DF087106FA8E}" name="PREÇO R$" dataDxfId="60" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table68.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="82" xr:uid="{BFD90255-C259-44AD-A5F8-2EA2FB9EE8F1}" name="Tbl_CondiçãoPgto" displayName="Tbl_CondiçãoPgto" ref="I2:L14" totalsRowShown="0" headerRowDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="82" xr:uid="{BFD90255-C259-44AD-A5F8-2EA2FB9EE8F1}" name="Tbl_CondiçãoPgto" displayName="Tbl_CondiçãoPgto" ref="I2:L14" totalsRowShown="0" headerRowDxfId="59">
   <autoFilter ref="I2:L14" xr:uid="{A032BE20-DB27-4387-9BF5-F4C525714724}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{5037B058-29F9-4D62-8DB6-6F6D0416D365}" name="CÓDIGO" dataDxfId="100"/>
-    <tableColumn id="1" xr3:uid="{83F07D31-BC47-43B5-AE17-75D11046FEEE}" name="SERVIÇO" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{E151F748-843C-42D5-BF17-8DF1D7BC7500}" name="À Vista" dataDxfId="98" dataCellStyle="Vírgula"/>
-    <tableColumn id="3" xr3:uid="{8B15D6A3-7FD3-48F0-BC42-A72E1327F1C3}" name="30 Dias" dataDxfId="97">
+    <tableColumn id="4" xr3:uid="{5037B058-29F9-4D62-8DB6-6F6D0416D365}" name="CÓDIGO" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{83F07D31-BC47-43B5-AE17-75D11046FEEE}" name="SERVIÇO" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{E151F748-843C-42D5-BF17-8DF1D7BC7500}" name="À Vista" dataDxfId="56" dataCellStyle="Vírgula"/>
+    <tableColumn id="3" xr3:uid="{8B15D6A3-7FD3-48F0-BC42-A72E1327F1C3}" name="30 Dias" dataDxfId="55">
       <calculatedColumnFormula>K3*5%+K3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -32921,7 +32926,7 @@
 </file>
 
 <file path=xl/tables/table69.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="83" xr:uid="{93FEAC4E-70D7-4D61-AA1E-65334E308646}" name="Tbl_Serviços" displayName="Tbl_Serviços" ref="B2:G14" totalsRowShown="0" headerRowDxfId="96" headerRowBorderDxfId="95" tableBorderDxfId="94" totalsRowBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="83" xr:uid="{93FEAC4E-70D7-4D61-AA1E-65334E308646}" name="Tbl_Serviços" displayName="Tbl_Serviços" ref="B2:G14" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52" totalsRowBorderDxfId="51">
   <autoFilter ref="B2:G14" xr:uid="{7FCD709F-0187-4423-A7DE-246B85C9F62D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -32931,12 +32936,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{842BD17F-8494-42F8-9232-01ADC9B20AC7}" name="CÓDIGO" dataDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{9131B655-FCDA-4B0E-A1AC-1FC362464EFE}" name="SERVIÇO" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{1F996244-3506-489D-8B89-C4C552C15348}" name="CONDIÇÃO DE PAGAMENTO" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{4F0816DF-A92C-4428-BE34-365FFB227E76}" name="CUSTO" dataDxfId="89" dataCellStyle="Vírgula"/>
-    <tableColumn id="4" xr3:uid="{E61C0B9B-F8A0-4C7B-8B14-E2C78E4F465D}" name="QTDE" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{32267747-8480-46F5-AF90-F4C84EA4646A}" name="TOTAL" dataDxfId="87" dataCellStyle="Vírgula">
+    <tableColumn id="1" xr3:uid="{842BD17F-8494-42F8-9232-01ADC9B20AC7}" name="CÓDIGO" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{9131B655-FCDA-4B0E-A1AC-1FC362464EFE}" name="SERVIÇO" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{1F996244-3506-489D-8B89-C4C552C15348}" name="CONDIÇÃO DE PAGAMENTO" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{4F0816DF-A92C-4428-BE34-365FFB227E76}" name="CUSTO" dataDxfId="47" dataCellStyle="Vírgula"/>
+    <tableColumn id="4" xr3:uid="{E61C0B9B-F8A0-4C7B-8B14-E2C78E4F465D}" name="QTDE" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{32267747-8480-46F5-AF90-F4C84EA4646A}" name="TOTAL" dataDxfId="45" dataCellStyle="Vírgula">
       <calculatedColumnFormula>Tbl_Serviços[[#This Row],[CUSTO]]*Tbl_Serviços[[#This Row],[QTDE]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -32945,7 +32950,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0C02EE55-4D10-40AD-8AE9-0846F02C6272}" name="Tabela8" displayName="Tabela8" ref="E20:H29" totalsRowShown="0" headerRowDxfId="432" headerRowBorderDxfId="431" tableBorderDxfId="430" totalsRowBorderDxfId="429">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0C02EE55-4D10-40AD-8AE9-0846F02C6272}" name="Tabela8" displayName="Tabela8" ref="E20:H29" totalsRowShown="0" headerRowDxfId="410" headerRowBorderDxfId="409" tableBorderDxfId="408" totalsRowBorderDxfId="407">
   <autoFilter ref="E20:H29" xr:uid="{B37104E6-F2E5-4797-82DA-AC24986F60B1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -32953,17 +32958,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E6734E34-C010-4FC0-B6D8-4F6AD93C590E}" name="CEP" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{C82C76C4-86EF-4EC0-9F06-2717056C3E39}" name="CPF" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{DE6B8BBB-0864-43C8-A17D-31677B8905E6}" name="CNPJ" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{5645B396-4B2F-4BF4-82B7-B81F89A4A9B9}" name="Peso" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{E6734E34-C010-4FC0-B6D8-4F6AD93C590E}" name="CEP" dataDxfId="406"/>
+    <tableColumn id="2" xr3:uid="{C82C76C4-86EF-4EC0-9F06-2717056C3E39}" name="CPF" dataDxfId="405"/>
+    <tableColumn id="3" xr3:uid="{DE6B8BBB-0864-43C8-A17D-31677B8905E6}" name="CNPJ" dataDxfId="404"/>
+    <tableColumn id="4" xr3:uid="{5645B396-4B2F-4BF4-82B7-B81F89A4A9B9}" name="Peso" dataDxfId="403"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table70.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="58" xr:uid="{E167E699-D465-4885-835E-0AB2F0616F92}" name="Tbl_Pedido59" displayName="Tbl_Pedido59" ref="B4:H20" totalsRowShown="0" headerRowDxfId="86" headerRowBorderDxfId="85" headerRowCellStyle="Título 2 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="58" xr:uid="{E167E699-D465-4885-835E-0AB2F0616F92}" name="Tbl_Pedido59" displayName="Tbl_Pedido59" ref="B4:H20" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43" headerRowCellStyle="Título 2 2">
   <autoFilter ref="B4:H20" xr:uid="{8E396975-A79C-4272-BD3F-FBF8CE1B4471}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -32977,20 +32982,20 @@
     <sortCondition ref="B4:B12"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E459170A-8FD8-4186-84CC-F7EF43081158}" name="Nº do Pedido" dataDxfId="84"/>
-    <tableColumn id="7" xr3:uid="{91E3D88F-0369-4FE2-A8B4-FF0EE0458B70}" name="Código" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{09FC5A22-35B1-41D6-A186-DCA4CD4F3B63}" name="Produto" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{B17E2D4E-522E-4428-974F-929F908529E6}" name="Região" dataDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{2D421536-B131-4222-81F1-FA9D74BDD796}" name="UF" dataDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{5853DE46-EE1F-4635-8486-AB1FC85B0AD0}" name="Cidade" dataDxfId="79"/>
-    <tableColumn id="9" xr3:uid="{294DC2AB-E4E4-4AE0-9EA4-E18DA53886E0}" name="Data do Pedido" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{E459170A-8FD8-4186-84CC-F7EF43081158}" name="Nº do Pedido" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{91E3D88F-0369-4FE2-A8B4-FF0EE0458B70}" name="Código" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{09FC5A22-35B1-41D6-A186-DCA4CD4F3B63}" name="Produto" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{B17E2D4E-522E-4428-974F-929F908529E6}" name="Região" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{2D421536-B131-4222-81F1-FA9D74BDD796}" name="UF" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{5853DE46-EE1F-4635-8486-AB1FC85B0AD0}" name="Cidade" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{294DC2AB-E4E4-4AE0-9EA4-E18DA53886E0}" name="Data do Pedido" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table71.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="84" xr:uid="{9FF77E27-6BD6-415F-8931-49052C84E640}" name="Tbl_BasePedido" displayName="Tbl_BasePedido" ref="B2:H18" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="73" headerRowCellStyle="Título 2 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="84" xr:uid="{9FF77E27-6BD6-415F-8931-49052C84E640}" name="Tbl_BasePedido" displayName="Tbl_BasePedido" ref="B2:H18" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31" headerRowCellStyle="Título 2 2">
   <autoFilter ref="B2:H18" xr:uid="{506A901B-3120-4FBF-8024-16E29304165C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -33001,13 +33006,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BB7F5A04-1A63-43BF-8BB6-E4FE6225B09A}" name="Nº do Pedido" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{EB9A0E62-C276-4D00-82C1-38DF73F099FF}" name="Código" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{9EA2E853-CA84-4659-A1F7-CA1F4BD73073}" name="Produto" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{C90716F9-4AA7-4A7A-93A7-234D272BC976}" name="Região" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{0E629801-B261-4112-AB86-B91C5B747F8E}" name="UF" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{97FC563D-9392-4CF6-93B4-E49C57DCADB1}" name="Cidade" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{DD7BAB7D-DE02-4BA9-B2E7-D883872F53CA}" name="Data do Pedido" dataDxfId="66" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{BB7F5A04-1A63-43BF-8BB6-E4FE6225B09A}" name="Nº do Pedido" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{EB9A0E62-C276-4D00-82C1-38DF73F099FF}" name="Código" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{9EA2E853-CA84-4659-A1F7-CA1F4BD73073}" name="Produto" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{C90716F9-4AA7-4A7A-93A7-234D272BC976}" name="Região" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{0E629801-B261-4112-AB86-B91C5B747F8E}" name="UF" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{97FC563D-9392-4CF6-93B4-E49C57DCADB1}" name="Cidade" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{DD7BAB7D-DE02-4BA9-B2E7-D883872F53CA}" name="Data do Pedido" dataDxfId="24" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -33019,15 +33024,15 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{32A5D71F-065D-406C-B00E-3C520AA467A8}" name="Texto Procurado"/>
     <tableColumn id="2" xr3:uid="{79BABBA7-1504-4B00-B08F-0A47991AA3C6}" name="Autor"/>
-    <tableColumn id="3" xr3:uid="{F5837C90-9941-4CB9-8280-A8D8FD99E16D}" name="Localizar" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{69942C6B-CBA6-4062-93D0-FF91777E2ABC}" name="Procurar" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{F5837C90-9941-4CB9-8280-A8D8FD99E16D}" name="Localizar" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{69942C6B-CBA6-4062-93D0-FF91777E2ABC}" name="Procurar" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table73.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="98" xr:uid="{F0A4D8CF-0515-44D8-86C9-381D4A5EEC05}" name="Tabela9799" displayName="Tabela9799" ref="B2:G10" totalsRowShown="0" headerRowDxfId="63" headerRowBorderDxfId="62" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="98" xr:uid="{F0A4D8CF-0515-44D8-86C9-381D4A5EEC05}" name="Tabela9799" displayName="Tabela9799" ref="B2:G10" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="B2:G10" xr:uid="{5EEE52C8-85F1-4AF8-A107-EEBDFCBBFC90}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -33037,26 +33042,26 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D6475932-D3E3-4E61-8D7F-4E86011A89D7}" name="Logradouro" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{EB949BA7-6121-432D-B207-3F38CAC3183F}" name="Caractere" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{315AAFE0-A54A-4FD3-B325-99B74636C479}" name="Direita" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{BF5EAA36-71BA-4AF1-AB52-4E40729758DF}" name="Esquerda" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{D43BC50A-D7CC-400C-A2B6-D805FDF0EF56}" name="Ext.Texto" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{DBBD6DEB-A018-47B0-901B-42A380D17904}" name="NÚM.CARACT" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{D6475932-D3E3-4E61-8D7F-4E86011A89D7}" name="Logradouro" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{EB949BA7-6121-432D-B207-3F38CAC3183F}" name="Caractere" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{315AAFE0-A54A-4FD3-B325-99B74636C479}" name="Direita" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{BF5EAA36-71BA-4AF1-AB52-4E40729758DF}" name="Esquerda" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{D43BC50A-D7CC-400C-A2B6-D805FDF0EF56}" name="Ext.Texto" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{DBBD6DEB-A018-47B0-901B-42A380D17904}" name="NÚM.CARACT" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table74.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="61" xr:uid="{01592B5F-1F2D-45F3-8DEC-575956F48FE0}" name="Tabela979962" displayName="Tabela979962" ref="B2:C14" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51" totalsRowBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="61" xr:uid="{01592B5F-1F2D-45F3-8DEC-575956F48FE0}" name="Tabela979962" displayName="Tabela979962" ref="B2:C14" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="B2:C14" xr:uid="{5EEE52C8-85F1-4AF8-A107-EEBDFCBBFC90}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{81E54EE8-2230-4852-999C-2FA33104F0D0}" name="Texto Antigo" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{9371E2E1-3974-4EAB-82D4-48EE155CF962}" name="Substituir" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{81E54EE8-2230-4852-999C-2FA33104F0D0}" name="Texto Antigo" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{9371E2E1-3974-4EAB-82D4-48EE155CF962}" name="Substituir" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -33070,16 +33075,16 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E443CA70-E607-4FDD-9E1D-A57DE166EC35}" name="Valor" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{BC5FE93F-29AA-474B-B81D-CFFD779515F9}" name="Formato" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{79B99390-83C8-4836-A465-6ED24109212E}" name="Texto" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{E443CA70-E607-4FDD-9E1D-A57DE166EC35}" name="Valor" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{BC5FE93F-29AA-474B-B81D-CFFD779515F9}" name="Formato" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{79B99390-83C8-4836-A465-6ED24109212E}" name="Texto" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D4AD31A7-0412-4E55-8777-43EC1E996718}" name="Tabela9" displayName="Tabela9" ref="B9:G18" totalsRowShown="0" dataDxfId="428">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D4AD31A7-0412-4E55-8777-43EC1E996718}" name="Tabela9" displayName="Tabela9" ref="B9:G18" totalsRowShown="0" dataDxfId="402">
   <autoFilter ref="B9:G18" xr:uid="{C1873479-1CCD-42EF-88C5-EAA5B14FD63F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -33089,21 +33094,21 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5618D574-6EAD-4BFB-A70D-01C388E4E19A}" name="CÓDIGO DO PRODUTO" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{95CDD8D6-6A4E-4051-BA38-B2A76D1FEF40}" name="DATA DA VENDA" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{853D4808-803E-43BA-9490-085CCC4D3642}" name="DATA DE ENVIO" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{5618D574-6EAD-4BFB-A70D-01C388E4E19A}" name="CÓDIGO DO PRODUTO" dataDxfId="401"/>
+    <tableColumn id="2" xr3:uid="{95CDD8D6-6A4E-4051-BA38-B2A76D1FEF40}" name="DATA DA VENDA" dataDxfId="400"/>
+    <tableColumn id="3" xr3:uid="{853D4808-803E-43BA-9490-085CCC4D3642}" name="DATA DE ENVIO" dataDxfId="399">
       <calculatedColumnFormula>Tabela9[[#This Row],[DATA DA VENDA]]+5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6666B301-C474-4561-B352-AC593702C625}" name="VENDEDOR" dataDxfId="427"/>
-    <tableColumn id="5" xr3:uid="{9E60D5AC-443E-41E1-BF19-835653ECD9F1}" name="CNPJ" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{C68352F0-7332-43D9-966D-F1C0B4852188}" name="CEP" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{6666B301-C474-4561-B352-AC593702C625}" name="VENDEDOR" dataDxfId="398"/>
+    <tableColumn id="5" xr3:uid="{9E60D5AC-443E-41E1-BF19-835653ECD9F1}" name="CNPJ" dataDxfId="397"/>
+    <tableColumn id="6" xr3:uid="{C68352F0-7332-43D9-966D-F1C0B4852188}" name="CEP" dataDxfId="396"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3AA28C83-AC55-4A19-A880-2EDCDDBE1665}" name="Tabela10" displayName="Tabela10" ref="B8:J14" totalsRowCount="1" headerRowDxfId="426" totalsRowDxfId="423" headerRowBorderDxfId="425" tableBorderDxfId="424" totalsRowBorderDxfId="422">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3AA28C83-AC55-4A19-A880-2EDCDDBE1665}" name="Tabela10" displayName="Tabela10" ref="B8:J14" totalsRowCount="1" headerRowDxfId="395" totalsRowDxfId="392" headerRowBorderDxfId="394" tableBorderDxfId="393" totalsRowBorderDxfId="391">
   <autoFilter ref="B8:J13" xr:uid="{9D2C498A-6E13-4445-9D62-3C7B375040B4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -33116,21 +33121,21 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{513C459B-46AE-4027-88DB-332514315DFA}" name="Data" totalsRowLabel="Total" dataDxfId="421" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{AF9EB6E7-4B22-4652-9CEC-9C59A23ABC8D}" name="Entrada Manhã" dataDxfId="420" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{6B96B0DA-CCCD-4CB7-90A8-EC791AC30718}" name="Saída Manhã" dataDxfId="419" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{F87F37CA-68A7-4801-9971-8DA8BF1C16CF}" name="Entrada Tarde" dataDxfId="418" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C143D396-1CAE-47EC-AC2B-75071930ED11}" name="Saída Tarde" dataDxfId="417" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{2FD0BF8C-91D1-4B24-918E-818592B37580}" name="Total" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{513C459B-46AE-4027-88DB-332514315DFA}" name="Data" totalsRowLabel="Total" dataDxfId="390" totalsRowDxfId="389"/>
+    <tableColumn id="2" xr3:uid="{AF9EB6E7-4B22-4652-9CEC-9C59A23ABC8D}" name="Entrada Manhã" dataDxfId="388" totalsRowDxfId="387"/>
+    <tableColumn id="3" xr3:uid="{6B96B0DA-CCCD-4CB7-90A8-EC791AC30718}" name="Saída Manhã" dataDxfId="386" totalsRowDxfId="385"/>
+    <tableColumn id="4" xr3:uid="{F87F37CA-68A7-4801-9971-8DA8BF1C16CF}" name="Entrada Tarde" dataDxfId="384" totalsRowDxfId="383"/>
+    <tableColumn id="5" xr3:uid="{C143D396-1CAE-47EC-AC2B-75071930ED11}" name="Saída Tarde" dataDxfId="382" totalsRowDxfId="381"/>
+    <tableColumn id="6" xr3:uid="{2FD0BF8C-91D1-4B24-918E-818592B37580}" name="Total" totalsRowFunction="sum" dataDxfId="380" totalsRowDxfId="379">
       <calculatedColumnFormula>Tabela10[[#This Row],[Saída Tarde]]-Tabela10[[#This Row],[Entrada Tarde]]+Tabela10[[#This Row],[Saída Manhã]]-Tabela10[[#This Row],[Entrada Manhã]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DA8A45C-A236-43C4-A797-7998E17CB106}" name="Horas em decimal" dataDxfId="12" totalsRowDxfId="5">
+    <tableColumn id="9" xr3:uid="{8DA8A45C-A236-43C4-A797-7998E17CB106}" name="Horas em decimal" dataDxfId="378" totalsRowDxfId="377">
       <calculatedColumnFormula>Tabela10[[#This Row],[Total]]*24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1380F3F7-B4B3-48AF-92F3-009CB44631F4}" name="Situação" dataDxfId="3" totalsRowDxfId="4">
+    <tableColumn id="7" xr3:uid="{1380F3F7-B4B3-48AF-92F3-009CB44631F4}" name="Situação" dataDxfId="376" totalsRowDxfId="375">
       <calculatedColumnFormula>IF(Tabela10[[#This Row],[Horas em decimal]]&gt;=8,"OK","Devendo horas")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{15A04A63-1337-4B7D-BAEA-C9C8A92ACC04}" name="Coluna1" dataDxfId="0" totalsRowDxfId="1">
+    <tableColumn id="8" xr3:uid="{15A04A63-1337-4B7D-BAEA-C9C8A92ACC04}" name="Coluna1" dataDxfId="374" totalsRowDxfId="373">
       <calculatedColumnFormula>IF(Tabela10[[#This Row],[Total]]*24&gt;=8,"OK","Devendo horas")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -33451,22 +33456,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="381" t="s">
+      <c r="A1" s="431" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="381"/>
-      <c r="C1" s="381"/>
-      <c r="D1" s="381"/>
-      <c r="E1" s="381"/>
-      <c r="F1" s="381"/>
-      <c r="G1" s="381"/>
-      <c r="H1" s="381"/>
-      <c r="I1" s="381"/>
-      <c r="J1" s="381"/>
-      <c r="K1" s="381"/>
-      <c r="L1" s="381"/>
-      <c r="M1" s="381"/>
-      <c r="N1" s="381"/>
+      <c r="B1" s="431"/>
+      <c r="C1" s="431"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
+      <c r="H1" s="431"/>
+      <c r="I1" s="431"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
+      <c r="L1" s="431"/>
+      <c r="M1" s="431"/>
+      <c r="N1" s="431"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" s="34"/>
@@ -33716,55 +33721,55 @@
       <c r="B8" s="18" t="s">
         <v>778</v>
       </c>
-      <c r="C8" s="396">
+      <c r="C8" s="381">
         <f t="shared" ref="C8:O8" si="0">SUM(C5:C7)</f>
         <v>23118</v>
       </c>
-      <c r="D8" s="396">
+      <c r="D8" s="381">
         <f t="shared" si="0"/>
         <v>25476</v>
       </c>
-      <c r="E8" s="396">
+      <c r="E8" s="381">
         <f t="shared" si="0"/>
         <v>47373</v>
       </c>
-      <c r="F8" s="396">
+      <c r="F8" s="381">
         <f t="shared" si="0"/>
         <v>20781</v>
       </c>
-      <c r="G8" s="396">
+      <c r="G8" s="381">
         <f t="shared" si="0"/>
         <v>8916</v>
       </c>
-      <c r="H8" s="396">
+      <c r="H8" s="381">
         <f t="shared" si="0"/>
         <v>11916</v>
       </c>
-      <c r="I8" s="396">
+      <c r="I8" s="381">
         <f t="shared" si="0"/>
         <v>11889</v>
       </c>
-      <c r="J8" s="396">
+      <c r="J8" s="381">
         <f t="shared" si="0"/>
         <v>15981</v>
       </c>
-      <c r="K8" s="396">
+      <c r="K8" s="381">
         <f t="shared" si="0"/>
         <v>18885</v>
       </c>
-      <c r="L8" s="396">
+      <c r="L8" s="381">
         <f t="shared" si="0"/>
         <v>17523</v>
       </c>
-      <c r="M8" s="396">
+      <c r="M8" s="381">
         <f t="shared" si="0"/>
         <v>18852</v>
       </c>
-      <c r="N8" s="396">
+      <c r="N8" s="381">
         <f t="shared" si="0"/>
         <v>33840</v>
       </c>
-      <c r="O8" s="396">
+      <c r="O8" s="381">
         <f t="shared" si="0"/>
         <v>15981</v>
       </c>
@@ -33905,55 +33910,55 @@
       <c r="B12" s="18" t="s">
         <v>782</v>
       </c>
-      <c r="C12" s="396">
+      <c r="C12" s="381">
         <f t="shared" ref="C12:O12" si="1">SUM(C9:C11)</f>
         <v>23118</v>
       </c>
-      <c r="D12" s="396">
+      <c r="D12" s="381">
         <f t="shared" si="1"/>
         <v>25476</v>
       </c>
-      <c r="E12" s="396">
+      <c r="E12" s="381">
         <f t="shared" si="1"/>
         <v>47373</v>
       </c>
-      <c r="F12" s="396">
+      <c r="F12" s="381">
         <f t="shared" si="1"/>
         <v>20781</v>
       </c>
-      <c r="G12" s="396">
+      <c r="G12" s="381">
         <f t="shared" si="1"/>
         <v>8916</v>
       </c>
-      <c r="H12" s="396">
+      <c r="H12" s="381">
         <f t="shared" si="1"/>
         <v>11916</v>
       </c>
-      <c r="I12" s="396">
+      <c r="I12" s="381">
         <f t="shared" si="1"/>
         <v>11889</v>
       </c>
-      <c r="J12" s="396">
+      <c r="J12" s="381">
         <f t="shared" si="1"/>
         <v>15981</v>
       </c>
-      <c r="K12" s="396">
+      <c r="K12" s="381">
         <f t="shared" si="1"/>
         <v>18885</v>
       </c>
-      <c r="L12" s="396">
+      <c r="L12" s="381">
         <f t="shared" si="1"/>
         <v>17523</v>
       </c>
-      <c r="M12" s="396">
+      <c r="M12" s="381">
         <f t="shared" si="1"/>
         <v>18852</v>
       </c>
-      <c r="N12" s="396">
+      <c r="N12" s="381">
         <f t="shared" si="1"/>
         <v>33840</v>
       </c>
-      <c r="O12" s="396">
+      <c r="O12" s="381">
         <f t="shared" si="1"/>
         <v>15981</v>
       </c>
@@ -34094,55 +34099,55 @@
       <c r="B16" s="18" t="s">
         <v>786</v>
       </c>
-      <c r="C16" s="396">
+      <c r="C16" s="381">
         <f t="shared" ref="C16:O16" si="2">SUM(C13:C15)</f>
         <v>23118</v>
       </c>
-      <c r="D16" s="396">
+      <c r="D16" s="381">
         <f t="shared" si="2"/>
         <v>25476</v>
       </c>
-      <c r="E16" s="396">
+      <c r="E16" s="381">
         <f t="shared" si="2"/>
         <v>47373</v>
       </c>
-      <c r="F16" s="396">
+      <c r="F16" s="381">
         <f t="shared" si="2"/>
         <v>20781</v>
       </c>
-      <c r="G16" s="396">
+      <c r="G16" s="381">
         <f t="shared" si="2"/>
         <v>8916</v>
       </c>
-      <c r="H16" s="396">
+      <c r="H16" s="381">
         <f t="shared" si="2"/>
         <v>11916</v>
       </c>
-      <c r="I16" s="396">
+      <c r="I16" s="381">
         <f t="shared" si="2"/>
         <v>11889</v>
       </c>
-      <c r="J16" s="396">
+      <c r="J16" s="381">
         <f t="shared" si="2"/>
         <v>15981</v>
       </c>
-      <c r="K16" s="396">
+      <c r="K16" s="381">
         <f t="shared" si="2"/>
         <v>18885</v>
       </c>
-      <c r="L16" s="396">
+      <c r="L16" s="381">
         <f t="shared" si="2"/>
         <v>17523</v>
       </c>
-      <c r="M16" s="396">
+      <c r="M16" s="381">
         <f t="shared" si="2"/>
         <v>18852</v>
       </c>
-      <c r="N16" s="396">
+      <c r="N16" s="381">
         <f t="shared" si="2"/>
         <v>33840</v>
       </c>
-      <c r="O16" s="396">
+      <c r="O16" s="381">
         <f t="shared" si="2"/>
         <v>15981</v>
       </c>
@@ -34283,55 +34288,55 @@
       <c r="B20" s="18" t="s">
         <v>790</v>
       </c>
-      <c r="C20" s="396">
+      <c r="C20" s="381">
         <f t="shared" ref="C20:O20" si="3">SUM(C17:C19)</f>
         <v>23118</v>
       </c>
-      <c r="D20" s="396">
+      <c r="D20" s="381">
         <f t="shared" si="3"/>
         <v>25476</v>
       </c>
-      <c r="E20" s="396">
+      <c r="E20" s="381">
         <f t="shared" si="3"/>
         <v>47373</v>
       </c>
-      <c r="F20" s="396">
+      <c r="F20" s="381">
         <f t="shared" si="3"/>
         <v>20781</v>
       </c>
-      <c r="G20" s="396">
+      <c r="G20" s="381">
         <f t="shared" si="3"/>
         <v>8916</v>
       </c>
-      <c r="H20" s="396">
+      <c r="H20" s="381">
         <f t="shared" si="3"/>
         <v>11916</v>
       </c>
-      <c r="I20" s="396">
+      <c r="I20" s="381">
         <f t="shared" si="3"/>
         <v>11889</v>
       </c>
-      <c r="J20" s="396">
+      <c r="J20" s="381">
         <f t="shared" si="3"/>
         <v>15981</v>
       </c>
-      <c r="K20" s="396">
+      <c r="K20" s="381">
         <f t="shared" si="3"/>
         <v>18885</v>
       </c>
-      <c r="L20" s="396">
+      <c r="L20" s="381">
         <f t="shared" si="3"/>
         <v>17523</v>
       </c>
-      <c r="M20" s="396">
+      <c r="M20" s="381">
         <f t="shared" si="3"/>
         <v>18852</v>
       </c>
-      <c r="N20" s="396">
+      <c r="N20" s="381">
         <f t="shared" si="3"/>
         <v>33840</v>
       </c>
-      <c r="O20" s="396">
+      <c r="O20" s="381">
         <f t="shared" si="3"/>
         <v>15981</v>
       </c>
@@ -34438,391 +34443,391 @@
       <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="403">
+      <c r="A2" s="388">
         <v>6</v>
       </c>
-      <c r="B2" s="405">
+      <c r="B2" s="390">
         <v>6</v>
       </c>
-      <c r="C2" s="407">
+      <c r="C2" s="392">
         <v>6</v>
       </c>
-      <c r="D2" s="397">
+      <c r="D2" s="382">
         <v>6</v>
       </c>
-      <c r="E2" s="409">
+      <c r="E2" s="394">
         <v>6</v>
       </c>
-      <c r="F2" s="411">
+      <c r="F2" s="396">
         <v>6</v>
       </c>
-      <c r="G2" s="413">
+      <c r="G2" s="398">
         <v>6</v>
       </c>
-      <c r="H2" s="399">
+      <c r="H2" s="384">
         <v>6</v>
       </c>
-      <c r="I2" s="415">
+      <c r="I2" s="400">
         <v>6</v>
       </c>
-      <c r="J2" s="401">
+      <c r="J2" s="386">
         <v>6</v>
       </c>
-      <c r="K2" s="417">
+      <c r="K2" s="402">
         <v>6</v>
       </c>
-      <c r="L2" s="419">
+      <c r="L2" s="404">
         <v>6</v>
       </c>
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="403">
+      <c r="A3" s="388">
         <v>44338</v>
       </c>
-      <c r="B3" s="405">
+      <c r="B3" s="390">
         <v>44338</v>
       </c>
-      <c r="C3" s="407">
+      <c r="C3" s="392">
         <v>44338</v>
       </c>
-      <c r="D3" s="397">
+      <c r="D3" s="382">
         <v>44338</v>
       </c>
-      <c r="E3" s="409">
+      <c r="E3" s="394">
         <v>44338</v>
       </c>
-      <c r="F3" s="411">
+      <c r="F3" s="396">
         <v>44338</v>
       </c>
-      <c r="G3" s="413">
+      <c r="G3" s="398">
         <v>44338</v>
       </c>
-      <c r="H3" s="399">
+      <c r="H3" s="384">
         <v>44338</v>
       </c>
-      <c r="I3" s="415">
+      <c r="I3" s="400">
         <v>44338</v>
       </c>
-      <c r="J3" s="401">
+      <c r="J3" s="386">
         <v>44338</v>
       </c>
-      <c r="K3" s="417">
+      <c r="K3" s="402">
         <v>44338</v>
       </c>
-      <c r="L3" s="419">
+      <c r="L3" s="404">
         <v>44338</v>
       </c>
       <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="403">
+      <c r="A4" s="388">
         <v>44266</v>
       </c>
-      <c r="B4" s="405">
+      <c r="B4" s="390">
         <v>44266</v>
       </c>
-      <c r="C4" s="407">
+      <c r="C4" s="392">
         <v>44266</v>
       </c>
-      <c r="D4" s="397">
+      <c r="D4" s="382">
         <v>44266</v>
       </c>
-      <c r="E4" s="409">
+      <c r="E4" s="394">
         <v>44266</v>
       </c>
-      <c r="F4" s="411">
+      <c r="F4" s="396">
         <v>44266</v>
       </c>
-      <c r="G4" s="413">
+      <c r="G4" s="398">
         <v>44266</v>
       </c>
-      <c r="H4" s="399">
+      <c r="H4" s="384">
         <v>44266</v>
       </c>
-      <c r="I4" s="415">
+      <c r="I4" s="400">
         <v>44266</v>
       </c>
-      <c r="J4" s="401">
+      <c r="J4" s="386">
         <v>44266</v>
       </c>
-      <c r="K4" s="417">
+      <c r="K4" s="402">
         <v>44266</v>
       </c>
-      <c r="L4" s="419">
+      <c r="L4" s="404">
         <v>44266</v>
       </c>
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="403">
+      <c r="A5" s="388">
         <v>44279</v>
       </c>
-      <c r="B5" s="405">
+      <c r="B5" s="390">
         <v>44279</v>
       </c>
-      <c r="C5" s="407">
+      <c r="C5" s="392">
         <v>44279</v>
       </c>
-      <c r="D5" s="397">
+      <c r="D5" s="382">
         <v>44279</v>
       </c>
-      <c r="E5" s="409">
+      <c r="E5" s="394">
         <v>44279</v>
       </c>
-      <c r="F5" s="411">
+      <c r="F5" s="396">
         <v>44279</v>
       </c>
-      <c r="G5" s="413">
+      <c r="G5" s="398">
         <v>44279</v>
       </c>
-      <c r="H5" s="399">
+      <c r="H5" s="384">
         <v>44279</v>
       </c>
-      <c r="I5" s="415">
+      <c r="I5" s="400">
         <v>44279</v>
       </c>
-      <c r="J5" s="401">
+      <c r="J5" s="386">
         <v>44279</v>
       </c>
-      <c r="K5" s="417">
+      <c r="K5" s="402">
         <v>44279</v>
       </c>
-      <c r="L5" s="419">
+      <c r="L5" s="404">
         <v>44279</v>
       </c>
       <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="403">
+      <c r="A6" s="388">
         <v>44343</v>
       </c>
-      <c r="B6" s="405">
+      <c r="B6" s="390">
         <v>44343</v>
       </c>
-      <c r="C6" s="407">
+      <c r="C6" s="392">
         <v>44343</v>
       </c>
-      <c r="D6" s="397">
+      <c r="D6" s="382">
         <v>44343</v>
       </c>
-      <c r="E6" s="409">
+      <c r="E6" s="394">
         <v>44343</v>
       </c>
-      <c r="F6" s="411">
+      <c r="F6" s="396">
         <v>44343</v>
       </c>
-      <c r="G6" s="413">
+      <c r="G6" s="398">
         <v>44343</v>
       </c>
-      <c r="H6" s="399">
+      <c r="H6" s="384">
         <v>44343</v>
       </c>
-      <c r="I6" s="415">
+      <c r="I6" s="400">
         <v>44343</v>
       </c>
-      <c r="J6" s="401">
+      <c r="J6" s="386">
         <v>44343</v>
       </c>
-      <c r="K6" s="417">
+      <c r="K6" s="402">
         <v>44343</v>
       </c>
-      <c r="L6" s="419">
+      <c r="L6" s="404">
         <v>44343</v>
       </c>
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="403">
+      <c r="A7" s="388">
         <v>44242</v>
       </c>
-      <c r="B7" s="405">
+      <c r="B7" s="390">
         <v>44242</v>
       </c>
-      <c r="C7" s="407">
+      <c r="C7" s="392">
         <v>44242</v>
       </c>
-      <c r="D7" s="397">
+      <c r="D7" s="382">
         <v>44242</v>
       </c>
-      <c r="E7" s="409">
+      <c r="E7" s="394">
         <v>44242</v>
       </c>
-      <c r="F7" s="411">
+      <c r="F7" s="396">
         <v>44242</v>
       </c>
-      <c r="G7" s="413">
+      <c r="G7" s="398">
         <v>44242</v>
       </c>
-      <c r="H7" s="399">
+      <c r="H7" s="384">
         <v>44242</v>
       </c>
-      <c r="I7" s="415">
+      <c r="I7" s="400">
         <v>44242</v>
       </c>
-      <c r="J7" s="401">
+      <c r="J7" s="386">
         <v>44242</v>
       </c>
-      <c r="K7" s="417">
+      <c r="K7" s="402">
         <v>44242</v>
       </c>
-      <c r="L7" s="419">
+      <c r="L7" s="404">
         <v>44242</v>
       </c>
       <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="403">
+      <c r="A8" s="388">
         <v>44267</v>
       </c>
-      <c r="B8" s="405">
+      <c r="B8" s="390">
         <v>44267</v>
       </c>
-      <c r="C8" s="407">
+      <c r="C8" s="392">
         <v>44267</v>
       </c>
-      <c r="D8" s="397">
+      <c r="D8" s="382">
         <v>44267</v>
       </c>
-      <c r="E8" s="409">
+      <c r="E8" s="394">
         <v>44267</v>
       </c>
-      <c r="F8" s="411">
+      <c r="F8" s="396">
         <v>44267</v>
       </c>
-      <c r="G8" s="413">
+      <c r="G8" s="398">
         <v>44267</v>
       </c>
-      <c r="H8" s="399">
+      <c r="H8" s="384">
         <v>44267</v>
       </c>
-      <c r="I8" s="415">
+      <c r="I8" s="400">
         <v>44267</v>
       </c>
-      <c r="J8" s="401">
+      <c r="J8" s="386">
         <v>44267</v>
       </c>
-      <c r="K8" s="417">
+      <c r="K8" s="402">
         <v>44267</v>
       </c>
-      <c r="L8" s="419">
+      <c r="L8" s="404">
         <v>44267</v>
       </c>
       <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="403">
+      <c r="A9" s="388">
         <v>44282</v>
       </c>
-      <c r="B9" s="405">
+      <c r="B9" s="390">
         <v>44282</v>
       </c>
-      <c r="C9" s="407">
+      <c r="C9" s="392">
         <v>44282</v>
       </c>
-      <c r="D9" s="397">
+      <c r="D9" s="382">
         <v>44282</v>
       </c>
-      <c r="E9" s="409">
+      <c r="E9" s="394">
         <v>44282</v>
       </c>
-      <c r="F9" s="411">
+      <c r="F9" s="396">
         <v>44282</v>
       </c>
-      <c r="G9" s="413">
+      <c r="G9" s="398">
         <v>44282</v>
       </c>
-      <c r="H9" s="399">
+      <c r="H9" s="384">
         <v>44282</v>
       </c>
-      <c r="I9" s="415">
+      <c r="I9" s="400">
         <v>44282</v>
       </c>
-      <c r="J9" s="401">
+      <c r="J9" s="386">
         <v>44282</v>
       </c>
-      <c r="K9" s="417">
+      <c r="K9" s="402">
         <v>44282</v>
       </c>
-      <c r="L9" s="419">
+      <c r="L9" s="404">
         <v>44282</v>
       </c>
       <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="403">
+      <c r="A10" s="388">
         <v>44346</v>
       </c>
-      <c r="B10" s="405">
+      <c r="B10" s="390">
         <v>44346</v>
       </c>
-      <c r="C10" s="407">
+      <c r="C10" s="392">
         <v>44346</v>
       </c>
-      <c r="D10" s="397">
+      <c r="D10" s="382">
         <v>44346</v>
       </c>
-      <c r="E10" s="409">
+      <c r="E10" s="394">
         <v>44346</v>
       </c>
-      <c r="F10" s="411">
+      <c r="F10" s="396">
         <v>44346</v>
       </c>
-      <c r="G10" s="413">
+      <c r="G10" s="398">
         <v>44346</v>
       </c>
-      <c r="H10" s="399">
+      <c r="H10" s="384">
         <v>44346</v>
       </c>
-      <c r="I10" s="415">
+      <c r="I10" s="400">
         <v>44346</v>
       </c>
-      <c r="J10" s="401">
+      <c r="J10" s="386">
         <v>44346</v>
       </c>
-      <c r="K10" s="417">
+      <c r="K10" s="402">
         <v>44346</v>
       </c>
-      <c r="L10" s="419">
+      <c r="L10" s="404">
         <v>44346</v>
       </c>
       <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="404">
+      <c r="A11" s="389">
         <v>44344</v>
       </c>
-      <c r="B11" s="406">
+      <c r="B11" s="391">
         <v>44344</v>
       </c>
-      <c r="C11" s="408">
+      <c r="C11" s="393">
         <v>44344</v>
       </c>
-      <c r="D11" s="398">
+      <c r="D11" s="383">
         <v>44344</v>
       </c>
-      <c r="E11" s="410">
+      <c r="E11" s="395">
         <v>44344</v>
       </c>
-      <c r="F11" s="412">
+      <c r="F11" s="397">
         <v>44344</v>
       </c>
-      <c r="G11" s="414">
+      <c r="G11" s="399">
         <v>44344</v>
       </c>
-      <c r="H11" s="400">
+      <c r="H11" s="385">
         <v>44344</v>
       </c>
-      <c r="I11" s="416">
+      <c r="I11" s="401">
         <v>44344</v>
       </c>
-      <c r="J11" s="402">
+      <c r="J11" s="387">
         <v>44344</v>
       </c>
-      <c r="K11" s="418">
+      <c r="K11" s="403">
         <v>44344</v>
       </c>
-      <c r="L11" s="420">
+      <c r="L11" s="405">
         <v>44344</v>
       </c>
       <c r="M11" s="14"/>
@@ -34860,164 +34865,164 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="421">
+      <c r="A14" s="406">
         <v>0.375</v>
       </c>
-      <c r="B14" s="422">
+      <c r="B14" s="407">
         <v>0.375</v>
       </c>
-      <c r="C14" s="423">
+      <c r="C14" s="408">
         <v>0.375</v>
       </c>
-      <c r="D14" s="424">
+      <c r="D14" s="409">
         <v>0.37563657407407408</v>
       </c>
-      <c r="E14" s="425">
+      <c r="E14" s="410">
         <v>0.37563657407407408</v>
       </c>
-      <c r="F14" s="426">
+      <c r="F14" s="411">
         <v>0.37563657407407408</v>
       </c>
       <c r="G14" s="97">
         <v>0.37563657407407408</v>
       </c>
-      <c r="I14" s="427">
+      <c r="I14" s="412">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J14" s="429">
+      <c r="J14" s="414">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K14" s="431">
+      <c r="K14" s="416">
         <v>3.4722222222222224E-4</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="421">
+      <c r="A15" s="406">
         <v>0.33055555555555555</v>
       </c>
-      <c r="B15" s="422">
+      <c r="B15" s="407">
         <v>0.33055555555555555</v>
       </c>
-      <c r="C15" s="423">
+      <c r="C15" s="408">
         <v>0.33055555555555555</v>
       </c>
-      <c r="D15" s="424">
+      <c r="D15" s="409">
         <v>0.33069444444444446</v>
       </c>
-      <c r="E15" s="425">
+      <c r="E15" s="410">
         <v>0.33069444444444446</v>
       </c>
-      <c r="F15" s="426">
+      <c r="F15" s="411">
         <v>0.33069444444444446</v>
       </c>
       <c r="G15" s="97">
         <v>0.33069444444444446</v>
       </c>
-      <c r="I15" s="427">
+      <c r="I15" s="412">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J15" s="429">
+      <c r="J15" s="414">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K15" s="431">
+      <c r="K15" s="416">
         <v>3.4722222222222224E-4</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="421">
+      <c r="A16" s="406">
         <v>0.52430555555555558</v>
       </c>
-      <c r="B16" s="422">
+      <c r="B16" s="407">
         <v>0.52430555555555558</v>
       </c>
-      <c r="C16" s="423">
+      <c r="C16" s="408">
         <v>0.52430555555555558</v>
       </c>
-      <c r="D16" s="424">
+      <c r="D16" s="409">
         <v>0.52431712962962962</v>
       </c>
-      <c r="E16" s="425">
+      <c r="E16" s="410">
         <v>0.52431712962962962</v>
       </c>
-      <c r="F16" s="426">
+      <c r="F16" s="411">
         <v>0.52431712962962962</v>
       </c>
       <c r="G16" s="97">
         <v>0.52431712962962962</v>
       </c>
-      <c r="I16" s="427">
+      <c r="I16" s="412">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J16" s="429">
+      <c r="J16" s="414">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K16" s="431">
+      <c r="K16" s="416">
         <v>3.4722222222222224E-4</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="421">
+      <c r="A17" s="406">
         <v>0.25</v>
       </c>
-      <c r="B17" s="422">
+      <c r="B17" s="407">
         <v>0.25</v>
       </c>
-      <c r="C17" s="423">
+      <c r="C17" s="408">
         <v>0.25</v>
       </c>
-      <c r="D17" s="424">
+      <c r="D17" s="409">
         <v>0.25011574074074078</v>
       </c>
-      <c r="E17" s="425">
+      <c r="E17" s="410">
         <v>0.25011574074074078</v>
       </c>
-      <c r="F17" s="426">
+      <c r="F17" s="411">
         <v>0.25011574074074078</v>
       </c>
       <c r="G17" s="97">
         <v>0.25011574074074078</v>
       </c>
-      <c r="I17" s="427">
+      <c r="I17" s="412">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J17" s="429">
+      <c r="J17" s="414">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K17" s="431">
+      <c r="K17" s="416">
         <v>3.4722222222222224E-4</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="421">
+      <c r="A18" s="406">
         <v>0.93888888888888899</v>
       </c>
-      <c r="B18" s="422">
+      <c r="B18" s="407">
         <v>0.93888888888888899</v>
       </c>
-      <c r="C18" s="423">
+      <c r="C18" s="408">
         <v>0.93888888888888899</v>
       </c>
-      <c r="D18" s="424">
+      <c r="D18" s="409">
         <v>0.93902777777777768</v>
       </c>
-      <c r="E18" s="425">
+      <c r="E18" s="410">
         <v>0.93902777777777768</v>
       </c>
-      <c r="F18" s="426">
+      <c r="F18" s="411">
         <v>0.93902777777777768</v>
       </c>
       <c r="G18" s="97">
         <v>0.93902777777777768</v>
       </c>
-      <c r="I18" s="428">
+      <c r="I18" s="413">
         <f>SUBTOTAL(109,Tabela5['[h']])</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="J18" s="430">
+      <c r="J18" s="415">
         <f>SUBTOTAL(109,Tabela5['[m']])</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K18" s="432">
+      <c r="K18" s="417">
         <f>SUBTOTAL(109,Tabela5['[s']])</f>
         <v>1.3888888888888889E-3</v>
       </c>
@@ -35037,128 +35042,128 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="433">
+      <c r="E21" s="418">
         <v>28340594</v>
       </c>
-      <c r="F21" s="435">
+      <c r="F21" s="420">
         <v>89236560441</v>
       </c>
-      <c r="G21" s="437">
+      <c r="G21" s="422">
         <v>22512172900160</v>
       </c>
-      <c r="H21" s="439">
+      <c r="H21" s="424">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="433">
+      <c r="E22" s="418">
         <v>63832593</v>
       </c>
-      <c r="F22" s="435">
+      <c r="F22" s="420">
         <v>55635375274</v>
       </c>
-      <c r="G22" s="437">
+      <c r="G22" s="422">
         <v>12113001900223</v>
       </c>
-      <c r="H22" s="439">
+      <c r="H22" s="424">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E23" s="433">
+      <c r="E23" s="418">
         <v>94957245</v>
       </c>
-      <c r="F23" s="435">
+      <c r="F23" s="420">
         <v>76496729231</v>
       </c>
-      <c r="G23" s="437">
+      <c r="G23" s="422">
         <v>12264280000220</v>
       </c>
-      <c r="H23" s="439">
+      <c r="H23" s="424">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E24" s="433">
+      <c r="E24" s="418">
         <v>75086244</v>
       </c>
-      <c r="F24" s="435">
+      <c r="F24" s="420">
         <v>38063215697</v>
       </c>
-      <c r="G24" s="437">
+      <c r="G24" s="422">
         <v>38013328300790</v>
       </c>
-      <c r="H24" s="439">
+      <c r="H24" s="424">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E25" s="433">
+      <c r="E25" s="418">
         <v>33899022</v>
       </c>
-      <c r="F25" s="435">
+      <c r="F25" s="420">
         <v>79893695763</v>
       </c>
-      <c r="G25" s="437">
+      <c r="G25" s="422">
         <v>88525176200145</v>
       </c>
-      <c r="H25" s="439">
+      <c r="H25" s="424">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E26" s="433">
+      <c r="E26" s="418">
         <v>66208313</v>
       </c>
-      <c r="F26" s="435">
+      <c r="F26" s="420">
         <v>92758568125</v>
       </c>
-      <c r="G26" s="437">
+      <c r="G26" s="422">
         <v>46261377300111</v>
       </c>
-      <c r="H26" s="439">
+      <c r="H26" s="424">
         <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="433">
+      <c r="E27" s="418">
         <v>29083033</v>
       </c>
-      <c r="F27" s="435">
+      <c r="F27" s="420">
         <v>20974752788</v>
       </c>
-      <c r="G27" s="437">
+      <c r="G27" s="422">
         <v>33329338300160</v>
       </c>
-      <c r="H27" s="439">
+      <c r="H27" s="424">
         <v>869</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="433">
+      <c r="E28" s="418">
         <v>10406726</v>
       </c>
-      <c r="F28" s="435">
+      <c r="F28" s="420">
         <v>65358058820</v>
       </c>
-      <c r="G28" s="437">
+      <c r="G28" s="422">
         <v>12384322200288</v>
       </c>
-      <c r="H28" s="439">
+      <c r="H28" s="424">
         <v>6688</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E29" s="434">
+      <c r="E29" s="419">
         <v>85713697</v>
       </c>
-      <c r="F29" s="436">
+      <c r="F29" s="421">
         <v>21028289166</v>
       </c>
-      <c r="G29" s="438">
+      <c r="G29" s="423">
         <v>82516660600111</v>
       </c>
-      <c r="H29" s="440">
+      <c r="H29" s="425">
         <v>4422</v>
       </c>
     </row>
@@ -35218,191 +35223,191 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="441">
+      <c r="B10" s="426">
         <v>80848</v>
       </c>
-      <c r="C10" s="442">
+      <c r="C10" s="427">
         <v>43241.583333333336</v>
       </c>
-      <c r="D10" s="443">
+      <c r="D10" s="428">
         <f>Tabela9[[#This Row],[DATA DA VENDA]]+5</f>
         <v>43246.583333333336</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="444">
+      <c r="F10" s="429">
         <v>22512172900160</v>
       </c>
-      <c r="G10" s="445">
+      <c r="G10" s="430">
         <v>28340594</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="441">
+      <c r="B11" s="426">
         <v>87199</v>
       </c>
-      <c r="C11" s="442">
+      <c r="C11" s="427">
         <v>43242.5625</v>
       </c>
-      <c r="D11" s="443">
+      <c r="D11" s="428">
         <f>Tabela9[[#This Row],[DATA DA VENDA]]+5</f>
         <v>43247.5625</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="444">
+      <c r="F11" s="429">
         <v>12113001900223</v>
       </c>
-      <c r="G11" s="445">
+      <c r="G11" s="430">
         <v>63832593</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="441">
+      <c r="B12" s="426">
         <v>80569</v>
       </c>
-      <c r="C12" s="442">
+      <c r="C12" s="427">
         <v>43170.708333333336</v>
       </c>
-      <c r="D12" s="443">
+      <c r="D12" s="428">
         <f>Tabela9[[#This Row],[DATA DA VENDA]]+5</f>
         <v>43175.708333333336</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="444">
+      <c r="F12" s="429">
         <v>12264280000220</v>
       </c>
-      <c r="G12" s="445">
+      <c r="G12" s="430">
         <v>94957245</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="441">
+      <c r="B13" s="426">
         <v>87217</v>
       </c>
-      <c r="C13" s="442">
+      <c r="C13" s="427">
         <v>43183.625</v>
       </c>
-      <c r="D13" s="443">
+      <c r="D13" s="428">
         <f>Tabela9[[#This Row],[DATA DA VENDA]]+5</f>
         <v>43188.625</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="444">
+      <c r="F13" s="429">
         <v>38013328300790</v>
       </c>
-      <c r="G13" s="445">
+      <c r="G13" s="430">
         <v>75086244</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="441">
+      <c r="B14" s="426">
         <v>82905</v>
       </c>
-      <c r="C14" s="442">
+      <c r="C14" s="427">
         <v>43247.348611111112</v>
       </c>
-      <c r="D14" s="443">
+      <c r="D14" s="428">
         <f>Tabela9[[#This Row],[DATA DA VENDA]]+5</f>
         <v>43252.348611111112</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="444">
+      <c r="F14" s="429">
         <v>88525176200145</v>
       </c>
-      <c r="G14" s="445">
+      <c r="G14" s="430">
         <v>33899022</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="441">
+      <c r="B15" s="426">
         <v>89078</v>
       </c>
-      <c r="C15" s="442">
+      <c r="C15" s="427">
         <v>43146.381944444445</v>
       </c>
-      <c r="D15" s="443">
+      <c r="D15" s="428">
         <f>Tabela9[[#This Row],[DATA DA VENDA]]+5</f>
         <v>43151.381944444445</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="444">
+      <c r="F15" s="429">
         <v>46261377300111</v>
       </c>
-      <c r="G15" s="445">
+      <c r="G15" s="430">
         <v>66208313</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="441">
+      <c r="B16" s="426">
         <v>87500</v>
       </c>
-      <c r="C16" s="442">
+      <c r="C16" s="427">
         <v>43171.597222222219</v>
       </c>
-      <c r="D16" s="443">
+      <c r="D16" s="428">
         <f>Tabela9[[#This Row],[DATA DA VENDA]]+5</f>
         <v>43176.597222222219</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="444">
+      <c r="F16" s="429">
         <v>33329338300160</v>
       </c>
-      <c r="G16" s="445">
+      <c r="G16" s="430">
         <v>29083033</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="441">
+      <c r="B17" s="426">
         <v>86959</v>
       </c>
-      <c r="C17" s="442">
+      <c r="C17" s="427">
         <v>43186.493055555555</v>
       </c>
-      <c r="D17" s="443">
+      <c r="D17" s="428">
         <f>Tabela9[[#This Row],[DATA DA VENDA]]+5</f>
         <v>43191.493055555555</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="444">
+      <c r="F17" s="429">
         <v>12384322200288</v>
       </c>
-      <c r="G17" s="445">
+      <c r="G17" s="430">
         <v>10406726</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="441">
+      <c r="B18" s="426">
         <v>85149</v>
       </c>
-      <c r="C18" s="442">
+      <c r="C18" s="427">
         <v>43250.6875</v>
       </c>
-      <c r="D18" s="443">
+      <c r="D18" s="428">
         <f>Tabela9[[#This Row],[DATA DA VENDA]]+5</f>
         <v>43255.6875</v>
       </c>
       <c r="E18" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="444">
+      <c r="F18" s="429">
         <v>82516660600111</v>
       </c>
-      <c r="G18" s="445">
+      <c r="G18" s="430">
         <v>85713697</v>
       </c>
     </row>
@@ -35422,7 +35427,7 @@
   </sheetPr>
   <dimension ref="B8:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -35488,7 +35493,7 @@
         <f>Tabela10[[#This Row],[Saída Tarde]]-Tabela10[[#This Row],[Entrada Tarde]]+Tabela10[[#This Row],[Saída Manhã]]-Tabela10[[#This Row],[Entrada Manhã]]</f>
         <v>0.33333333333333343</v>
       </c>
-      <c r="H9" s="446">
+      <c r="H9" s="96">
         <f>Tabela10[[#This Row],[Total]]*24</f>
         <v>8.0000000000000018</v>
       </c>
@@ -35521,7 +35526,7 @@
         <f>Tabela10[[#This Row],[Saída Tarde]]-Tabela10[[#This Row],[Entrada Tarde]]+Tabela10[[#This Row],[Saída Manhã]]-Tabela10[[#This Row],[Entrada Manhã]]</f>
         <v>0.29166666666666674</v>
       </c>
-      <c r="H10" s="446">
+      <c r="H10" s="96">
         <f>Tabela10[[#This Row],[Total]]*24</f>
         <v>7.0000000000000018</v>
       </c>
@@ -35554,7 +35559,7 @@
         <f>Tabela10[[#This Row],[Saída Tarde]]-Tabela10[[#This Row],[Entrada Tarde]]+Tabela10[[#This Row],[Saída Manhã]]-Tabela10[[#This Row],[Entrada Manhã]]</f>
         <v>0.33333333333333343</v>
       </c>
-      <c r="H11" s="446">
+      <c r="H11" s="96">
         <f>Tabela10[[#This Row],[Total]]*24</f>
         <v>8.0000000000000018</v>
       </c>
@@ -35587,7 +35592,7 @@
         <f>Tabela10[[#This Row],[Saída Tarde]]-Tabela10[[#This Row],[Entrada Tarde]]+Tabela10[[#This Row],[Saída Manhã]]-Tabela10[[#This Row],[Entrada Manhã]]</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="H12" s="446">
+      <c r="H12" s="96">
         <f>Tabela10[[#This Row],[Total]]*24</f>
         <v>6.0000000000000018</v>
       </c>
@@ -35620,7 +35625,7 @@
         <f>Tabela10[[#This Row],[Saída Tarde]]-Tabela10[[#This Row],[Entrada Tarde]]+Tabela10[[#This Row],[Saída Manhã]]-Tabela10[[#This Row],[Entrada Manhã]]</f>
         <v>0.33333333333333343</v>
       </c>
-      <c r="H13" s="446">
+      <c r="H13" s="96">
         <f>Tabela10[[#This Row],[Total]]*24</f>
         <v>8.0000000000000018</v>
       </c>
@@ -35672,75 +35677,75 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="386"/>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
-      <c r="L1" s="386"/>
-      <c r="M1" s="386"/>
-      <c r="N1" s="386"/>
-      <c r="O1" s="386"/>
-      <c r="P1" s="386"/>
-      <c r="Q1" s="386"/>
-      <c r="R1" s="386"/>
-      <c r="S1" s="386"/>
-      <c r="T1" s="386"/>
-      <c r="U1" s="386"/>
+      <c r="A1" s="436"/>
+      <c r="B1" s="436"/>
+      <c r="C1" s="436"/>
+      <c r="D1" s="436"/>
+      <c r="E1" s="436"/>
+      <c r="F1" s="436"/>
+      <c r="G1" s="436"/>
+      <c r="H1" s="436"/>
+      <c r="I1" s="436"/>
+      <c r="J1" s="436"/>
+      <c r="K1" s="436"/>
+      <c r="L1" s="436"/>
+      <c r="M1" s="436"/>
+      <c r="N1" s="436"/>
+      <c r="O1" s="436"/>
+      <c r="P1" s="436"/>
+      <c r="Q1" s="436"/>
+      <c r="R1" s="436"/>
+      <c r="S1" s="436"/>
+      <c r="T1" s="436"/>
+      <c r="U1" s="436"/>
       <c r="V1" s="29"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="386"/>
-      <c r="B2" s="386"/>
-      <c r="C2" s="386"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="386"/>
-      <c r="F2" s="386"/>
-      <c r="G2" s="386"/>
-      <c r="H2" s="386"/>
-      <c r="I2" s="386"/>
-      <c r="J2" s="386"/>
-      <c r="K2" s="386"/>
-      <c r="L2" s="386"/>
-      <c r="M2" s="386"/>
-      <c r="N2" s="386"/>
-      <c r="O2" s="386"/>
-      <c r="P2" s="386"/>
-      <c r="Q2" s="386"/>
-      <c r="R2" s="386"/>
-      <c r="S2" s="386"/>
-      <c r="T2" s="386"/>
-      <c r="U2" s="386"/>
+      <c r="A2" s="436"/>
+      <c r="B2" s="436"/>
+      <c r="C2" s="436"/>
+      <c r="D2" s="436"/>
+      <c r="E2" s="436"/>
+      <c r="F2" s="436"/>
+      <c r="G2" s="436"/>
+      <c r="H2" s="436"/>
+      <c r="I2" s="436"/>
+      <c r="J2" s="436"/>
+      <c r="K2" s="436"/>
+      <c r="L2" s="436"/>
+      <c r="M2" s="436"/>
+      <c r="N2" s="436"/>
+      <c r="O2" s="436"/>
+      <c r="P2" s="436"/>
+      <c r="Q2" s="436"/>
+      <c r="R2" s="436"/>
+      <c r="S2" s="436"/>
+      <c r="T2" s="436"/>
+      <c r="U2" s="436"/>
       <c r="V2" s="29"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="386"/>
-      <c r="B3" s="386"/>
-      <c r="C3" s="386"/>
-      <c r="D3" s="386"/>
-      <c r="E3" s="386"/>
-      <c r="F3" s="386"/>
-      <c r="G3" s="386"/>
-      <c r="H3" s="386"/>
-      <c r="I3" s="386"/>
-      <c r="J3" s="386"/>
-      <c r="K3" s="386"/>
-      <c r="L3" s="386"/>
-      <c r="M3" s="386"/>
-      <c r="N3" s="386"/>
-      <c r="O3" s="386"/>
-      <c r="P3" s="386"/>
-      <c r="Q3" s="386"/>
-      <c r="R3" s="386"/>
-      <c r="S3" s="386"/>
-      <c r="T3" s="386"/>
-      <c r="U3" s="386"/>
+      <c r="A3" s="436"/>
+      <c r="B3" s="436"/>
+      <c r="C3" s="436"/>
+      <c r="D3" s="436"/>
+      <c r="E3" s="436"/>
+      <c r="F3" s="436"/>
+      <c r="G3" s="436"/>
+      <c r="H3" s="436"/>
+      <c r="I3" s="436"/>
+      <c r="J3" s="436"/>
+      <c r="K3" s="436"/>
+      <c r="L3" s="436"/>
+      <c r="M3" s="436"/>
+      <c r="N3" s="436"/>
+      <c r="O3" s="436"/>
+      <c r="P3" s="436"/>
+      <c r="Q3" s="436"/>
+      <c r="R3" s="436"/>
+      <c r="S3" s="436"/>
+      <c r="T3" s="436"/>
+      <c r="U3" s="436"/>
       <c r="V3" s="29"/>
     </row>
   </sheetData>
@@ -35761,7 +35766,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35785,7 +35790,7 @@
       </c>
       <c r="B3" s="14">
         <f ca="1">TODAY()</f>
-        <v>45329</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -35808,8 +35813,8 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <f t="shared" ref="A6" ca="1" si="0">$B$3</f>
-        <v>45329</v>
+        <f ca="1">$B$3</f>
+        <v>45342</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -35830,7 +35835,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <f ca="1">A6+1</f>
-        <v>45330</v>
+        <v>45343</v>
       </c>
       <c r="B7">
         <f>E6</f>
@@ -35851,8 +35856,8 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <f t="shared" ref="A8:A10" ca="1" si="1">A7+1</f>
-        <v>45331</v>
+        <f ca="1">A7+1</f>
+        <v>45344</v>
       </c>
       <c r="B8">
         <f>E7</f>
@@ -35873,8 +35878,8 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
-        <f t="shared" ca="1" si="1"/>
-        <v>45332</v>
+        <f ca="1">A8+1</f>
+        <v>45345</v>
       </c>
       <c r="B9">
         <f>E8</f>
@@ -35895,8 +35900,8 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <f t="shared" ca="1" si="1"/>
-        <v>45333</v>
+        <f ca="1">A9+1</f>
+        <v>45346</v>
       </c>
       <c r="B10">
         <f>E9</f>
@@ -35957,11 +35962,11 @@
         <v>90</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="31" t="e">
+        <v>2</v>
+      </c>
+      <c r="D15" s="31">
         <f>Tabela15[[#This Row],[Peso]]/Tabela15[[#This Row],[Altura ]]^2</f>
-        <v>#DIV/0!</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -36012,9 +36017,6 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D15" evalError="1"/>
-  </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -36030,7 +36032,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36040,10 +36042,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="437" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="387"/>
+      <c r="B1" s="437"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -36122,10 +36124,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="437" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="387"/>
+      <c r="B1" s="437"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -36204,10 +36206,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="437" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="387"/>
+      <c r="B1" s="437"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -36307,7 +36309,7 @@
       </c>
     </row>
     <row r="2" spans="2:8 16382:16383" x14ac:dyDescent="0.25">
-      <c r="B2" s="382" t="s">
+      <c r="B2" s="432" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="67" t="s">
@@ -36322,7 +36324,7 @@
       </c>
     </row>
     <row r="3" spans="2:8 16382:16383" x14ac:dyDescent="0.25">
-      <c r="B3" s="382"/>
+      <c r="B3" s="432"/>
       <c r="C3" s="68" t="s">
         <v>11</v>
       </c>
@@ -36336,7 +36338,7 @@
       </c>
     </row>
     <row r="4" spans="2:8 16382:16383" x14ac:dyDescent="0.25">
-      <c r="B4" s="382"/>
+      <c r="B4" s="432"/>
       <c r="C4" s="69">
         <f>IFERROR(VLOOKUP(C3,Tbl_Material[],2,FALSE),"")</f>
         <v>0.02</v>
@@ -36648,7 +36650,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36658,10 +36660,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="437" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="387"/>
+      <c r="B1" s="437"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -36675,25 +36677,45 @@
       <c r="A4" t="s">
         <v>128</v>
       </c>
+      <c r="B4">
+        <f>Tb_janeiro[[#This Row],[Vendas]]+Tb_Fevereiro[[#This Row],[Vendas]]+Tb_Março[[#This Row],[Vendas]]</f>
+        <v>1317</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>129</v>
       </c>
+      <c r="B5">
+        <f>Tb_janeiro[[#This Row],[Vendas]]+Tb_Fevereiro[[#This Row],[Vendas]]+Tb_Março[[#This Row],[Vendas]]</f>
+        <v>1866</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>130</v>
       </c>
+      <c r="B6">
+        <f>Tb_janeiro[[#This Row],[Vendas]]+Tb_Fevereiro[[#This Row],[Vendas]]+Tb_Março[[#This Row],[Vendas]]</f>
+        <v>2535</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>131</v>
       </c>
+      <c r="B7">
+        <f>Tb_janeiro[[#This Row],[Vendas]]+Tb_Fevereiro[[#This Row],[Vendas]]+Tb_Março[[#This Row],[Vendas]]</f>
+        <v>1780</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>132</v>
+      </c>
+      <c r="B8">
+        <f>Tb_janeiro[[#This Row],[Vendas]]+Tb_Fevereiro[[#This Row],[Vendas]]+Tb_Março[[#This Row],[Vendas]]</f>
+        <v>2148</v>
       </c>
     </row>
   </sheetData>
@@ -36715,80 +36737,80 @@
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="386"/>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
-      <c r="L1" s="386"/>
-      <c r="M1" s="386"/>
-      <c r="N1" s="386"/>
-      <c r="O1" s="386"/>
-      <c r="P1" s="386"/>
-      <c r="Q1" s="386"/>
-      <c r="R1" s="386"/>
-      <c r="S1" s="386"/>
-      <c r="T1" s="386"/>
-      <c r="U1" s="386"/>
+      <c r="A1" s="436"/>
+      <c r="B1" s="436"/>
+      <c r="C1" s="436"/>
+      <c r="D1" s="436"/>
+      <c r="E1" s="436"/>
+      <c r="F1" s="436"/>
+      <c r="G1" s="436"/>
+      <c r="H1" s="436"/>
+      <c r="I1" s="436"/>
+      <c r="J1" s="436"/>
+      <c r="K1" s="436"/>
+      <c r="L1" s="436"/>
+      <c r="M1" s="436"/>
+      <c r="N1" s="436"/>
+      <c r="O1" s="436"/>
+      <c r="P1" s="436"/>
+      <c r="Q1" s="436"/>
+      <c r="R1" s="436"/>
+      <c r="S1" s="436"/>
+      <c r="T1" s="436"/>
+      <c r="U1" s="436"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="386"/>
-      <c r="B2" s="386"/>
-      <c r="C2" s="386"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="386"/>
-      <c r="F2" s="386"/>
-      <c r="G2" s="386"/>
-      <c r="H2" s="386"/>
-      <c r="I2" s="386"/>
-      <c r="J2" s="386"/>
-      <c r="K2" s="386"/>
-      <c r="L2" s="386"/>
-      <c r="M2" s="386"/>
-      <c r="N2" s="386"/>
-      <c r="O2" s="386"/>
-      <c r="P2" s="386"/>
-      <c r="Q2" s="386"/>
-      <c r="R2" s="386"/>
-      <c r="S2" s="386"/>
-      <c r="T2" s="386"/>
-      <c r="U2" s="386"/>
+      <c r="A2" s="436"/>
+      <c r="B2" s="436"/>
+      <c r="C2" s="436"/>
+      <c r="D2" s="436"/>
+      <c r="E2" s="436"/>
+      <c r="F2" s="436"/>
+      <c r="G2" s="436"/>
+      <c r="H2" s="436"/>
+      <c r="I2" s="436"/>
+      <c r="J2" s="436"/>
+      <c r="K2" s="436"/>
+      <c r="L2" s="436"/>
+      <c r="M2" s="436"/>
+      <c r="N2" s="436"/>
+      <c r="O2" s="436"/>
+      <c r="P2" s="436"/>
+      <c r="Q2" s="436"/>
+      <c r="R2" s="436"/>
+      <c r="S2" s="436"/>
+      <c r="T2" s="436"/>
+      <c r="U2" s="436"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="386"/>
-      <c r="B3" s="386"/>
-      <c r="C3" s="386"/>
-      <c r="D3" s="386"/>
-      <c r="E3" s="386"/>
-      <c r="F3" s="386"/>
-      <c r="G3" s="386"/>
-      <c r="H3" s="386"/>
-      <c r="I3" s="386"/>
-      <c r="J3" s="386"/>
-      <c r="K3" s="386"/>
-      <c r="L3" s="386"/>
-      <c r="M3" s="386"/>
-      <c r="N3" s="386"/>
-      <c r="O3" s="386"/>
-      <c r="P3" s="386"/>
-      <c r="Q3" s="386"/>
-      <c r="R3" s="386"/>
-      <c r="S3" s="386"/>
-      <c r="T3" s="386"/>
-      <c r="U3" s="386"/>
+      <c r="A3" s="436"/>
+      <c r="B3" s="436"/>
+      <c r="C3" s="436"/>
+      <c r="D3" s="436"/>
+      <c r="E3" s="436"/>
+      <c r="F3" s="436"/>
+      <c r="G3" s="436"/>
+      <c r="H3" s="436"/>
+      <c r="I3" s="436"/>
+      <c r="J3" s="436"/>
+      <c r="K3" s="436"/>
+      <c r="L3" s="436"/>
+      <c r="M3" s="436"/>
+      <c r="N3" s="436"/>
+      <c r="O3" s="436"/>
+      <c r="P3" s="436"/>
+      <c r="Q3" s="436"/>
+      <c r="R3" s="436"/>
+      <c r="S3" s="436"/>
+      <c r="T3" s="436"/>
+      <c r="U3" s="436"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -36808,7 +36830,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36837,36 +36859,84 @@
       <c r="A2" t="s">
         <v>139</v>
       </c>
+      <c r="B2">
+        <f t="shared" ref="B2:D5" ca="1" si="0">RANDBETWEEN(1,500)</f>
+        <v>432</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>486</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ca="1" si="0"/>
+        <v>356</v>
+      </c>
       <c r="E2">
-        <f>SUM(Tabela16[[#This Row],[Jan]:[Mar]])</f>
-        <v>0</v>
+        <f ca="1">SUM(Tabela16[[#This Row],[Jan]:[Mar]])</f>
+        <v>1274</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>411</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>377</v>
+      </c>
       <c r="E3">
-        <f>SUM(Tabela16[[#This Row],[Jan]:[Mar]])</f>
-        <v>0</v>
+        <f ca="1">SUM(Tabela16[[#This Row],[Jan]:[Mar]])</f>
+        <v>1218</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>398</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>342</v>
+      </c>
       <c r="E4">
-        <f>SUM(Tabela16[[#This Row],[Jan]:[Mar]])</f>
-        <v>0</v>
+        <f ca="1">SUM(Tabela16[[#This Row],[Jan]:[Mar]])</f>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>542</v>
       </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>401</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>438</v>
+      </c>
       <c r="E5">
-        <f>SUM(Tabela16[[#This Row],[Jan]:[Mar]])</f>
-        <v>0</v>
+        <f ca="1">SUM(Tabela16[[#This Row],[Jan]:[Mar]])</f>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
@@ -36885,7 +36955,7 @@
   </sheetPr>
   <dimension ref="B7:E29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -36923,7 +36993,10 @@
       <c r="D8" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="99"/>
+      <c r="E8" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="104">
@@ -36935,7 +37008,10 @@
       <c r="D9" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="99"/>
+      <c r="E9" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="104">
@@ -36947,6 +37023,10 @@
       <c r="D10" s="96" t="s">
         <v>149</v>
       </c>
+      <c r="E10">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="104">
@@ -36958,7 +37038,10 @@
       <c r="D11" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="99"/>
+      <c r="E11" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="104">
@@ -36970,7 +37053,10 @@
       <c r="D12" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="99"/>
+      <c r="E12" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="104">
@@ -36982,7 +37068,10 @@
       <c r="D13" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="99"/>
+      <c r="E13" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="104">
@@ -36994,7 +37083,10 @@
       <c r="D14" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="99"/>
+      <c r="E14" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="104">
@@ -37006,7 +37098,10 @@
       <c r="D15" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="99"/>
+      <c r="E15" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="104">
@@ -37018,7 +37113,10 @@
       <c r="D16" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="99"/>
+      <c r="E16" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="104">
@@ -37030,7 +37128,10 @@
       <c r="D17" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="99"/>
+      <c r="E17" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="104">
@@ -37042,7 +37143,10 @@
       <c r="D18" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="99"/>
+      <c r="E18" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="105">
@@ -37054,7 +37158,10 @@
       <c r="D19" s="96" t="s">
         <v>714</v>
       </c>
-      <c r="E19" s="99"/>
+      <c r="E19" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="105">
@@ -37066,7 +37173,10 @@
       <c r="D20" s="96" t="s">
         <v>714</v>
       </c>
-      <c r="E20" s="99"/>
+      <c r="E20" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="105">
@@ -37078,7 +37188,10 @@
       <c r="D21" s="96" t="s">
         <v>714</v>
       </c>
-      <c r="E21" s="99"/>
+      <c r="E21" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="105">
@@ -37090,7 +37203,10 @@
       <c r="D22" s="96" t="s">
         <v>714</v>
       </c>
-      <c r="E22" s="99"/>
+      <c r="E22" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>45</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="105">
@@ -37102,7 +37218,10 @@
       <c r="D23" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="99"/>
+      <c r="E23" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="105">
@@ -37114,7 +37233,10 @@
       <c r="D24" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="99"/>
+      <c r="E24" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="105">
@@ -37126,7 +37248,10 @@
       <c r="D25" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="99"/>
+      <c r="E25" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="105">
@@ -37138,7 +37263,10 @@
       <c r="D26" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="99"/>
+      <c r="E26" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="105">
@@ -37150,7 +37278,10 @@
       <c r="D27" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="E27" s="99"/>
+      <c r="E27" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>38</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="105">
@@ -37162,7 +37293,10 @@
       <c r="D28" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="E28" s="99"/>
+      <c r="E28" s="99">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>37</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="106">
@@ -37174,7 +37308,10 @@
       <c r="D29" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="63"/>
+      <c r="E29" s="63">
+        <f ca="1">IF(Tabela17[[#This Row],[TIPO]]="Masculino",RANDBETWEEN(39,46),RANDBETWEEN(34,46))</f>
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -39927,73 +40064,73 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="386"/>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
-      <c r="L1" s="386"/>
-      <c r="M1" s="386"/>
-      <c r="N1" s="386"/>
-      <c r="O1" s="386"/>
-      <c r="P1" s="386"/>
-      <c r="Q1" s="386"/>
-      <c r="R1" s="386"/>
-      <c r="S1" s="386"/>
-      <c r="T1" s="386"/>
-      <c r="U1" s="386"/>
+      <c r="A1" s="436"/>
+      <c r="B1" s="436"/>
+      <c r="C1" s="436"/>
+      <c r="D1" s="436"/>
+      <c r="E1" s="436"/>
+      <c r="F1" s="436"/>
+      <c r="G1" s="436"/>
+      <c r="H1" s="436"/>
+      <c r="I1" s="436"/>
+      <c r="J1" s="436"/>
+      <c r="K1" s="436"/>
+      <c r="L1" s="436"/>
+      <c r="M1" s="436"/>
+      <c r="N1" s="436"/>
+      <c r="O1" s="436"/>
+      <c r="P1" s="436"/>
+      <c r="Q1" s="436"/>
+      <c r="R1" s="436"/>
+      <c r="S1" s="436"/>
+      <c r="T1" s="436"/>
+      <c r="U1" s="436"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="386"/>
-      <c r="B2" s="386"/>
-      <c r="C2" s="386"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="386"/>
-      <c r="F2" s="386"/>
-      <c r="G2" s="386"/>
-      <c r="H2" s="386"/>
-      <c r="I2" s="386"/>
-      <c r="J2" s="386"/>
-      <c r="K2" s="386"/>
-      <c r="L2" s="386"/>
-      <c r="M2" s="386"/>
-      <c r="N2" s="386"/>
-      <c r="O2" s="386"/>
-      <c r="P2" s="386"/>
-      <c r="Q2" s="386"/>
-      <c r="R2" s="386"/>
-      <c r="S2" s="386"/>
-      <c r="T2" s="386"/>
-      <c r="U2" s="386"/>
+      <c r="A2" s="436"/>
+      <c r="B2" s="436"/>
+      <c r="C2" s="436"/>
+      <c r="D2" s="436"/>
+      <c r="E2" s="436"/>
+      <c r="F2" s="436"/>
+      <c r="G2" s="436"/>
+      <c r="H2" s="436"/>
+      <c r="I2" s="436"/>
+      <c r="J2" s="436"/>
+      <c r="K2" s="436"/>
+      <c r="L2" s="436"/>
+      <c r="M2" s="436"/>
+      <c r="N2" s="436"/>
+      <c r="O2" s="436"/>
+      <c r="P2" s="436"/>
+      <c r="Q2" s="436"/>
+      <c r="R2" s="436"/>
+      <c r="S2" s="436"/>
+      <c r="T2" s="436"/>
+      <c r="U2" s="436"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="386"/>
-      <c r="B3" s="386"/>
-      <c r="C3" s="386"/>
-      <c r="D3" s="386"/>
-      <c r="E3" s="386"/>
-      <c r="F3" s="386"/>
-      <c r="G3" s="386"/>
-      <c r="H3" s="386"/>
-      <c r="I3" s="386"/>
-      <c r="J3" s="386"/>
-      <c r="K3" s="386"/>
-      <c r="L3" s="386"/>
-      <c r="M3" s="386"/>
-      <c r="N3" s="386"/>
-      <c r="O3" s="386"/>
-      <c r="P3" s="386"/>
-      <c r="Q3" s="386"/>
-      <c r="R3" s="386"/>
-      <c r="S3" s="386"/>
-      <c r="T3" s="386"/>
-      <c r="U3" s="386"/>
+      <c r="A3" s="436"/>
+      <c r="B3" s="436"/>
+      <c r="C3" s="436"/>
+      <c r="D3" s="436"/>
+      <c r="E3" s="436"/>
+      <c r="F3" s="436"/>
+      <c r="G3" s="436"/>
+      <c r="H3" s="436"/>
+      <c r="I3" s="436"/>
+      <c r="J3" s="436"/>
+      <c r="K3" s="436"/>
+      <c r="L3" s="436"/>
+      <c r="M3" s="436"/>
+      <c r="N3" s="436"/>
+      <c r="O3" s="436"/>
+      <c r="P3" s="436"/>
+      <c r="Q3" s="436"/>
+      <c r="R3" s="436"/>
+      <c r="S3" s="436"/>
+      <c r="T3" s="436"/>
+      <c r="U3" s="436"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -40042,18 +40179,18 @@
       <c r="D2" s="283" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="388" t="s">
+      <c r="G2" s="438" t="s">
         <v>738</v>
       </c>
-      <c r="H2" s="388"/>
-      <c r="J2" s="388" t="s">
+      <c r="H2" s="438"/>
+      <c r="J2" s="438" t="s">
         <v>737</v>
       </c>
-      <c r="K2" s="388"/>
-      <c r="N2" s="388" t="s">
+      <c r="K2" s="438"/>
+      <c r="N2" s="438" t="s">
         <v>739</v>
       </c>
-      <c r="O2" s="388"/>
+      <c r="O2" s="438"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="284">
@@ -40709,73 +40846,73 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="386"/>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
-      <c r="L1" s="386"/>
-      <c r="M1" s="386"/>
-      <c r="N1" s="386"/>
-      <c r="O1" s="386"/>
-      <c r="P1" s="386"/>
-      <c r="Q1" s="386"/>
-      <c r="R1" s="386"/>
-      <c r="S1" s="386"/>
-      <c r="T1" s="386"/>
-      <c r="U1" s="386"/>
+      <c r="A1" s="436"/>
+      <c r="B1" s="436"/>
+      <c r="C1" s="436"/>
+      <c r="D1" s="436"/>
+      <c r="E1" s="436"/>
+      <c r="F1" s="436"/>
+      <c r="G1" s="436"/>
+      <c r="H1" s="436"/>
+      <c r="I1" s="436"/>
+      <c r="J1" s="436"/>
+      <c r="K1" s="436"/>
+      <c r="L1" s="436"/>
+      <c r="M1" s="436"/>
+      <c r="N1" s="436"/>
+      <c r="O1" s="436"/>
+      <c r="P1" s="436"/>
+      <c r="Q1" s="436"/>
+      <c r="R1" s="436"/>
+      <c r="S1" s="436"/>
+      <c r="T1" s="436"/>
+      <c r="U1" s="436"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="386"/>
-      <c r="B2" s="386"/>
-      <c r="C2" s="386"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="386"/>
-      <c r="F2" s="386"/>
-      <c r="G2" s="386"/>
-      <c r="H2" s="386"/>
-      <c r="I2" s="386"/>
-      <c r="J2" s="386"/>
-      <c r="K2" s="386"/>
-      <c r="L2" s="386"/>
-      <c r="M2" s="386"/>
-      <c r="N2" s="386"/>
-      <c r="O2" s="386"/>
-      <c r="P2" s="386"/>
-      <c r="Q2" s="386"/>
-      <c r="R2" s="386"/>
-      <c r="S2" s="386"/>
-      <c r="T2" s="386"/>
-      <c r="U2" s="386"/>
+      <c r="A2" s="436"/>
+      <c r="B2" s="436"/>
+      <c r="C2" s="436"/>
+      <c r="D2" s="436"/>
+      <c r="E2" s="436"/>
+      <c r="F2" s="436"/>
+      <c r="G2" s="436"/>
+      <c r="H2" s="436"/>
+      <c r="I2" s="436"/>
+      <c r="J2" s="436"/>
+      <c r="K2" s="436"/>
+      <c r="L2" s="436"/>
+      <c r="M2" s="436"/>
+      <c r="N2" s="436"/>
+      <c r="O2" s="436"/>
+      <c r="P2" s="436"/>
+      <c r="Q2" s="436"/>
+      <c r="R2" s="436"/>
+      <c r="S2" s="436"/>
+      <c r="T2" s="436"/>
+      <c r="U2" s="436"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="386"/>
-      <c r="B3" s="386"/>
-      <c r="C3" s="386"/>
-      <c r="D3" s="386"/>
-      <c r="E3" s="386"/>
-      <c r="F3" s="386"/>
-      <c r="G3" s="386"/>
-      <c r="H3" s="386"/>
-      <c r="I3" s="386"/>
-      <c r="J3" s="386"/>
-      <c r="K3" s="386"/>
-      <c r="L3" s="386"/>
-      <c r="M3" s="386"/>
-      <c r="N3" s="386"/>
-      <c r="O3" s="386"/>
-      <c r="P3" s="386"/>
-      <c r="Q3" s="386"/>
-      <c r="R3" s="386"/>
-      <c r="S3" s="386"/>
-      <c r="T3" s="386"/>
-      <c r="U3" s="386"/>
+      <c r="A3" s="436"/>
+      <c r="B3" s="436"/>
+      <c r="C3" s="436"/>
+      <c r="D3" s="436"/>
+      <c r="E3" s="436"/>
+      <c r="F3" s="436"/>
+      <c r="G3" s="436"/>
+      <c r="H3" s="436"/>
+      <c r="I3" s="436"/>
+      <c r="J3" s="436"/>
+      <c r="K3" s="436"/>
+      <c r="L3" s="436"/>
+      <c r="M3" s="436"/>
+      <c r="N3" s="436"/>
+      <c r="O3" s="436"/>
+      <c r="P3" s="436"/>
+      <c r="Q3" s="436"/>
+      <c r="R3" s="436"/>
+      <c r="S3" s="436"/>
+      <c r="T3" s="436"/>
+      <c r="U3" s="436"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -41562,13 +41699,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="437" t="s">
         <v>532</v>
       </c>
-      <c r="B1" s="387"/>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
+      <c r="B1" s="437"/>
+      <c r="C1" s="437"/>
+      <c r="D1" s="437"/>
+      <c r="E1" s="437"/>
       <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -43685,18 +43822,18 @@
       <c r="C2" s="208" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="389" t="s">
+      <c r="F2" s="439" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="389"/>
-      <c r="I2" s="390" t="s">
+      <c r="G2" s="439"/>
+      <c r="I2" s="440" t="s">
         <v>270</v>
       </c>
-      <c r="J2" s="390"/>
-      <c r="L2" s="391" t="s">
+      <c r="J2" s="440"/>
+      <c r="L2" s="441" t="s">
         <v>271</v>
       </c>
-      <c r="M2" s="391"/>
+      <c r="M2" s="441"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="209" t="s">
@@ -44723,73 +44860,73 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="386"/>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
-      <c r="L1" s="386"/>
-      <c r="M1" s="386"/>
-      <c r="N1" s="386"/>
-      <c r="O1" s="386"/>
-      <c r="P1" s="386"/>
-      <c r="Q1" s="386"/>
-      <c r="R1" s="386"/>
-      <c r="S1" s="386"/>
-      <c r="T1" s="386"/>
-      <c r="U1" s="386"/>
+      <c r="A1" s="436"/>
+      <c r="B1" s="436"/>
+      <c r="C1" s="436"/>
+      <c r="D1" s="436"/>
+      <c r="E1" s="436"/>
+      <c r="F1" s="436"/>
+      <c r="G1" s="436"/>
+      <c r="H1" s="436"/>
+      <c r="I1" s="436"/>
+      <c r="J1" s="436"/>
+      <c r="K1" s="436"/>
+      <c r="L1" s="436"/>
+      <c r="M1" s="436"/>
+      <c r="N1" s="436"/>
+      <c r="O1" s="436"/>
+      <c r="P1" s="436"/>
+      <c r="Q1" s="436"/>
+      <c r="R1" s="436"/>
+      <c r="S1" s="436"/>
+      <c r="T1" s="436"/>
+      <c r="U1" s="436"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="386"/>
-      <c r="B2" s="386"/>
-      <c r="C2" s="386"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="386"/>
-      <c r="F2" s="386"/>
-      <c r="G2" s="386"/>
-      <c r="H2" s="386"/>
-      <c r="I2" s="386"/>
-      <c r="J2" s="386"/>
-      <c r="K2" s="386"/>
-      <c r="L2" s="386"/>
-      <c r="M2" s="386"/>
-      <c r="N2" s="386"/>
-      <c r="O2" s="386"/>
-      <c r="P2" s="386"/>
-      <c r="Q2" s="386"/>
-      <c r="R2" s="386"/>
-      <c r="S2" s="386"/>
-      <c r="T2" s="386"/>
-      <c r="U2" s="386"/>
+      <c r="A2" s="436"/>
+      <c r="B2" s="436"/>
+      <c r="C2" s="436"/>
+      <c r="D2" s="436"/>
+      <c r="E2" s="436"/>
+      <c r="F2" s="436"/>
+      <c r="G2" s="436"/>
+      <c r="H2" s="436"/>
+      <c r="I2" s="436"/>
+      <c r="J2" s="436"/>
+      <c r="K2" s="436"/>
+      <c r="L2" s="436"/>
+      <c r="M2" s="436"/>
+      <c r="N2" s="436"/>
+      <c r="O2" s="436"/>
+      <c r="P2" s="436"/>
+      <c r="Q2" s="436"/>
+      <c r="R2" s="436"/>
+      <c r="S2" s="436"/>
+      <c r="T2" s="436"/>
+      <c r="U2" s="436"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="386"/>
-      <c r="B3" s="386"/>
-      <c r="C3" s="386"/>
-      <c r="D3" s="386"/>
-      <c r="E3" s="386"/>
-      <c r="F3" s="386"/>
-      <c r="G3" s="386"/>
-      <c r="H3" s="386"/>
-      <c r="I3" s="386"/>
-      <c r="J3" s="386"/>
-      <c r="K3" s="386"/>
-      <c r="L3" s="386"/>
-      <c r="M3" s="386"/>
-      <c r="N3" s="386"/>
-      <c r="O3" s="386"/>
-      <c r="P3" s="386"/>
-      <c r="Q3" s="386"/>
-      <c r="R3" s="386"/>
-      <c r="S3" s="386"/>
-      <c r="T3" s="386"/>
-      <c r="U3" s="386"/>
+      <c r="A3" s="436"/>
+      <c r="B3" s="436"/>
+      <c r="C3" s="436"/>
+      <c r="D3" s="436"/>
+      <c r="E3" s="436"/>
+      <c r="F3" s="436"/>
+      <c r="G3" s="436"/>
+      <c r="H3" s="436"/>
+      <c r="I3" s="436"/>
+      <c r="J3" s="436"/>
+      <c r="K3" s="436"/>
+      <c r="L3" s="436"/>
+      <c r="M3" s="436"/>
+      <c r="N3" s="436"/>
+      <c r="O3" s="436"/>
+      <c r="P3" s="436"/>
+      <c r="Q3" s="436"/>
+      <c r="R3" s="436"/>
+      <c r="S3" s="436"/>
+      <c r="T3" s="436"/>
+      <c r="U3" s="436"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -44824,16 +44961,16 @@
   <sheetData>
     <row r="1" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="392" t="s">
+      <c r="B2" s="442" t="s">
         <v>606</v>
       </c>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="H2" s="392" t="s">
+      <c r="C2" s="442"/>
+      <c r="D2" s="442"/>
+      <c r="H2" s="442" t="s">
         <v>607</v>
       </c>
-      <c r="I2" s="393"/>
-      <c r="J2" s="393"/>
+      <c r="I2" s="443"/>
+      <c r="J2" s="443"/>
     </row>
     <row r="4" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="233" t="s">
@@ -45443,11 +45580,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="394" t="s">
+      <c r="B2" s="444" t="s">
         <v>658</v>
       </c>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
     </row>
     <row r="4" spans="2:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="260" t="s">
@@ -45579,13 +45716,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="395" t="s">
+      <c r="B2" s="445" t="s">
         <v>658</v>
       </c>
-      <c r="C2" s="395"/>
-      <c r="D2" s="395"/>
-      <c r="E2" s="395"/>
-      <c r="F2" s="395"/>
+      <c r="C2" s="445"/>
+      <c r="D2" s="445"/>
+      <c r="E2" s="445"/>
+      <c r="F2" s="445"/>
     </row>
     <row r="5" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="255" t="s">
@@ -45727,27 +45864,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="381"/>
-      <c r="B1" s="381"/>
-      <c r="C1" s="381"/>
-      <c r="D1" s="381"/>
-      <c r="E1" s="381"/>
-      <c r="F1" s="381"/>
-      <c r="G1" s="381"/>
-      <c r="H1" s="381"/>
-      <c r="I1" s="381"/>
-      <c r="J1" s="381"/>
-      <c r="K1" s="381"/>
-      <c r="L1" s="381"/>
-      <c r="M1" s="381"/>
-      <c r="N1" s="381"/>
-      <c r="O1" s="381"/>
-      <c r="P1" s="381"/>
-      <c r="Q1" s="381"/>
-      <c r="R1" s="381"/>
-      <c r="S1" s="381"/>
-      <c r="T1" s="381"/>
-      <c r="U1" s="381"/>
+      <c r="A1" s="431"/>
+      <c r="B1" s="431"/>
+      <c r="C1" s="431"/>
+      <c r="D1" s="431"/>
+      <c r="E1" s="431"/>
+      <c r="F1" s="431"/>
+      <c r="G1" s="431"/>
+      <c r="H1" s="431"/>
+      <c r="I1" s="431"/>
+      <c r="J1" s="431"/>
+      <c r="K1" s="431"/>
+      <c r="L1" s="431"/>
+      <c r="M1" s="431"/>
+      <c r="N1" s="431"/>
+      <c r="O1" s="431"/>
+      <c r="P1" s="431"/>
+      <c r="Q1" s="431"/>
+      <c r="R1" s="431"/>
+      <c r="S1" s="431"/>
+      <c r="T1" s="431"/>
+      <c r="U1" s="431"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -48998,27 +49135,27 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="383" t="s">
+      <c r="A7" s="433" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="384"/>
-      <c r="C7" s="384"/>
-      <c r="D7" s="384"/>
-      <c r="E7" s="385"/>
-      <c r="G7" s="383" t="s">
+      <c r="B7" s="434"/>
+      <c r="C7" s="434"/>
+      <c r="D7" s="434"/>
+      <c r="E7" s="435"/>
+      <c r="G7" s="433" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="384"/>
-      <c r="I7" s="384"/>
-      <c r="J7" s="384"/>
-      <c r="K7" s="385"/>
-      <c r="M7" s="383" t="s">
+      <c r="H7" s="434"/>
+      <c r="I7" s="434"/>
+      <c r="J7" s="434"/>
+      <c r="K7" s="435"/>
+      <c r="M7" s="433" t="s">
         <v>445</v>
       </c>
-      <c r="N7" s="384"/>
-      <c r="O7" s="384"/>
-      <c r="P7" s="384"/>
-      <c r="Q7" s="385"/>
+      <c r="N7" s="434"/>
+      <c r="O7" s="434"/>
+      <c r="P7" s="434"/>
+      <c r="Q7" s="435"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
@@ -49164,27 +49301,27 @@
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="383" t="s">
+      <c r="A18" s="433" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="384"/>
-      <c r="C18" s="384"/>
-      <c r="D18" s="384"/>
-      <c r="E18" s="385"/>
-      <c r="G18" s="383" t="s">
+      <c r="B18" s="434"/>
+      <c r="C18" s="434"/>
+      <c r="D18" s="434"/>
+      <c r="E18" s="435"/>
+      <c r="G18" s="433" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="384"/>
-      <c r="I18" s="384"/>
-      <c r="J18" s="384"/>
-      <c r="K18" s="385"/>
-      <c r="M18" s="383" t="s">
+      <c r="H18" s="434"/>
+      <c r="I18" s="434"/>
+      <c r="J18" s="434"/>
+      <c r="K18" s="435"/>
+      <c r="M18" s="433" t="s">
         <v>446</v>
       </c>
-      <c r="N18" s="384"/>
-      <c r="O18" s="384"/>
-      <c r="P18" s="384"/>
-      <c r="Q18" s="385"/>
+      <c r="N18" s="434"/>
+      <c r="O18" s="434"/>
+      <c r="P18" s="434"/>
+      <c r="Q18" s="435"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
@@ -49402,20 +49539,20 @@
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="383" t="s">
+      <c r="A29" s="433" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="384"/>
-      <c r="C29" s="384"/>
-      <c r="D29" s="384"/>
-      <c r="E29" s="385"/>
-      <c r="G29" s="383" t="s">
+      <c r="B29" s="434"/>
+      <c r="C29" s="434"/>
+      <c r="D29" s="434"/>
+      <c r="E29" s="435"/>
+      <c r="G29" s="433" t="s">
         <v>460</v>
       </c>
-      <c r="H29" s="384"/>
-      <c r="I29" s="384"/>
-      <c r="J29" s="384"/>
-      <c r="K29" s="385"/>
+      <c r="H29" s="434"/>
+      <c r="I29" s="434"/>
+      <c r="J29" s="434"/>
+      <c r="K29" s="435"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="271" t="s">
@@ -49538,13 +49675,13 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="383" t="s">
+      <c r="A40" s="433" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="384"/>
-      <c r="C40" s="384"/>
-      <c r="D40" s="384"/>
-      <c r="E40" s="385"/>
+      <c r="B40" s="434"/>
+      <c r="C40" s="434"/>
+      <c r="D40" s="434"/>
+      <c r="E40" s="435"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="370" t="s">
@@ -50487,73 +50624,73 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="386"/>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
-      <c r="L1" s="386"/>
-      <c r="M1" s="386"/>
-      <c r="N1" s="386"/>
-      <c r="O1" s="386"/>
-      <c r="P1" s="386"/>
-      <c r="Q1" s="386"/>
-      <c r="R1" s="386"/>
-      <c r="S1" s="386"/>
-      <c r="T1" s="386"/>
-      <c r="U1" s="386"/>
+      <c r="A1" s="436"/>
+      <c r="B1" s="436"/>
+      <c r="C1" s="436"/>
+      <c r="D1" s="436"/>
+      <c r="E1" s="436"/>
+      <c r="F1" s="436"/>
+      <c r="G1" s="436"/>
+      <c r="H1" s="436"/>
+      <c r="I1" s="436"/>
+      <c r="J1" s="436"/>
+      <c r="K1" s="436"/>
+      <c r="L1" s="436"/>
+      <c r="M1" s="436"/>
+      <c r="N1" s="436"/>
+      <c r="O1" s="436"/>
+      <c r="P1" s="436"/>
+      <c r="Q1" s="436"/>
+      <c r="R1" s="436"/>
+      <c r="S1" s="436"/>
+      <c r="T1" s="436"/>
+      <c r="U1" s="436"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="386"/>
-      <c r="B2" s="386"/>
-      <c r="C2" s="386"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="386"/>
-      <c r="F2" s="386"/>
-      <c r="G2" s="386"/>
-      <c r="H2" s="386"/>
-      <c r="I2" s="386"/>
-      <c r="J2" s="386"/>
-      <c r="K2" s="386"/>
-      <c r="L2" s="386"/>
-      <c r="M2" s="386"/>
-      <c r="N2" s="386"/>
-      <c r="O2" s="386"/>
-      <c r="P2" s="386"/>
-      <c r="Q2" s="386"/>
-      <c r="R2" s="386"/>
-      <c r="S2" s="386"/>
-      <c r="T2" s="386"/>
-      <c r="U2" s="386"/>
+      <c r="A2" s="436"/>
+      <c r="B2" s="436"/>
+      <c r="C2" s="436"/>
+      <c r="D2" s="436"/>
+      <c r="E2" s="436"/>
+      <c r="F2" s="436"/>
+      <c r="G2" s="436"/>
+      <c r="H2" s="436"/>
+      <c r="I2" s="436"/>
+      <c r="J2" s="436"/>
+      <c r="K2" s="436"/>
+      <c r="L2" s="436"/>
+      <c r="M2" s="436"/>
+      <c r="N2" s="436"/>
+      <c r="O2" s="436"/>
+      <c r="P2" s="436"/>
+      <c r="Q2" s="436"/>
+      <c r="R2" s="436"/>
+      <c r="S2" s="436"/>
+      <c r="T2" s="436"/>
+      <c r="U2" s="436"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="386"/>
-      <c r="B3" s="386"/>
-      <c r="C3" s="386"/>
-      <c r="D3" s="386"/>
-      <c r="E3" s="386"/>
-      <c r="F3" s="386"/>
-      <c r="G3" s="386"/>
-      <c r="H3" s="386"/>
-      <c r="I3" s="386"/>
-      <c r="J3" s="386"/>
-      <c r="K3" s="386"/>
-      <c r="L3" s="386"/>
-      <c r="M3" s="386"/>
-      <c r="N3" s="386"/>
-      <c r="O3" s="386"/>
-      <c r="P3" s="386"/>
-      <c r="Q3" s="386"/>
-      <c r="R3" s="386"/>
-      <c r="S3" s="386"/>
-      <c r="T3" s="386"/>
-      <c r="U3" s="386"/>
+      <c r="A3" s="436"/>
+      <c r="B3" s="436"/>
+      <c r="C3" s="436"/>
+      <c r="D3" s="436"/>
+      <c r="E3" s="436"/>
+      <c r="F3" s="436"/>
+      <c r="G3" s="436"/>
+      <c r="H3" s="436"/>
+      <c r="I3" s="436"/>
+      <c r="J3" s="436"/>
+      <c r="K3" s="436"/>
+      <c r="L3" s="436"/>
+      <c r="M3" s="436"/>
+      <c r="N3" s="436"/>
+      <c r="O3" s="436"/>
+      <c r="P3" s="436"/>
+      <c r="Q3" s="436"/>
+      <c r="R3" s="436"/>
+      <c r="S3" s="436"/>
+      <c r="T3" s="436"/>
+      <c r="U3" s="436"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -50957,7 +51094,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="224">
         <f ca="1">TODAY()</f>
-        <v>45329</v>
+        <v>45342</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>87</v>
@@ -50967,7 +51104,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="224">
         <f t="shared" ref="A3:A11" ca="1" si="0">TODAY()</f>
-        <v>45329</v>
+        <v>45342</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>88</v>
@@ -50977,7 +51114,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="224">
         <f t="shared" ca="1" si="0"/>
-        <v>45329</v>
+        <v>45342</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>89</v>
@@ -50987,7 +51124,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="224">
         <f t="shared" ca="1" si="0"/>
-        <v>45329</v>
+        <v>45342</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>90</v>
@@ -50997,7 +51134,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="224">
         <f t="shared" ca="1" si="0"/>
-        <v>45329</v>
+        <v>45342</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>91</v>
@@ -51007,7 +51144,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="224">
         <f t="shared" ca="1" si="0"/>
-        <v>45329</v>
+        <v>45342</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>92</v>
@@ -51017,7 +51154,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="224">
         <f t="shared" ca="1" si="0"/>
-        <v>45329</v>
+        <v>45342</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>93</v>
@@ -51036,7 +51173,7 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="224">
         <f t="shared" ca="1" si="0"/>
-        <v>45329</v>
+        <v>45342</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>96</v>
@@ -51046,7 +51183,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="224">
         <f t="shared" ca="1" si="0"/>
-        <v>45329</v>
+        <v>45342</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>97</v>
@@ -51240,73 +51377,73 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="386"/>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
-      <c r="L1" s="386"/>
-      <c r="M1" s="386"/>
-      <c r="N1" s="386"/>
-      <c r="O1" s="386"/>
-      <c r="P1" s="386"/>
-      <c r="Q1" s="386"/>
-      <c r="R1" s="386"/>
-      <c r="S1" s="386"/>
-      <c r="T1" s="386"/>
-      <c r="U1" s="386"/>
+      <c r="A1" s="436"/>
+      <c r="B1" s="436"/>
+      <c r="C1" s="436"/>
+      <c r="D1" s="436"/>
+      <c r="E1" s="436"/>
+      <c r="F1" s="436"/>
+      <c r="G1" s="436"/>
+      <c r="H1" s="436"/>
+      <c r="I1" s="436"/>
+      <c r="J1" s="436"/>
+      <c r="K1" s="436"/>
+      <c r="L1" s="436"/>
+      <c r="M1" s="436"/>
+      <c r="N1" s="436"/>
+      <c r="O1" s="436"/>
+      <c r="P1" s="436"/>
+      <c r="Q1" s="436"/>
+      <c r="R1" s="436"/>
+      <c r="S1" s="436"/>
+      <c r="T1" s="436"/>
+      <c r="U1" s="436"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="386"/>
-      <c r="B2" s="386"/>
-      <c r="C2" s="386"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="386"/>
-      <c r="F2" s="386"/>
-      <c r="G2" s="386"/>
-      <c r="H2" s="386"/>
-      <c r="I2" s="386"/>
-      <c r="J2" s="386"/>
-      <c r="K2" s="386"/>
-      <c r="L2" s="386"/>
-      <c r="M2" s="386"/>
-      <c r="N2" s="386"/>
-      <c r="O2" s="386"/>
-      <c r="P2" s="386"/>
-      <c r="Q2" s="386"/>
-      <c r="R2" s="386"/>
-      <c r="S2" s="386"/>
-      <c r="T2" s="386"/>
-      <c r="U2" s="386"/>
+      <c r="A2" s="436"/>
+      <c r="B2" s="436"/>
+      <c r="C2" s="436"/>
+      <c r="D2" s="436"/>
+      <c r="E2" s="436"/>
+      <c r="F2" s="436"/>
+      <c r="G2" s="436"/>
+      <c r="H2" s="436"/>
+      <c r="I2" s="436"/>
+      <c r="J2" s="436"/>
+      <c r="K2" s="436"/>
+      <c r="L2" s="436"/>
+      <c r="M2" s="436"/>
+      <c r="N2" s="436"/>
+      <c r="O2" s="436"/>
+      <c r="P2" s="436"/>
+      <c r="Q2" s="436"/>
+      <c r="R2" s="436"/>
+      <c r="S2" s="436"/>
+      <c r="T2" s="436"/>
+      <c r="U2" s="436"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="386"/>
-      <c r="B3" s="386"/>
-      <c r="C3" s="386"/>
-      <c r="D3" s="386"/>
-      <c r="E3" s="386"/>
-      <c r="F3" s="386"/>
-      <c r="G3" s="386"/>
-      <c r="H3" s="386"/>
-      <c r="I3" s="386"/>
-      <c r="J3" s="386"/>
-      <c r="K3" s="386"/>
-      <c r="L3" s="386"/>
-      <c r="M3" s="386"/>
-      <c r="N3" s="386"/>
-      <c r="O3" s="386"/>
-      <c r="P3" s="386"/>
-      <c r="Q3" s="386"/>
-      <c r="R3" s="386"/>
-      <c r="S3" s="386"/>
-      <c r="T3" s="386"/>
-      <c r="U3" s="386"/>
+      <c r="A3" s="436"/>
+      <c r="B3" s="436"/>
+      <c r="C3" s="436"/>
+      <c r="D3" s="436"/>
+      <c r="E3" s="436"/>
+      <c r="F3" s="436"/>
+      <c r="G3" s="436"/>
+      <c r="H3" s="436"/>
+      <c r="I3" s="436"/>
+      <c r="J3" s="436"/>
+      <c r="K3" s="436"/>
+      <c r="L3" s="436"/>
+      <c r="M3" s="436"/>
+      <c r="N3" s="436"/>
+      <c r="O3" s="436"/>
+      <c r="P3" s="436"/>
+      <c r="Q3" s="436"/>
+      <c r="R3" s="436"/>
+      <c r="S3" s="436"/>
+      <c r="T3" s="436"/>
+      <c r="U3" s="436"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -52320,75 +52457,75 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="386"/>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
-      <c r="L1" s="386"/>
-      <c r="M1" s="386"/>
-      <c r="N1" s="386"/>
-      <c r="O1" s="386"/>
-      <c r="P1" s="386"/>
-      <c r="Q1" s="386"/>
-      <c r="R1" s="386"/>
-      <c r="S1" s="386"/>
-      <c r="T1" s="386"/>
-      <c r="U1" s="386"/>
+      <c r="A1" s="436"/>
+      <c r="B1" s="436"/>
+      <c r="C1" s="436"/>
+      <c r="D1" s="436"/>
+      <c r="E1" s="436"/>
+      <c r="F1" s="436"/>
+      <c r="G1" s="436"/>
+      <c r="H1" s="436"/>
+      <c r="I1" s="436"/>
+      <c r="J1" s="436"/>
+      <c r="K1" s="436"/>
+      <c r="L1" s="436"/>
+      <c r="M1" s="436"/>
+      <c r="N1" s="436"/>
+      <c r="O1" s="436"/>
+      <c r="P1" s="436"/>
+      <c r="Q1" s="436"/>
+      <c r="R1" s="436"/>
+      <c r="S1" s="436"/>
+      <c r="T1" s="436"/>
+      <c r="U1" s="436"/>
       <c r="V1" s="29"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="386"/>
-      <c r="B2" s="386"/>
-      <c r="C2" s="386"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="386"/>
-      <c r="F2" s="386"/>
-      <c r="G2" s="386"/>
-      <c r="H2" s="386"/>
-      <c r="I2" s="386"/>
-      <c r="J2" s="386"/>
-      <c r="K2" s="386"/>
-      <c r="L2" s="386"/>
-      <c r="M2" s="386"/>
-      <c r="N2" s="386"/>
-      <c r="O2" s="386"/>
-      <c r="P2" s="386"/>
-      <c r="Q2" s="386"/>
-      <c r="R2" s="386"/>
-      <c r="S2" s="386"/>
-      <c r="T2" s="386"/>
-      <c r="U2" s="386"/>
+      <c r="A2" s="436"/>
+      <c r="B2" s="436"/>
+      <c r="C2" s="436"/>
+      <c r="D2" s="436"/>
+      <c r="E2" s="436"/>
+      <c r="F2" s="436"/>
+      <c r="G2" s="436"/>
+      <c r="H2" s="436"/>
+      <c r="I2" s="436"/>
+      <c r="J2" s="436"/>
+      <c r="K2" s="436"/>
+      <c r="L2" s="436"/>
+      <c r="M2" s="436"/>
+      <c r="N2" s="436"/>
+      <c r="O2" s="436"/>
+      <c r="P2" s="436"/>
+      <c r="Q2" s="436"/>
+      <c r="R2" s="436"/>
+      <c r="S2" s="436"/>
+      <c r="T2" s="436"/>
+      <c r="U2" s="436"/>
       <c r="V2" s="29"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="386"/>
-      <c r="B3" s="386"/>
-      <c r="C3" s="386"/>
-      <c r="D3" s="386"/>
-      <c r="E3" s="386"/>
-      <c r="F3" s="386"/>
-      <c r="G3" s="386"/>
-      <c r="H3" s="386"/>
-      <c r="I3" s="386"/>
-      <c r="J3" s="386"/>
-      <c r="K3" s="386"/>
-      <c r="L3" s="386"/>
-      <c r="M3" s="386"/>
-      <c r="N3" s="386"/>
-      <c r="O3" s="386"/>
-      <c r="P3" s="386"/>
-      <c r="Q3" s="386"/>
-      <c r="R3" s="386"/>
-      <c r="S3" s="386"/>
-      <c r="T3" s="386"/>
-      <c r="U3" s="386"/>
+      <c r="A3" s="436"/>
+      <c r="B3" s="436"/>
+      <c r="C3" s="436"/>
+      <c r="D3" s="436"/>
+      <c r="E3" s="436"/>
+      <c r="F3" s="436"/>
+      <c r="G3" s="436"/>
+      <c r="H3" s="436"/>
+      <c r="I3" s="436"/>
+      <c r="J3" s="436"/>
+      <c r="K3" s="436"/>
+      <c r="L3" s="436"/>
+      <c r="M3" s="436"/>
+      <c r="N3" s="436"/>
+      <c r="O3" s="436"/>
+      <c r="P3" s="436"/>
+      <c r="Q3" s="436"/>
+      <c r="R3" s="436"/>
+      <c r="S3" s="436"/>
+      <c r="T3" s="436"/>
+      <c r="U3" s="436"/>
       <c r="V3" s="29"/>
     </row>
   </sheetData>
